--- a/2023/turkey_1-lig_2023-2024.xlsx
+++ b/2023/turkey_1-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V64"/>
+  <dimension ref="A1:V65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Keciorengucu</t>
+          <t>Tuzlaspor</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2.78</v>
+        <v>1.53</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>27/08/2023 18:42</t>
+          <t>26/08/2023 18:13</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.43</v>
+        <v>1.47</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>02/09/2023 18:13</t>
+          <t>02/09/2023 18:08</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.3</v>
+        <v>4.28</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>27/08/2023 18:42</t>
+          <t>26/08/2023 18:13</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>02/09/2023 18:07</t>
+          <t>02/09/2023 18:08</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.56</v>
+        <v>5.83</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>27/08/2023 18:42</t>
+          <t>26/08/2023 18:13</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.01</v>
+        <v>6.82</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>02/09/2023 18:13</t>
+          <t>02/09/2023 18:08</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/boluspor-keciorengucu/WSWSskWM/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-tuzlaspor/jX3gbAG3/</t>
         </is>
       </c>
     </row>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Tuzlaspor</t>
+          <t>Keciorengucu</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1.53</v>
+        <v>2.78</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>26/08/2023 18:13</t>
+          <t>27/08/2023 18:42</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.47</v>
+        <v>2.43</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>02/09/2023 18:08</t>
+          <t>02/09/2023 18:13</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>4.28</v>
+        <v>3.3</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>26/08/2023 18:13</t>
+          <t>27/08/2023 18:42</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>4.5</v>
+        <v>3.33</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>02/09/2023 18:08</t>
+          <t>02/09/2023 18:07</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>5.83</v>
+        <v>2.56</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>26/08/2023 18:13</t>
+          <t>27/08/2023 18:42</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>6.82</v>
+        <v>3.01</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>02/09/2023 18:08</t>
+          <t>02/09/2023 18:13</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-tuzlaspor/jX3gbAG3/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/boluspor-keciorengucu/WSWSskWM/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Kocaelispor</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Corum</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.24</v>
+        <v>1.79</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.45</v>
+        <v>1.78</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>16/09/2023 17:52</t>
+          <t>16/09/2023 17:42</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.47</v>
+        <v>3.56</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.43</v>
+        <v>3.7</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>16/09/2023 17:52</t>
+          <t>16/09/2023 17:42</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.97</v>
+        <v>4.57</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>2.9</v>
+        <v>4.65</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>16/09/2023 17:52</t>
+          <t>16/09/2023 17:42</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/umraniyespor-corum-fk/OMe6e80M/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/kocaelispor-boluspor/f5nxjnOq/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Kocaelispor</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Corum</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J41" t="n">
-        <v>1.79</v>
+        <v>2.24</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.78</v>
+        <v>2.45</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>16/09/2023 17:42</t>
+          <t>16/09/2023 17:52</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.56</v>
+        <v>3.47</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.7</v>
+        <v>3.43</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>16/09/2023 17:42</t>
+          <t>16/09/2023 17:52</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>4.57</v>
+        <v>2.97</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>4.65</v>
+        <v>2.9</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>16/09/2023 17:42</t>
+          <t>16/09/2023 17:52</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/kocaelispor-boluspor/f5nxjnOq/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/umraniyespor-corum-fk/OMe6e80M/</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Eyupspor</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -4721,63 +4721,63 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Tuzlaspor</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>1.9</v>
+        <v>1.62</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>17/09/2023 15:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>22/09/2023 18:53</t>
+          <t>22/09/2023 18:54</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.6</v>
+        <v>3.89</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>17/09/2023 15:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.47</v>
+        <v>4.6</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>22/09/2023 18:53</t>
+          <t>22/09/2023 18:54</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>3.97</v>
+        <v>5.42</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>17/09/2023 15:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>4.08</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>22/09/2023 18:53</t>
+          <t>22/09/2023 18:54</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/boluspor-tuzlaspor/r1cy9RUL/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/eyupspor-umraniyespor/ABsG1qNe/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Eyupspor</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,63 +4813,63 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Tuzlaspor</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>1.62</v>
+        <v>1.9</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 15:13</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>22/09/2023 18:54</t>
+          <t>22/09/2023 18:53</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.89</v>
+        <v>3.6</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 15:13</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>4.6</v>
+        <v>3.47</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>22/09/2023 18:54</t>
+          <t>22/09/2023 18:53</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>5.42</v>
+        <v>3.97</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 15:13</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>8.289999999999999</v>
+        <v>4.08</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>22/09/2023 18:54</t>
+          <t>22/09/2023 18:53</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/eyupspor-umraniyespor/ABsG1qNe/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/boluspor-tuzlaspor/r1cy9RUL/</t>
         </is>
       </c>
     </row>
@@ -5265,30 +5265,30 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Sanliurfaspor</t>
+          <t>Adanaspor AS</t>
         </is>
       </c>
       <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Erzurumspor</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Kocaelispor</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>2</v>
-      </c>
       <c r="J53" t="n">
-        <v>2.31</v>
+        <v>2.05</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 18:13</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.76</v>
+        <v>2.64</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -5296,40 +5296,40 @@
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.29</v>
+        <v>3.43</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 18:13</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.45</v>
+        <v>3.28</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
+          <t>24/09/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>17/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T53" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
           <t>24/09/2023 17:57</t>
         </is>
       </c>
-      <c r="R53" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>19/09/2023 16:13</t>
-        </is>
-      </c>
-      <c r="T53" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>24/09/2023 16:28</t>
-        </is>
-      </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/sanliurfaspor-kocaelispor/lvbX97FF/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/adanaspor-as-erzurumspor-fk/AmaTAm09/</t>
         </is>
       </c>
     </row>
@@ -5357,30 +5357,30 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Adanaspor AS</t>
+          <t>Sanliurfaspor</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Erzurumspor</t>
+          <t>Kocaelispor</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>2.05</v>
+        <v>2.31</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>17/09/2023 18:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.64</v>
+        <v>2.76</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -5388,40 +5388,40 @@
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.43</v>
+        <v>3.29</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>17/09/2023 18:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.28</v>
+        <v>3.45</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>24/09/2023 17:59</t>
+          <t>24/09/2023 17:57</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>3.61</v>
+        <v>3.15</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>17/09/2023 18:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.78</v>
+        <v>2.55</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>24/09/2023 17:57</t>
+          <t>24/09/2023 16:28</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/adanaspor-as-erzurumspor-fk/AmaTAm09/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/sanliurfaspor-kocaelispor/lvbX97FF/</t>
         </is>
       </c>
     </row>
@@ -6342,6 +6342,98 @@
       <c r="V64" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/1-lig/goztepe-adanaspor-as/pUebEM61/</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45205.79166666666</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Kocaelispor</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Erzurumspor</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>04/10/2023 04:43</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>06/10/2023 18:54</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>04/10/2023 04:43</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>06/10/2023 18:54</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>04/10/2023 04:43</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>06/10/2023 18:54</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/kocaelispor-erzurumspor-fk/IuaQHeDg/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_1-lig_2023-2024.xlsx
+++ b/2023/turkey_1-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V65"/>
+  <dimension ref="A1:V68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,14 +1777,14 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Keciorengucu</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.86</v>
+        <v>1.97</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,48 +1792,48 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>20/08/2023 15:53</t>
+          <t>20/08/2023 15:54</t>
         </is>
       </c>
       <c r="N15" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>13/08/2023 16:13</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>20/08/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
         <v>3.66</v>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>13/08/2023 16:13</t>
         </is>
       </c>
-      <c r="P15" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>20/08/2023 15:53</t>
-        </is>
-      </c>
-      <c r="R15" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>13/08/2023 16:13</t>
-        </is>
-      </c>
       <c r="T15" t="n">
-        <v>4.79</v>
+        <v>4.27</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>20/08/2023 15:53</t>
+          <t>20/08/2023 15:54</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/bandirmaspor-boluspor/zLm1jMIP/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-keciorengucu/lSTypKeg/</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Bandirmaspor</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,14 +1869,14 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Keciorengucu</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.97</v>
+        <v>1.86</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>20/08/2023 15:54</t>
+          <t>20/08/2023 15:53</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.63</v>
+        <v>3.66</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.58</v>
+        <v>3.82</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>20/08/2023 15:59</t>
+          <t>20/08/2023 15:53</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.66</v>
+        <v>4.06</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>4.27</v>
+        <v>4.79</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>20/08/2023 15:54</t>
+          <t>20/08/2023 15:53</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-keciorengucu/lSTypKeg/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/bandirmaspor-boluspor/zLm1jMIP/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tuzlaspor</t>
+          <t>Genclerbirligi</t>
         </is>
       </c>
       <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Bodrumspor</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Eyupspor</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
-        <v>5</v>
-      </c>
       <c r="J21" t="n">
-        <v>5.19</v>
+        <v>2.87</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>21/08/2023 20:12</t>
+          <t>20/08/2023 18:42</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>7.03</v>
+        <v>3.29</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>26/08/2023 15:59</t>
+          <t>26/08/2023 15:52</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>4</v>
+        <v>3.22</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>21/08/2023 20:12</t>
+          <t>20/08/2023 18:42</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>4.25</v>
+        <v>3.18</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>26/08/2023 15:59</t>
+          <t>26/08/2023 15:52</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>1.57</v>
+        <v>2.53</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>21/08/2023 20:12</t>
+          <t>20/08/2023 18:42</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>1.49</v>
+        <v>2.34</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>26/08/2023 15:59</t>
+          <t>26/08/2023 15:52</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-eyupspor/SUj3mg2o/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/genclerbirligi-bodrumspor/nDnuqvBa/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Genclerbirligi</t>
+          <t>Tuzlaspor</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Bodrumspor</t>
+          <t>Eyupspor</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J22" t="n">
-        <v>2.87</v>
+        <v>5.19</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>20/08/2023 18:42</t>
+          <t>21/08/2023 20:12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3.29</v>
+        <v>7.03</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>26/08/2023 15:52</t>
+          <t>26/08/2023 15:59</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.22</v>
+        <v>4</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>20/08/2023 18:42</t>
+          <t>21/08/2023 20:12</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.18</v>
+        <v>4.25</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>26/08/2023 15:52</t>
+          <t>26/08/2023 15:59</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.53</v>
+        <v>1.57</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>20/08/2023 18:42</t>
+          <t>21/08/2023 20:12</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.34</v>
+        <v>1.49</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>26/08/2023 15:52</t>
+          <t>26/08/2023 15:59</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/genclerbirligi-bodrumspor/nDnuqvBa/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-eyupspor/SUj3mg2o/</t>
         </is>
       </c>
     </row>
@@ -6434,6 +6434,282 @@
       <c r="V65" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/1-lig/kocaelispor-erzurumspor-fk/IuaQHeDg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45206.52083333334</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Bandirmaspor</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Corum</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>04/10/2023 04:43</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>07/10/2023 12:24</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>04/10/2023 04:43</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>07/10/2023 12:24</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>04/10/2023 04:43</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>07/10/2023 12:24</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/bandirmaspor-corum-fk/dWcUGFSa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45206.52083333334</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Manisa FK</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Sakaryaspor</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>01/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>07/10/2023 11:28</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>01/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>07/10/2023 11:28</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>01/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>07/10/2023 11:28</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-sakaryaspor/nLjsEDCI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45206.625</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Sanliurfaspor</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Genclerbirligi</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>2</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>04/10/2023 04:43</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:47</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>04/10/2023 04:43</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:47</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>04/10/2023 04:43</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:47</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/sanliurfaspor-genclerbirligi/UHslypEE/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_1-lig_2023-2024.xlsx
+++ b/2023/turkey_1-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V68"/>
+  <dimension ref="A1:V69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6713,6 +6713,98 @@
         </is>
       </c>
     </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45206.75</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Eyupspor</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>3</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Bodrumspor</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>01/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>07/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>01/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>07/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>01/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>07/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/eyupspor-bodrumspor/E7hZFZs6/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/turkey_1-lig_2023-2024.xlsx
+++ b/2023/turkey_1-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V69"/>
+  <dimension ref="A1:V72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Bandirmaspor</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,14 +1777,14 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Keciorengucu</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.97</v>
+        <v>1.86</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>20/08/2023 15:54</t>
+          <t>20/08/2023 15:53</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.63</v>
+        <v>3.66</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.58</v>
+        <v>3.82</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>20/08/2023 15:59</t>
+          <t>20/08/2023 15:53</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.66</v>
+        <v>4.06</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>4.27</v>
+        <v>4.79</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>20/08/2023 15:54</t>
+          <t>20/08/2023 15:53</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-keciorengucu/lSTypKeg/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/bandirmaspor-boluspor/zLm1jMIP/</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,14 +1869,14 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Keciorengucu</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.86</v>
+        <v>1.97</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,48 +1884,48 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>20/08/2023 15:53</t>
+          <t>20/08/2023 15:54</t>
         </is>
       </c>
       <c r="N16" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>13/08/2023 16:13</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>20/08/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
         <v>3.66</v>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>13/08/2023 16:13</t>
         </is>
       </c>
-      <c r="P16" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>20/08/2023 15:53</t>
-        </is>
-      </c>
-      <c r="R16" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>13/08/2023 16:13</t>
-        </is>
-      </c>
       <c r="T16" t="n">
-        <v>4.79</v>
+        <v>4.27</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>20/08/2023 15:53</t>
+          <t>20/08/2023 15:54</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/bandirmaspor-boluspor/zLm1jMIP/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-keciorengucu/lSTypKeg/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Genclerbirligi</t>
+          <t>Tuzlaspor</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Bodrumspor</t>
+          <t>Eyupspor</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
-        <v>2.87</v>
+        <v>5.19</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>20/08/2023 18:42</t>
+          <t>21/08/2023 20:12</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>3.29</v>
+        <v>7.03</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>26/08/2023 15:52</t>
+          <t>26/08/2023 15:59</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.22</v>
+        <v>4</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>20/08/2023 18:42</t>
+          <t>21/08/2023 20:12</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.18</v>
+        <v>4.25</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>26/08/2023 15:52</t>
+          <t>26/08/2023 15:59</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.53</v>
+        <v>1.57</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>20/08/2023 18:42</t>
+          <t>21/08/2023 20:12</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.34</v>
+        <v>1.49</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>26/08/2023 15:52</t>
+          <t>26/08/2023 15:59</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/genclerbirligi-bodrumspor/nDnuqvBa/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-eyupspor/SUj3mg2o/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tuzlaspor</t>
+          <t>Genclerbirligi</t>
         </is>
       </c>
       <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Bodrumspor</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Eyupspor</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>5</v>
-      </c>
       <c r="J22" t="n">
-        <v>5.19</v>
+        <v>2.87</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>21/08/2023 20:12</t>
+          <t>20/08/2023 18:42</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>7.03</v>
+        <v>3.29</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>26/08/2023 15:59</t>
+          <t>26/08/2023 15:52</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>4</v>
+        <v>3.22</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>21/08/2023 20:12</t>
+          <t>20/08/2023 18:42</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>4.25</v>
+        <v>3.18</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>26/08/2023 15:59</t>
+          <t>26/08/2023 15:52</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>1.57</v>
+        <v>2.53</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>21/08/2023 20:12</t>
+          <t>20/08/2023 18:42</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>1.49</v>
+        <v>2.34</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>26/08/2023 15:59</t>
+          <t>26/08/2023 15:52</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-eyupspor/SUj3mg2o/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/genclerbirligi-bodrumspor/nDnuqvBa/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Tuzlaspor</t>
+          <t>Keciorengucu</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.53</v>
+        <v>2.78</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>26/08/2023 18:13</t>
+          <t>27/08/2023 18:42</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.47</v>
+        <v>2.43</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>02/09/2023 18:08</t>
+          <t>02/09/2023 18:13</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>4.28</v>
+        <v>3.3</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>26/08/2023 18:13</t>
+          <t>27/08/2023 18:42</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>4.5</v>
+        <v>3.33</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>02/09/2023 18:08</t>
+          <t>02/09/2023 18:07</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>5.83</v>
+        <v>2.56</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>26/08/2023 18:13</t>
+          <t>27/08/2023 18:42</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>6.82</v>
+        <v>3.01</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>02/09/2023 18:08</t>
+          <t>02/09/2023 18:13</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-tuzlaspor/jX3gbAG3/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/boluspor-keciorengucu/WSWSskWM/</t>
         </is>
       </c>
     </row>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Keciorengucu</t>
+          <t>Tuzlaspor</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.78</v>
+        <v>1.53</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>27/08/2023 18:42</t>
+          <t>26/08/2023 18:13</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.43</v>
+        <v>1.47</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>02/09/2023 18:13</t>
+          <t>02/09/2023 18:08</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.3</v>
+        <v>4.28</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>27/08/2023 18:42</t>
+          <t>26/08/2023 18:13</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>02/09/2023 18:07</t>
+          <t>02/09/2023 18:08</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>2.56</v>
+        <v>5.83</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>27/08/2023 18:42</t>
+          <t>26/08/2023 18:13</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>3.01</v>
+        <v>6.82</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>02/09/2023 18:13</t>
+          <t>02/09/2023 18:08</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/boluspor-keciorengucu/WSWSskWM/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-tuzlaspor/jX3gbAG3/</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Sanliurfaspor</t>
+          <t>Altay</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -3709,63 +3709,63 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Erzurumspor</t>
+          <t>Goztepe</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.66</v>
+        <v>2.83</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>31/08/2023 06:42</t>
+          <t>27/08/2023 21:12</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.98</v>
+        <v>3.83</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>03/09/2023 20:33</t>
+          <t>03/09/2023 20:44</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.82</v>
+        <v>3.27</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>31/08/2023 06:42</t>
+          <t>27/08/2023 21:12</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.53</v>
+        <v>3.45</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>03/09/2023 20:33</t>
+          <t>03/09/2023 20:44</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>5.1</v>
+        <v>2.53</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>31/08/2023 06:42</t>
+          <t>27/08/2023 21:12</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.87</v>
+        <v>2.02</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>03/09/2023 20:33</t>
+          <t>03/09/2023 20:44</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/sanliurfaspor-erzurumspor-fk/l4sOrVGG/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/altay-goztepe/dA4kaj1c/</t>
         </is>
       </c>
     </row>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Altay</t>
+          <t>Sanliurfaspor</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -3801,63 +3801,63 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Goztepe</t>
+          <t>Erzurumspor</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.83</v>
+        <v>1.66</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>27/08/2023 21:12</t>
+          <t>31/08/2023 06:42</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>3.83</v>
+        <v>1.98</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>03/09/2023 20:44</t>
+          <t>03/09/2023 20:33</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.27</v>
+        <v>3.82</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>27/08/2023 21:12</t>
+          <t>31/08/2023 06:42</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.45</v>
+        <v>3.53</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>03/09/2023 20:44</t>
+          <t>03/09/2023 20:33</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>2.53</v>
+        <v>5.1</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>27/08/2023 21:12</t>
+          <t>31/08/2023 06:42</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>2.02</v>
+        <v>3.87</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>03/09/2023 20:44</t>
+          <t>03/09/2023 20:33</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/altay-goztepe/dA4kaj1c/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/sanliurfaspor-erzurumspor-fk/l4sOrVGG/</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Eyupspor</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -4721,63 +4721,63 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Tuzlaspor</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>1.62</v>
+        <v>1.9</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 15:13</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>22/09/2023 18:54</t>
+          <t>22/09/2023 18:53</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.89</v>
+        <v>3.6</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 15:13</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>4.6</v>
+        <v>3.47</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>22/09/2023 18:54</t>
+          <t>22/09/2023 18:53</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>5.42</v>
+        <v>3.97</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 15:13</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>8.289999999999999</v>
+        <v>4.08</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>22/09/2023 18:54</t>
+          <t>22/09/2023 18:53</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/eyupspor-umraniyespor/ABsG1qNe/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/boluspor-tuzlaspor/r1cy9RUL/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Eyupspor</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,63 +4813,63 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Tuzlaspor</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1.9</v>
+        <v>1.62</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>17/09/2023 15:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>22/09/2023 18:53</t>
+          <t>22/09/2023 18:54</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.6</v>
+        <v>3.89</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>17/09/2023 15:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.47</v>
+        <v>4.6</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>22/09/2023 18:53</t>
+          <t>22/09/2023 18:54</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>3.97</v>
+        <v>5.42</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>17/09/2023 15:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>4.08</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>22/09/2023 18:53</t>
+          <t>22/09/2023 18:54</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/boluspor-tuzlaspor/r1cy9RUL/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/eyupspor-umraniyespor/ABsG1qNe/</t>
         </is>
       </c>
     </row>
@@ -4989,71 +4989,71 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Corum</t>
         </is>
       </c>
       <c r="G50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Sakaryaspor</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Goztepe</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
       <c r="J50" t="n">
-        <v>2.07</v>
+        <v>2.01</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>17/09/2023 18:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.28</v>
+        <v>1.97</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>23/09/2023 10:33</t>
+          <t>23/09/2023 17:59</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.34</v>
+        <v>3.45</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>17/09/2023 18:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>23/09/2023 10:33</t>
+          <t>23/09/2023 17:59</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.45</v>
+        <v>3.73</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>17/09/2023 18:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>3.26</v>
+        <v>4.08</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>23/09/2023 10:33</t>
+          <t>23/09/2023 17:59</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-goztepe/j7K2PnF2/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/corum-fk-sakaryaspor/2ov835hq/</t>
         </is>
       </c>
     </row>
@@ -5081,71 +5081,71 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Corum</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Goztepe</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
         <v>1</v>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Sakaryaspor</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
       <c r="J51" t="n">
-        <v>2.01</v>
+        <v>2.07</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 18:13</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.97</v>
+        <v>2.28</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>23/09/2023 17:59</t>
+          <t>23/09/2023 10:33</t>
         </is>
       </c>
       <c r="N51" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>17/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>23/09/2023 10:33</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
         <v>3.45</v>
       </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>19/09/2023 16:13</t>
-        </is>
-      </c>
-      <c r="P51" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>23/09/2023 17:59</t>
-        </is>
-      </c>
-      <c r="R51" t="n">
-        <v>3.73</v>
-      </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 18:13</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>4.08</v>
+        <v>3.26</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>23/09/2023 17:59</t>
+          <t>23/09/2023 10:33</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/corum-fk-sakaryaspor/2ov835hq/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-goztepe/j7K2PnF2/</t>
         </is>
       </c>
     </row>
@@ -6802,6 +6802,282 @@
       <c r="V69" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/1-lig/eyupspor-bodrumspor/E7hZFZs6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45207.52083333334</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Keciorengucu</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Tuzlaspor</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>01/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>08/10/2023 12:29</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>01/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>08/10/2023 12:29</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>01/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>08/10/2023 12:29</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/keciorengucu-tuzlaspor/OIaMIybm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45207.625</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Adanaspor AS</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>4</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Giresunspor</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>2</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>04/10/2023 04:43</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:55</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>04/10/2023 04:43</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:55</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>04/10/2023 04:43</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:55</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/adanaspor-as-giresunspor/jRrpxQb8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45207.625</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Boluspor</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Goztepe</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>2</v>
+      </c>
+      <c r="J72" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>02/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>3</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:26</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>02/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:26</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>02/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:26</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/boluspor-goztepe/AFeIJHrs/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_1-lig_2023-2024.xlsx
+++ b/2023/turkey_1-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V72"/>
+  <dimension ref="A1:V73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7081,6 +7081,98 @@
         </is>
       </c>
     </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45207.75</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Altay</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Umraniyespor</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>3</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>04/10/2023 04:43</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:56</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>04/10/2023 04:43</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:54</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>04/10/2023 04:43</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:56</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/altay-umraniyespor/hbiwFgcC/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/turkey_1-lig_2023-2024.xlsx
+++ b/2023/turkey_1-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V73"/>
+  <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Altay</t>
+          <t>Sanliurfaspor</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -3709,63 +3709,63 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Goztepe</t>
+          <t>Erzurumspor</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>2.83</v>
+        <v>1.66</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>27/08/2023 21:12</t>
+          <t>31/08/2023 06:42</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>3.83</v>
+        <v>1.98</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>03/09/2023 20:44</t>
+          <t>03/09/2023 20:33</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.27</v>
+        <v>3.82</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>27/08/2023 21:12</t>
+          <t>31/08/2023 06:42</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.45</v>
+        <v>3.53</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>03/09/2023 20:44</t>
+          <t>03/09/2023 20:33</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>2.53</v>
+        <v>5.1</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>27/08/2023 21:12</t>
+          <t>31/08/2023 06:42</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>2.02</v>
+        <v>3.87</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>03/09/2023 20:44</t>
+          <t>03/09/2023 20:33</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/altay-goztepe/dA4kaj1c/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/sanliurfaspor-erzurumspor-fk/l4sOrVGG/</t>
         </is>
       </c>
     </row>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Sanliurfaspor</t>
+          <t>Altay</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -3801,63 +3801,63 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Erzurumspor</t>
+          <t>Goztepe</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1.66</v>
+        <v>2.83</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>31/08/2023 06:42</t>
+          <t>27/08/2023 21:12</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.98</v>
+        <v>3.83</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>03/09/2023 20:33</t>
+          <t>03/09/2023 20:44</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.82</v>
+        <v>3.27</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>31/08/2023 06:42</t>
+          <t>27/08/2023 21:12</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.53</v>
+        <v>3.45</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>03/09/2023 20:33</t>
+          <t>03/09/2023 20:44</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>5.1</v>
+        <v>2.53</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>31/08/2023 06:42</t>
+          <t>27/08/2023 21:12</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>3.87</v>
+        <v>2.02</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>03/09/2023 20:33</t>
+          <t>03/09/2023 20:44</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/sanliurfaspor-erzurumspor-fk/l4sOrVGG/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/altay-goztepe/dA4kaj1c/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Goztepe</t>
+          <t>Genclerbirligi</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,14 +4445,14 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Eyupspor</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>2.11</v>
+        <v>3.66</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.53</v>
+        <v>4.3</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>17/09/2023 17:53</t>
+          <t>17/09/2023 17:59</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.37</v>
+        <v>3.28</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.19</v>
+        <v>3.26</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>17/09/2023 17:53</t>
+          <t>17/09/2023 17:59</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.53</v>
+        <v>2.1</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.99</v>
+        <v>1.97</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>17/09/2023 17:53</t>
+          <t>17/09/2023 17:59</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/goztepe-bandirmaspor/4zUSC9Vd/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/genclerbirligi-eyupspor/277ccUV9/</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Genclerbirligi</t>
+          <t>Goztepe</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4537,14 +4537,14 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Eyupspor</t>
+          <t>Bandirmaspor</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>3.66</v>
+        <v>2.11</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>4.3</v>
+        <v>2.53</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>17/09/2023 17:59</t>
+          <t>17/09/2023 17:53</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.28</v>
+        <v>3.37</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.26</v>
+        <v>3.19</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>17/09/2023 17:59</t>
+          <t>17/09/2023 17:53</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.1</v>
+        <v>3.53</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>1.97</v>
+        <v>2.99</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>17/09/2023 17:59</t>
+          <t>17/09/2023 17:53</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/genclerbirligi-eyupspor/277ccUV9/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/goztepe-bandirmaspor/4zUSC9Vd/</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Eyupspor</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -4721,63 +4721,63 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Tuzlaspor</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>1.9</v>
+        <v>1.62</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>17/09/2023 15:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>22/09/2023 18:53</t>
+          <t>22/09/2023 18:54</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.6</v>
+        <v>3.89</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>17/09/2023 15:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.47</v>
+        <v>4.6</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>22/09/2023 18:53</t>
+          <t>22/09/2023 18:54</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>3.97</v>
+        <v>5.42</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>17/09/2023 15:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>4.08</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>22/09/2023 18:53</t>
+          <t>22/09/2023 18:54</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/boluspor-tuzlaspor/r1cy9RUL/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/eyupspor-umraniyespor/ABsG1qNe/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Eyupspor</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,63 +4813,63 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Tuzlaspor</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>1.62</v>
+        <v>1.9</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 15:13</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>22/09/2023 18:54</t>
+          <t>22/09/2023 18:53</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.89</v>
+        <v>3.6</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 15:13</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>4.6</v>
+        <v>3.47</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>22/09/2023 18:54</t>
+          <t>22/09/2023 18:53</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>5.42</v>
+        <v>3.97</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 15:13</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>8.289999999999999</v>
+        <v>4.08</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>22/09/2023 18:54</t>
+          <t>22/09/2023 18:53</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/eyupspor-umraniyespor/ABsG1qNe/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/boluspor-tuzlaspor/r1cy9RUL/</t>
         </is>
       </c>
     </row>
@@ -5265,30 +5265,30 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Adanaspor AS</t>
+          <t>Sanliurfaspor</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Erzurumspor</t>
+          <t>Kocaelispor</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53" t="n">
-        <v>2.05</v>
+        <v>2.31</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>17/09/2023 18:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.64</v>
+        <v>2.76</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -5296,40 +5296,40 @@
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.43</v>
+        <v>3.29</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>17/09/2023 18:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.28</v>
+        <v>3.45</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>24/09/2023 17:59</t>
+          <t>24/09/2023 17:57</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>3.61</v>
+        <v>3.15</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>17/09/2023 18:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>2.78</v>
+        <v>2.55</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>24/09/2023 17:57</t>
+          <t>24/09/2023 16:28</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/adanaspor-as-erzurumspor-fk/AmaTAm09/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/sanliurfaspor-kocaelispor/lvbX97FF/</t>
         </is>
       </c>
     </row>
@@ -5357,30 +5357,30 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Sanliurfaspor</t>
+          <t>Adanaspor AS</t>
         </is>
       </c>
       <c r="G54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Erzurumspor</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Kocaelispor</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
-        <v>2</v>
-      </c>
       <c r="J54" t="n">
-        <v>2.31</v>
+        <v>2.05</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 18:13</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.76</v>
+        <v>2.64</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -5388,40 +5388,40 @@
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.29</v>
+        <v>3.43</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 18:13</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.45</v>
+        <v>3.28</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
+          <t>24/09/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>17/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T54" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
           <t>24/09/2023 17:57</t>
         </is>
       </c>
-      <c r="R54" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>19/09/2023 16:13</t>
-        </is>
-      </c>
-      <c r="T54" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>24/09/2023 16:28</t>
-        </is>
-      </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/sanliurfaspor-kocaelispor/lvbX97FF/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/adanaspor-as-erzurumspor-fk/AmaTAm09/</t>
         </is>
       </c>
     </row>
@@ -7170,6 +7170,282 @@
       <c r="V73" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/1-lig/altay-umraniyespor/hbiwFgcC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45220.52083333334</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Erzurumspor</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Keciorengucu</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:25</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:25</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:22</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/erzurumspor-fk-keciorengucu/hCWBThC5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45220.52083333334</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Tuzlaspor</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Kocaelispor</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>2</v>
+      </c>
+      <c r="J75" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>16/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:29</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>16/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:29</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>16/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:29</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-kocaelispor/v9S7UYda/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45220.625</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Sakaryaspor</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>2</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Adanaspor AS</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:13</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:56</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:13</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:56</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:13</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:56</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/sakaryaspor-adanaspor-as/nBmTyH4P/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_1-lig_2023-2024.xlsx
+++ b/2023/turkey_1-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V76"/>
+  <dimension ref="A1:V77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7449,6 +7449,98 @@
         </is>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45220.75</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Goztepe</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>3</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Sanliurfaspor</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>16/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:51</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>16/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:51</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>16/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:51</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/goztepe-sanliurfaspor/nZVFSCRB/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/turkey_1-lig_2023-2024.xlsx
+++ b/2023/turkey_1-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V77"/>
+  <dimension ref="A1:V82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,14 +1777,14 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Keciorengucu</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.86</v>
+        <v>1.97</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,48 +1792,48 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>20/08/2023 15:53</t>
+          <t>20/08/2023 15:54</t>
         </is>
       </c>
       <c r="N15" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>13/08/2023 16:13</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>20/08/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
         <v>3.66</v>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>13/08/2023 16:13</t>
         </is>
       </c>
-      <c r="P15" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>20/08/2023 15:53</t>
-        </is>
-      </c>
-      <c r="R15" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>13/08/2023 16:13</t>
-        </is>
-      </c>
       <c r="T15" t="n">
-        <v>4.79</v>
+        <v>4.27</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>20/08/2023 15:53</t>
+          <t>20/08/2023 15:54</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/bandirmaspor-boluspor/zLm1jMIP/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-keciorengucu/lSTypKeg/</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Bandirmaspor</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,14 +1869,14 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Keciorengucu</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.97</v>
+        <v>1.86</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>20/08/2023 15:54</t>
+          <t>20/08/2023 15:53</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.63</v>
+        <v>3.66</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.58</v>
+        <v>3.82</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>20/08/2023 15:59</t>
+          <t>20/08/2023 15:53</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.66</v>
+        <v>4.06</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>4.27</v>
+        <v>4.79</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>20/08/2023 15:54</t>
+          <t>20/08/2023 15:53</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-keciorengucu/lSTypKeg/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/bandirmaspor-boluspor/zLm1jMIP/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Keciorengucu</t>
+          <t>Tuzlaspor</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2.78</v>
+        <v>1.53</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>27/08/2023 18:42</t>
+          <t>26/08/2023 18:13</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.43</v>
+        <v>1.47</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>02/09/2023 18:13</t>
+          <t>02/09/2023 18:08</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.3</v>
+        <v>4.28</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>27/08/2023 18:42</t>
+          <t>26/08/2023 18:13</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>02/09/2023 18:07</t>
+          <t>02/09/2023 18:08</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.56</v>
+        <v>5.83</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>27/08/2023 18:42</t>
+          <t>26/08/2023 18:13</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.01</v>
+        <v>6.82</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>02/09/2023 18:13</t>
+          <t>02/09/2023 18:08</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/boluspor-keciorengucu/WSWSskWM/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-tuzlaspor/jX3gbAG3/</t>
         </is>
       </c>
     </row>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Tuzlaspor</t>
+          <t>Keciorengucu</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1.53</v>
+        <v>2.78</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>26/08/2023 18:13</t>
+          <t>27/08/2023 18:42</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.47</v>
+        <v>2.43</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>02/09/2023 18:08</t>
+          <t>02/09/2023 18:13</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>4.28</v>
+        <v>3.3</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>26/08/2023 18:13</t>
+          <t>27/08/2023 18:42</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>4.5</v>
+        <v>3.33</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>02/09/2023 18:08</t>
+          <t>02/09/2023 18:07</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>5.83</v>
+        <v>2.56</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>26/08/2023 18:13</t>
+          <t>27/08/2023 18:42</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>6.82</v>
+        <v>3.01</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>02/09/2023 18:08</t>
+          <t>02/09/2023 18:13</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-tuzlaspor/jX3gbAG3/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/boluspor-keciorengucu/WSWSskWM/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Kocaelispor</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Corum</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J40" t="n">
-        <v>1.79</v>
+        <v>2.24</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.78</v>
+        <v>2.45</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>16/09/2023 17:42</t>
+          <t>16/09/2023 17:52</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.56</v>
+        <v>3.47</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.7</v>
+        <v>3.43</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>16/09/2023 17:42</t>
+          <t>16/09/2023 17:52</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>4.57</v>
+        <v>2.97</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>4.65</v>
+        <v>2.9</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>16/09/2023 17:42</t>
+          <t>16/09/2023 17:52</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/kocaelispor-boluspor/f5nxjnOq/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/umraniyespor-corum-fk/OMe6e80M/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Kocaelispor</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Corum</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>2.24</v>
+        <v>1.79</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.45</v>
+        <v>1.78</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>16/09/2023 17:52</t>
+          <t>16/09/2023 17:42</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.47</v>
+        <v>3.56</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.43</v>
+        <v>3.7</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>16/09/2023 17:52</t>
+          <t>16/09/2023 17:42</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>2.97</v>
+        <v>4.57</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>2.9</v>
+        <v>4.65</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>16/09/2023 17:52</t>
+          <t>16/09/2023 17:42</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/umraniyespor-corum-fk/OMe6e80M/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/kocaelispor-boluspor/f5nxjnOq/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Tuzlaspor</t>
+          <t>Giresunspor</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Adanaspor AS</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>2.73</v>
+        <v>3.87</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>10/09/2023 15:12</t>
+          <t>13/09/2023 22:19</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.73</v>
+        <v>4.87</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>17/09/2023 14:57</t>
+          <t>17/09/2023 14:37</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.27</v>
+        <v>3.68</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>10/09/2023 15:12</t>
+          <t>13/09/2023 22:19</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.43</v>
+        <v>4.08</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>17/09/2023 14:53</t>
+          <t>17/09/2023 14:37</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.51</v>
+        <v>1.83</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>10/09/2023 15:12</t>
+          <t>13/09/2023 22:19</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.59</v>
+        <v>1.67</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>17/09/2023 14:57</t>
+          <t>17/09/2023 14:08</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-adanaspor-as/xUysk6wj/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/giresunspor-manisa-fk/rRSWBTp3/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Giresunspor</t>
+          <t>Tuzlaspor</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Adanaspor AS</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>3.87</v>
+        <v>2.73</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>13/09/2023 22:19</t>
+          <t>10/09/2023 15:12</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>4.87</v>
+        <v>2.73</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:37</t>
+          <t>17/09/2023 14:57</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.68</v>
+        <v>3.27</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>13/09/2023 22:19</t>
+          <t>10/09/2023 15:12</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>4.08</v>
+        <v>3.43</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:37</t>
+          <t>17/09/2023 14:53</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>1.83</v>
+        <v>2.51</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>13/09/2023 22:19</t>
+          <t>10/09/2023 15:12</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>1.67</v>
+        <v>2.59</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:08</t>
+          <t>17/09/2023 14:57</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/giresunspor-manisa-fk/rRSWBTp3/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-adanaspor-as/xUysk6wj/</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Eyupspor</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -4721,63 +4721,63 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Tuzlaspor</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>1.62</v>
+        <v>1.9</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 15:13</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>22/09/2023 18:54</t>
+          <t>22/09/2023 18:53</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.89</v>
+        <v>3.6</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 15:13</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>4.6</v>
+        <v>3.47</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>22/09/2023 18:54</t>
+          <t>22/09/2023 18:53</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>5.42</v>
+        <v>3.97</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 15:13</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>8.289999999999999</v>
+        <v>4.08</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>22/09/2023 18:54</t>
+          <t>22/09/2023 18:53</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/eyupspor-umraniyespor/ABsG1qNe/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/boluspor-tuzlaspor/r1cy9RUL/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Eyupspor</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,63 +4813,63 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Tuzlaspor</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1.9</v>
+        <v>1.62</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>17/09/2023 15:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>22/09/2023 18:53</t>
+          <t>22/09/2023 18:54</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.6</v>
+        <v>3.89</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>17/09/2023 15:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.47</v>
+        <v>4.6</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>22/09/2023 18:53</t>
+          <t>22/09/2023 18:54</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>3.97</v>
+        <v>5.42</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>17/09/2023 15:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>4.08</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>22/09/2023 18:53</t>
+          <t>22/09/2023 18:54</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/boluspor-tuzlaspor/r1cy9RUL/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/eyupspor-umraniyespor/ABsG1qNe/</t>
         </is>
       </c>
     </row>
@@ -4989,71 +4989,71 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Corum</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Goztepe</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
         <v>1</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Sakaryaspor</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
       <c r="J50" t="n">
-        <v>2.01</v>
+        <v>2.07</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 18:13</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.97</v>
+        <v>2.28</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>23/09/2023 17:59</t>
+          <t>23/09/2023 10:33</t>
         </is>
       </c>
       <c r="N50" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>17/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>23/09/2023 10:33</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
         <v>3.45</v>
       </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>19/09/2023 16:13</t>
-        </is>
-      </c>
-      <c r="P50" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>23/09/2023 17:59</t>
-        </is>
-      </c>
-      <c r="R50" t="n">
-        <v>3.73</v>
-      </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 18:13</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>4.08</v>
+        <v>3.26</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>23/09/2023 17:59</t>
+          <t>23/09/2023 10:33</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/corum-fk-sakaryaspor/2ov835hq/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-goztepe/j7K2PnF2/</t>
         </is>
       </c>
     </row>
@@ -5081,71 +5081,71 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Corum</t>
         </is>
       </c>
       <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Sakaryaspor</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Goztepe</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
       <c r="J51" t="n">
-        <v>2.07</v>
+        <v>2.01</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>17/09/2023 18:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.28</v>
+        <v>1.97</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>23/09/2023 10:33</t>
+          <t>23/09/2023 17:59</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.34</v>
+        <v>3.45</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>17/09/2023 18:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>23/09/2023 10:33</t>
+          <t>23/09/2023 17:59</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.45</v>
+        <v>3.73</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>17/09/2023 18:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>3.26</v>
+        <v>4.08</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>23/09/2023 10:33</t>
+          <t>23/09/2023 17:59</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-goztepe/j7K2PnF2/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/corum-fk-sakaryaspor/2ov835hq/</t>
         </is>
       </c>
     </row>
@@ -7538,6 +7538,466 @@
       <c r="V77" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/1-lig/goztepe-sanliurfaspor/nZVFSCRB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45221.52083333334</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Bodrumspor</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>2</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Bandirmaspor</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>15/10/2023 11:42</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:26</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>15/10/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:26</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>15/10/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:26</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/bodrumspor-bandirmaspor/IgvaWfSn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45221.625</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Giresunspor</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Boluspor</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>16/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>16/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>16/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/giresunspor-boluspor/QPUJRWtI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45221.625</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Umraniyespor</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>3</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Manisa FK</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>2</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>16/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:51</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>16/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:51</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>16/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:51</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/umraniyespor-manisa-fk/lKZfXzDt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45221.75</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Corum</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>2</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Eyupspor</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>3</v>
+      </c>
+      <c r="J81" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>17/10/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:57</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>17/10/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:57</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>17/10/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:57</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/corum-fk-eyupspor/dpw3VEsg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45222.79166666666</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Genclerbirligi</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>3</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Altay</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>16/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>23/10/2023 18:56</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>16/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>23/10/2023 18:56</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>16/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>23/10/2023 18:56</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/genclerbirligi-altay/p69pDXRO/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_1-lig_2023-2024.xlsx
+++ b/2023/turkey_1-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V82"/>
+  <dimension ref="A1:V91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tuzlaspor</t>
+          <t>Genclerbirligi</t>
         </is>
       </c>
       <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Bodrumspor</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Eyupspor</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
-        <v>5</v>
-      </c>
       <c r="J21" t="n">
-        <v>5.19</v>
+        <v>2.87</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>21/08/2023 20:12</t>
+          <t>20/08/2023 18:42</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>7.03</v>
+        <v>3.29</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>26/08/2023 15:59</t>
+          <t>26/08/2023 15:52</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>4</v>
+        <v>3.22</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>21/08/2023 20:12</t>
+          <t>20/08/2023 18:42</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>4.25</v>
+        <v>3.18</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>26/08/2023 15:59</t>
+          <t>26/08/2023 15:52</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>1.57</v>
+        <v>2.53</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>21/08/2023 20:12</t>
+          <t>20/08/2023 18:42</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>1.49</v>
+        <v>2.34</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>26/08/2023 15:59</t>
+          <t>26/08/2023 15:52</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-eyupspor/SUj3mg2o/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/genclerbirligi-bodrumspor/nDnuqvBa/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Genclerbirligi</t>
+          <t>Tuzlaspor</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Bodrumspor</t>
+          <t>Eyupspor</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J22" t="n">
-        <v>2.87</v>
+        <v>5.19</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>20/08/2023 18:42</t>
+          <t>21/08/2023 20:12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3.29</v>
+        <v>7.03</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>26/08/2023 15:52</t>
+          <t>26/08/2023 15:59</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.22</v>
+        <v>4</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>20/08/2023 18:42</t>
+          <t>21/08/2023 20:12</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.18</v>
+        <v>4.25</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>26/08/2023 15:52</t>
+          <t>26/08/2023 15:59</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.53</v>
+        <v>1.57</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>20/08/2023 18:42</t>
+          <t>21/08/2023 20:12</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.34</v>
+        <v>1.49</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>26/08/2023 15:52</t>
+          <t>26/08/2023 15:59</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/genclerbirligi-bodrumspor/nDnuqvBa/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-eyupspor/SUj3mg2o/</t>
         </is>
       </c>
     </row>
@@ -7657,71 +7657,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Giresunspor</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" t="n">
-        <v>2.93</v>
+        <v>2.76</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>16/10/2023 20:42</t>
+          <t>16/10/2023 01:12</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>3.53</v>
+        <v>3.09</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:51</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.18</v>
+        <v>3.29</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>16/10/2023 20:42</t>
+          <t>16/10/2023 01:12</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.4</v>
+        <v>3.23</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:51</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>16/10/2023 20:42</t>
+          <t>16/10/2023 01:12</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.14</v>
+        <v>2.43</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:51</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/giresunspor-boluspor/QPUJRWtI/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/umraniyespor-manisa-fk/lKZfXzDt/</t>
         </is>
       </c>
     </row>
@@ -7749,71 +7749,71 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Giresunspor</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>2.76</v>
+        <v>2.93</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>16/10/2023 01:12</t>
+          <t>16/10/2023 20:42</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>3.09</v>
+        <v>3.53</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>22/10/2023 14:51</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.29</v>
+        <v>3.18</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>16/10/2023 01:12</t>
+          <t>16/10/2023 20:42</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.23</v>
+        <v>3.4</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>22/10/2023 14:51</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>16/10/2023 01:12</t>
+          <t>16/10/2023 20:42</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>2.43</v>
+        <v>2.14</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>22/10/2023 14:51</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/umraniyespor-manisa-fk/lKZfXzDt/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/giresunspor-boluspor/QPUJRWtI/</t>
         </is>
       </c>
     </row>
@@ -7998,6 +7998,834 @@
       <c r="V82" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/1-lig/genclerbirligi-altay/p69pDXRO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45226.79166666666</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Sanliurfaspor</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Giresunspor</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>26/10/2023 13:55</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>27/10/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>26/10/2023 13:55</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>27/10/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>26/10/2023 13:55</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>27/10/2023 18:59</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/sanliurfaspor-giresunspor/pSpLPABU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45227.52083333334</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Keciorengucu</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Goztepe</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>28/10/2023 12:21</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>28/10/2023 12:21</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>28/10/2023 12:21</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/keciorengucu-goztepe/ziQUqEdn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45227.52083333334</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Tuzlaspor</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Erzurumspor</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>28/10/2023 12:28</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>28/10/2023 12:28</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>28/10/2023 12:28</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-erzurumspor-fk/d6EwrhRb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45227.625</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Boluspor</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>2</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Bodrumspor</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:54</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:54</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:54</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/boluspor-bodrumspor/MmMQpfst/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45227.75</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Kocaelispor</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>2</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Genclerbirligi</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>2</v>
+      </c>
+      <c r="J87" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>26/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>28/10/2023 17:58</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>26/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>28/10/2023 17:58</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>26/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>28/10/2023 17:58</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/kocaelispor-genclerbirligi/IFFZrYBh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45228.47916666666</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Manisa FK</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>2</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Corum</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>2</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>26/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>26/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:02</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>26/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:01</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-corum-fk/ne7jujBH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45228.58333333334</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Adanaspor AS</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>1</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Umraniyespor</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>26/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:52</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>26/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:52</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>26/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:52</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/adanaspor-as-umraniyespor/6ynHQjdO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45228.58333333334</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Altay</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Sakaryaspor</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>2</v>
+      </c>
+      <c r="J90" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>23/10/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:52</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>23/10/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:52</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>23/10/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:52</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/altay-sakaryaspor/4WHotWeB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45228.70833333334</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Eyupspor</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Bandirmaspor</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:55</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:55</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:55</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/eyupspor-bandirmaspor/QuJssCt5/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_1-lig_2023-2024.xlsx
+++ b/2023/turkey_1-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V91"/>
+  <dimension ref="A1:V92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Genclerbirligi</t>
+          <t>Tuzlaspor</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Bodrumspor</t>
+          <t>Eyupspor</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
-        <v>2.87</v>
+        <v>5.19</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>20/08/2023 18:42</t>
+          <t>21/08/2023 20:12</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>3.29</v>
+        <v>7.03</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>26/08/2023 15:52</t>
+          <t>26/08/2023 15:59</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.22</v>
+        <v>4</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>20/08/2023 18:42</t>
+          <t>21/08/2023 20:12</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.18</v>
+        <v>4.25</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>26/08/2023 15:52</t>
+          <t>26/08/2023 15:59</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.53</v>
+        <v>1.57</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>20/08/2023 18:42</t>
+          <t>21/08/2023 20:12</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.34</v>
+        <v>1.49</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>26/08/2023 15:52</t>
+          <t>26/08/2023 15:59</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/genclerbirligi-bodrumspor/nDnuqvBa/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-eyupspor/SUj3mg2o/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tuzlaspor</t>
+          <t>Genclerbirligi</t>
         </is>
       </c>
       <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Bodrumspor</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Eyupspor</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>5</v>
-      </c>
       <c r="J22" t="n">
-        <v>5.19</v>
+        <v>2.87</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>21/08/2023 20:12</t>
+          <t>20/08/2023 18:42</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>7.03</v>
+        <v>3.29</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>26/08/2023 15:59</t>
+          <t>26/08/2023 15:52</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>4</v>
+        <v>3.22</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>21/08/2023 20:12</t>
+          <t>20/08/2023 18:42</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>4.25</v>
+        <v>3.18</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>26/08/2023 15:59</t>
+          <t>26/08/2023 15:52</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>1.57</v>
+        <v>2.53</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>21/08/2023 20:12</t>
+          <t>20/08/2023 18:42</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>1.49</v>
+        <v>2.34</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>26/08/2023 15:59</t>
+          <t>26/08/2023 15:52</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-eyupspor/SUj3mg2o/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/genclerbirligi-bodrumspor/nDnuqvBa/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Giresunspor</t>
+          <t>Tuzlaspor</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Adanaspor AS</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>3.87</v>
+        <v>2.73</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>13/09/2023 22:19</t>
+          <t>10/09/2023 15:12</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>4.87</v>
+        <v>2.73</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>17/09/2023 14:37</t>
+          <t>17/09/2023 14:57</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.68</v>
+        <v>3.27</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>13/09/2023 22:19</t>
+          <t>10/09/2023 15:12</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>4.08</v>
+        <v>3.43</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>17/09/2023 14:37</t>
+          <t>17/09/2023 14:53</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>1.83</v>
+        <v>2.51</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>13/09/2023 22:19</t>
+          <t>10/09/2023 15:12</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>1.67</v>
+        <v>2.59</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>17/09/2023 14:08</t>
+          <t>17/09/2023 14:57</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/giresunspor-manisa-fk/rRSWBTp3/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-adanaspor-as/xUysk6wj/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Tuzlaspor</t>
+          <t>Giresunspor</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Adanaspor AS</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.73</v>
+        <v>3.87</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>10/09/2023 15:12</t>
+          <t>13/09/2023 22:19</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.73</v>
+        <v>4.87</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:57</t>
+          <t>17/09/2023 14:37</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.27</v>
+        <v>3.68</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>10/09/2023 15:12</t>
+          <t>13/09/2023 22:19</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.43</v>
+        <v>4.08</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:53</t>
+          <t>17/09/2023 14:37</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.51</v>
+        <v>1.83</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>10/09/2023 15:12</t>
+          <t>13/09/2023 22:19</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.59</v>
+        <v>1.67</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:57</t>
+          <t>17/09/2023 14:08</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-adanaspor-as/xUysk6wj/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/giresunspor-manisa-fk/rRSWBTp3/</t>
         </is>
       </c>
     </row>
@@ -8826,6 +8826,98 @@
       <c r="V91" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/1-lig/eyupspor-bandirmaspor/QuJssCt5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45233.75</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Sakaryaspor</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Sanliurfaspor</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>03/11/2023 17:49</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>03/11/2023 17:58</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>03/11/2023 17:58</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/sakaryaspor-sanliurfaspor/hhAbwUuU/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_1-lig_2023-2024.xlsx
+++ b/2023/turkey_1-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V92"/>
+  <dimension ref="A1:V95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Genclerbirligi</t>
+          <t>Tuzlaspor</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Corum</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>2.34</v>
+        <v>2.16</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.93</v>
+        <v>2.7</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>13/08/2023 15:52</t>
+          <t>13/08/2023 15:54</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.26</v>
+        <v>3.19</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.38</v>
+        <v>3.24</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>13/08/2023 15:52</t>
+          <t>13/08/2023 15:54</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.97</v>
+        <v>3.4</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.46</v>
+        <v>2.74</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>13/08/2023 15:52</t>
+          <t>13/08/2023 15:54</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/genclerbirligi-umraniyespor/pAqYXho1/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-corum-fk/GfFXhfNQ/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tuzlaspor</t>
+          <t>Genclerbirligi</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Corum</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>2.16</v>
+        <v>2.34</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.7</v>
+        <v>2.93</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>13/08/2023 15:54</t>
+          <t>13/08/2023 15:52</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.19</v>
+        <v>3.26</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.24</v>
+        <v>3.38</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>13/08/2023 15:54</t>
+          <t>13/08/2023 15:52</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>3.4</v>
+        <v>2.97</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2.74</v>
+        <v>2.46</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>13/08/2023 15:54</t>
+          <t>13/08/2023 15:52</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-corum-fk/GfFXhfNQ/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/genclerbirligi-umraniyespor/pAqYXho1/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Genclerbirligi</t>
+          <t>Goztepe</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,14 +4445,14 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Eyupspor</t>
+          <t>Bandirmaspor</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>3.66</v>
+        <v>2.11</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>4.3</v>
+        <v>2.53</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>17/09/2023 17:59</t>
+          <t>17/09/2023 17:53</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.28</v>
+        <v>3.37</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.26</v>
+        <v>3.19</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>17/09/2023 17:59</t>
+          <t>17/09/2023 17:53</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.1</v>
+        <v>3.53</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>1.97</v>
+        <v>2.99</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>17/09/2023 17:59</t>
+          <t>17/09/2023 17:53</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/genclerbirligi-eyupspor/277ccUV9/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/goztepe-bandirmaspor/4zUSC9Vd/</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Goztepe</t>
+          <t>Genclerbirligi</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4537,14 +4537,14 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Eyupspor</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J45" t="n">
-        <v>2.11</v>
+        <v>3.66</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.53</v>
+        <v>4.3</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>17/09/2023 17:53</t>
+          <t>17/09/2023 17:59</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.37</v>
+        <v>3.28</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.19</v>
+        <v>3.26</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>17/09/2023 17:53</t>
+          <t>17/09/2023 17:59</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>3.53</v>
+        <v>2.1</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.99</v>
+        <v>1.97</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>17/09/2023 17:53</t>
+          <t>17/09/2023 17:59</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/goztepe-bandirmaspor/4zUSC9Vd/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/genclerbirligi-eyupspor/277ccUV9/</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Eyupspor</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -4721,63 +4721,63 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Tuzlaspor</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>1.9</v>
+        <v>1.62</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>17/09/2023 15:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>22/09/2023 18:53</t>
+          <t>22/09/2023 18:54</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.6</v>
+        <v>3.89</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>17/09/2023 15:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.47</v>
+        <v>4.6</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>22/09/2023 18:53</t>
+          <t>22/09/2023 18:54</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>3.97</v>
+        <v>5.42</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>17/09/2023 15:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>4.08</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>22/09/2023 18:53</t>
+          <t>22/09/2023 18:54</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/boluspor-tuzlaspor/r1cy9RUL/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/eyupspor-umraniyespor/ABsG1qNe/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Eyupspor</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,63 +4813,63 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Tuzlaspor</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>1.62</v>
+        <v>1.9</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 15:13</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>22/09/2023 18:54</t>
+          <t>22/09/2023 18:53</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.89</v>
+        <v>3.6</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 15:13</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>4.6</v>
+        <v>3.47</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>22/09/2023 18:54</t>
+          <t>22/09/2023 18:53</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>5.42</v>
+        <v>3.97</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 15:13</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>8.289999999999999</v>
+        <v>4.08</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>22/09/2023 18:54</t>
+          <t>22/09/2023 18:53</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/eyupspor-umraniyespor/ABsG1qNe/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/boluspor-tuzlaspor/r1cy9RUL/</t>
         </is>
       </c>
     </row>
@@ -4989,71 +4989,71 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Corum</t>
         </is>
       </c>
       <c r="G50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Sakaryaspor</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Goztepe</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
       <c r="J50" t="n">
-        <v>2.07</v>
+        <v>2.01</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>17/09/2023 18:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.28</v>
+        <v>1.97</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>23/09/2023 10:33</t>
+          <t>23/09/2023 17:59</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.34</v>
+        <v>3.45</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>17/09/2023 18:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>23/09/2023 10:33</t>
+          <t>23/09/2023 17:59</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.45</v>
+        <v>3.73</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>17/09/2023 18:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>3.26</v>
+        <v>4.08</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>23/09/2023 10:33</t>
+          <t>23/09/2023 17:59</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-goztepe/j7K2PnF2/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/corum-fk-sakaryaspor/2ov835hq/</t>
         </is>
       </c>
     </row>
@@ -5081,71 +5081,71 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Corum</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Goztepe</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
         <v>1</v>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Sakaryaspor</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
       <c r="J51" t="n">
-        <v>2.01</v>
+        <v>2.07</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 18:13</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.97</v>
+        <v>2.28</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>23/09/2023 17:59</t>
+          <t>23/09/2023 10:33</t>
         </is>
       </c>
       <c r="N51" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>17/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>23/09/2023 10:33</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
         <v>3.45</v>
       </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>19/09/2023 16:13</t>
-        </is>
-      </c>
-      <c r="P51" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>23/09/2023 17:59</t>
-        </is>
-      </c>
-      <c r="R51" t="n">
-        <v>3.73</v>
-      </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 18:13</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>4.08</v>
+        <v>3.26</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>23/09/2023 17:59</t>
+          <t>23/09/2023 10:33</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/corum-fk-sakaryaspor/2ov835hq/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-goztepe/j7K2PnF2/</t>
         </is>
       </c>
     </row>
@@ -5265,30 +5265,30 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Sanliurfaspor</t>
+          <t>Adanaspor AS</t>
         </is>
       </c>
       <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Erzurumspor</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Kocaelispor</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>2</v>
-      </c>
       <c r="J53" t="n">
-        <v>2.31</v>
+        <v>2.05</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 18:13</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.76</v>
+        <v>2.64</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -5296,40 +5296,40 @@
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.29</v>
+        <v>3.43</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 18:13</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.45</v>
+        <v>3.28</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
+          <t>24/09/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>17/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T53" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
           <t>24/09/2023 17:57</t>
         </is>
       </c>
-      <c r="R53" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>19/09/2023 16:13</t>
-        </is>
-      </c>
-      <c r="T53" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>24/09/2023 16:28</t>
-        </is>
-      </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/sanliurfaspor-kocaelispor/lvbX97FF/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/adanaspor-as-erzurumspor-fk/AmaTAm09/</t>
         </is>
       </c>
     </row>
@@ -5357,30 +5357,30 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Adanaspor AS</t>
+          <t>Sanliurfaspor</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Erzurumspor</t>
+          <t>Kocaelispor</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>2.05</v>
+        <v>2.31</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>17/09/2023 18:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.64</v>
+        <v>2.76</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -5388,40 +5388,40 @@
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.43</v>
+        <v>3.29</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>17/09/2023 18:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.28</v>
+        <v>3.45</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>24/09/2023 17:59</t>
+          <t>24/09/2023 17:57</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>3.61</v>
+        <v>3.15</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>17/09/2023 18:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.78</v>
+        <v>2.55</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>24/09/2023 17:57</t>
+          <t>24/09/2023 16:28</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/adanaspor-as-erzurumspor-fk/AmaTAm09/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/sanliurfaspor-kocaelispor/lvbX97FF/</t>
         </is>
       </c>
     </row>
@@ -8918,6 +8918,282 @@
       <c r="V92" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/1-lig/sakaryaspor-sanliurfaspor/hhAbwUuU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45234.47916666666</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Corum</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>2</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Keciorengucu</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>3</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>30/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>04/11/2023 10:56</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>30/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>04/11/2023 10:56</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>30/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>04/11/2023 10:56</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/corum-fk-keciorengucu/A9vDdith/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45234.58333333334</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Genclerbirligi</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Boluspor</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:56</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:56</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:56</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/genclerbirligi-boluspor/bVAfvAQN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45234.70833333334</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Goztepe</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Kocaelispor</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>04/11/2023 16:51</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>04/11/2023 16:51</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>04/11/2023 16:51</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/goztepe-kocaelispor/0bXPgkQA/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_1-lig_2023-2024.xlsx
+++ b/2023/turkey_1-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V95"/>
+  <dimension ref="A1:V98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Bandirmaspor</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,14 +1777,14 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Keciorengucu</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.97</v>
+        <v>1.86</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>20/08/2023 15:54</t>
+          <t>20/08/2023 15:53</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.63</v>
+        <v>3.66</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.58</v>
+        <v>3.82</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>20/08/2023 15:59</t>
+          <t>20/08/2023 15:53</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.66</v>
+        <v>4.06</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>4.27</v>
+        <v>4.79</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>20/08/2023 15:54</t>
+          <t>20/08/2023 15:53</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-keciorengucu/lSTypKeg/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/bandirmaspor-boluspor/zLm1jMIP/</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,14 +1869,14 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Keciorengucu</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.86</v>
+        <v>1.97</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,48 +1884,48 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>20/08/2023 15:53</t>
+          <t>20/08/2023 15:54</t>
         </is>
       </c>
       <c r="N16" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>13/08/2023 16:13</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>20/08/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
         <v>3.66</v>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>13/08/2023 16:13</t>
         </is>
       </c>
-      <c r="P16" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>20/08/2023 15:53</t>
-        </is>
-      </c>
-      <c r="R16" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>13/08/2023 16:13</t>
-        </is>
-      </c>
       <c r="T16" t="n">
-        <v>4.79</v>
+        <v>4.27</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>20/08/2023 15:53</t>
+          <t>20/08/2023 15:54</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/bandirmaspor-boluspor/zLm1jMIP/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-keciorengucu/lSTypKeg/</t>
         </is>
       </c>
     </row>
@@ -4989,71 +4989,71 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Corum</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Goztepe</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
         <v>1</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Sakaryaspor</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
       <c r="J50" t="n">
-        <v>2.01</v>
+        <v>2.07</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 18:13</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.97</v>
+        <v>2.28</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>23/09/2023 17:59</t>
+          <t>23/09/2023 10:33</t>
         </is>
       </c>
       <c r="N50" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>17/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>23/09/2023 10:33</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
         <v>3.45</v>
       </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>19/09/2023 16:13</t>
-        </is>
-      </c>
-      <c r="P50" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>23/09/2023 17:59</t>
-        </is>
-      </c>
-      <c r="R50" t="n">
-        <v>3.73</v>
-      </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 18:13</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>4.08</v>
+        <v>3.26</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>23/09/2023 17:59</t>
+          <t>23/09/2023 10:33</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/corum-fk-sakaryaspor/2ov835hq/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-goztepe/j7K2PnF2/</t>
         </is>
       </c>
     </row>
@@ -5081,71 +5081,71 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Corum</t>
         </is>
       </c>
       <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Sakaryaspor</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Goztepe</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
       <c r="J51" t="n">
-        <v>2.07</v>
+        <v>2.01</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>17/09/2023 18:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.28</v>
+        <v>1.97</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>23/09/2023 10:33</t>
+          <t>23/09/2023 17:59</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.34</v>
+        <v>3.45</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>17/09/2023 18:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>23/09/2023 10:33</t>
+          <t>23/09/2023 17:59</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.45</v>
+        <v>3.73</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>17/09/2023 18:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>3.26</v>
+        <v>4.08</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>23/09/2023 10:33</t>
+          <t>23/09/2023 17:59</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-goztepe/j7K2PnF2/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/corum-fk-sakaryaspor/2ov835hq/</t>
         </is>
       </c>
     </row>
@@ -5265,30 +5265,30 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Adanaspor AS</t>
+          <t>Sanliurfaspor</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Erzurumspor</t>
+          <t>Kocaelispor</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53" t="n">
-        <v>2.05</v>
+        <v>2.31</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>17/09/2023 18:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.64</v>
+        <v>2.76</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -5296,40 +5296,40 @@
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.43</v>
+        <v>3.29</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>17/09/2023 18:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.28</v>
+        <v>3.45</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>24/09/2023 17:59</t>
+          <t>24/09/2023 17:57</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>3.61</v>
+        <v>3.15</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>17/09/2023 18:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>2.78</v>
+        <v>2.55</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>24/09/2023 17:57</t>
+          <t>24/09/2023 16:28</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/adanaspor-as-erzurumspor-fk/AmaTAm09/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/sanliurfaspor-kocaelispor/lvbX97FF/</t>
         </is>
       </c>
     </row>
@@ -5357,30 +5357,30 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Sanliurfaspor</t>
+          <t>Adanaspor AS</t>
         </is>
       </c>
       <c r="G54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Erzurumspor</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Kocaelispor</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
-        <v>2</v>
-      </c>
       <c r="J54" t="n">
-        <v>2.31</v>
+        <v>2.05</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 18:13</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.76</v>
+        <v>2.64</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -5388,40 +5388,40 @@
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.29</v>
+        <v>3.43</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 18:13</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.45</v>
+        <v>3.28</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
+          <t>24/09/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>17/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T54" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
           <t>24/09/2023 17:57</t>
         </is>
       </c>
-      <c r="R54" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>19/09/2023 16:13</t>
-        </is>
-      </c>
-      <c r="T54" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>24/09/2023 16:28</t>
-        </is>
-      </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/sanliurfaspor-kocaelispor/lvbX97FF/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/adanaspor-as-erzurumspor-fk/AmaTAm09/</t>
         </is>
       </c>
     </row>
@@ -9194,6 +9194,282 @@
       <c r="V95" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/1-lig/goztepe-kocaelispor/0bXPgkQA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45235.47916666666</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Bodrumspor</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>2</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Manisa FK</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:42</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>04/11/2023 20:42</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>04/11/2023 20:42</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>04/11/2023 20:42</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/bodrumspor-manisa-fk/WIu9cXQo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45235.47916666666</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Bandirmaspor</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>2</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Altay</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:28</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:28</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:28</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/bandirmaspor-altay/4WwHeBeb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45235.58333333334</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Giresunspor</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>1</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Erzurumspor</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:54</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:54</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T98" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:54</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/giresunspor-erzurumspor-fk/vkWTh9uH/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_1-lig_2023-2024.xlsx
+++ b/2023/turkey_1-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V98"/>
+  <dimension ref="A1:V99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7657,71 +7657,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Giresunspor</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>2.76</v>
+        <v>2.93</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>16/10/2023 01:12</t>
+          <t>16/10/2023 20:42</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>3.09</v>
+        <v>3.53</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>22/10/2023 14:51</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.29</v>
+        <v>3.18</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>16/10/2023 01:12</t>
+          <t>16/10/2023 20:42</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.23</v>
+        <v>3.4</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>22/10/2023 14:51</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>16/10/2023 01:12</t>
+          <t>16/10/2023 20:42</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.43</v>
+        <v>2.14</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>22/10/2023 14:51</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/umraniyespor-manisa-fk/lKZfXzDt/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/giresunspor-boluspor/QPUJRWtI/</t>
         </is>
       </c>
     </row>
@@ -7749,71 +7749,71 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Giresunspor</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>2.93</v>
+        <v>2.76</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>16/10/2023 20:42</t>
+          <t>16/10/2023 01:12</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>3.53</v>
+        <v>3.09</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:51</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.18</v>
+        <v>3.29</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>16/10/2023 20:42</t>
+          <t>16/10/2023 01:12</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.4</v>
+        <v>3.23</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:51</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>16/10/2023 20:42</t>
+          <t>16/10/2023 01:12</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>2.14</v>
+        <v>2.43</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:51</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/giresunspor-boluspor/QPUJRWtI/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/umraniyespor-manisa-fk/lKZfXzDt/</t>
         </is>
       </c>
     </row>
@@ -8577,7 +8577,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Adanaspor AS</t>
+          <t>Altay</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -8585,22 +8585,22 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Sakaryaspor</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89" t="n">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>26/10/2023 15:12</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>3.46</v>
+        <v>4.56</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
@@ -8608,15 +8608,15 @@
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.24</v>
+        <v>3.32</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>26/10/2023 15:12</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.39</v>
+        <v>3.66</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -8624,15 +8624,15 @@
         </is>
       </c>
       <c r="R89" t="n">
-        <v>2.83</v>
+        <v>2.45</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>26/10/2023 15:12</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>2.17</v>
+        <v>1.8</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/adanaspor-as-umraniyespor/6ynHQjdO/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/altay-sakaryaspor/4WHotWeB/</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Altay</t>
+          <t>Adanaspor AS</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -8677,22 +8677,22 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Sakaryaspor</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>26/10/2023 15:12</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>4.56</v>
+        <v>3.46</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
@@ -8700,15 +8700,15 @@
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.32</v>
+        <v>3.24</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>26/10/2023 15:12</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.66</v>
+        <v>3.39</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -8716,15 +8716,15 @@
         </is>
       </c>
       <c r="R90" t="n">
-        <v>2.45</v>
+        <v>2.83</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>26/10/2023 15:12</t>
         </is>
       </c>
       <c r="T90" t="n">
-        <v>1.8</v>
+        <v>2.17</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/altay-sakaryaspor/4WHotWeB/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/adanaspor-as-umraniyespor/6ynHQjdO/</t>
         </is>
       </c>
     </row>
@@ -9221,7 +9221,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Bodrumspor</t>
+          <t>Bandirmaspor</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -9229,63 +9229,63 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Altay</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>1.95</v>
+        <v>1.53</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>29/10/2023 11:42</t>
+          <t>29/10/2023 17:13</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.97</v>
+        <v>1.33</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>04/11/2023 20:42</t>
+          <t>05/11/2023 11:28</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.43</v>
+        <v>4.25</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>29/10/2023 11:42</t>
+          <t>29/10/2023 17:13</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.44</v>
+        <v>5.29</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>04/11/2023 20:42</t>
+          <t>05/11/2023 11:28</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>3.98</v>
+        <v>5.78</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>29/10/2023 11:42</t>
+          <t>29/10/2023 17:13</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>4.03</v>
+        <v>9.06</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>04/11/2023 20:42</t>
+          <t>05/11/2023 11:28</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/bodrumspor-manisa-fk/WIu9cXQo/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/bandirmaspor-altay/4WwHeBeb/</t>
         </is>
       </c>
     </row>
@@ -9313,7 +9313,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Bodrumspor</t>
         </is>
       </c>
       <c r="G97" t="n">
@@ -9321,63 +9321,63 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Altay</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>1.53</v>
+        <v>1.95</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>29/10/2023 17:13</t>
+          <t>29/10/2023 11:42</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.33</v>
+        <v>1.97</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>05/11/2023 11:28</t>
+          <t>04/11/2023 20:42</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>4.25</v>
+        <v>3.43</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>29/10/2023 17:13</t>
+          <t>29/10/2023 11:42</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>5.29</v>
+        <v>3.44</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>05/11/2023 11:28</t>
+          <t>04/11/2023 20:42</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>5.78</v>
+        <v>3.98</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>29/10/2023 17:13</t>
+          <t>29/10/2023 11:42</t>
         </is>
       </c>
       <c r="T97" t="n">
-        <v>9.06</v>
+        <v>4.03</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>05/11/2023 11:28</t>
+          <t>04/11/2023 20:42</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/bandirmaspor-altay/4WwHeBeb/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/bodrumspor-manisa-fk/WIu9cXQo/</t>
         </is>
       </c>
     </row>
@@ -9470,6 +9470,98 @@
       <c r="V98" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/1-lig/giresunspor-erzurumspor-fk/vkWTh9uH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45235.70833333334</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Eyupspor</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>4</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Adanaspor AS</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:00</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:55</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:55</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/eyupspor-adanaspor-as/IZsLfVA4/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_1-lig_2023-2024.xlsx
+++ b/2023/turkey_1-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V99"/>
+  <dimension ref="A1:V100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,14 +1777,14 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Keciorengucu</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.86</v>
+        <v>1.97</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,48 +1792,48 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>20/08/2023 15:53</t>
+          <t>20/08/2023 15:54</t>
         </is>
       </c>
       <c r="N15" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>13/08/2023 16:13</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>20/08/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
         <v>3.66</v>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>13/08/2023 16:13</t>
         </is>
       </c>
-      <c r="P15" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>20/08/2023 15:53</t>
-        </is>
-      </c>
-      <c r="R15" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>13/08/2023 16:13</t>
-        </is>
-      </c>
       <c r="T15" t="n">
-        <v>4.79</v>
+        <v>4.27</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>20/08/2023 15:53</t>
+          <t>20/08/2023 15:54</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/bandirmaspor-boluspor/zLm1jMIP/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-keciorengucu/lSTypKeg/</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Bandirmaspor</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,14 +1869,14 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Keciorengucu</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.97</v>
+        <v>1.86</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>20/08/2023 15:54</t>
+          <t>20/08/2023 15:53</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.63</v>
+        <v>3.66</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.58</v>
+        <v>3.82</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>20/08/2023 15:59</t>
+          <t>20/08/2023 15:53</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.66</v>
+        <v>4.06</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>4.27</v>
+        <v>4.79</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>20/08/2023 15:54</t>
+          <t>20/08/2023 15:53</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-keciorengucu/lSTypKeg/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/bandirmaspor-boluspor/zLm1jMIP/</t>
         </is>
       </c>
     </row>
@@ -4989,71 +4989,71 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Corum</t>
         </is>
       </c>
       <c r="G50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Sakaryaspor</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Goztepe</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
       <c r="J50" t="n">
-        <v>2.07</v>
+        <v>2.01</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>17/09/2023 18:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.28</v>
+        <v>1.97</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>23/09/2023 10:33</t>
+          <t>23/09/2023 17:59</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.34</v>
+        <v>3.45</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>17/09/2023 18:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>23/09/2023 10:33</t>
+          <t>23/09/2023 17:59</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.45</v>
+        <v>3.73</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>17/09/2023 18:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>3.26</v>
+        <v>4.08</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>23/09/2023 10:33</t>
+          <t>23/09/2023 17:59</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-goztepe/j7K2PnF2/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/corum-fk-sakaryaspor/2ov835hq/</t>
         </is>
       </c>
     </row>
@@ -5081,71 +5081,71 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Corum</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Goztepe</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
         <v>1</v>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Sakaryaspor</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
       <c r="J51" t="n">
-        <v>2.01</v>
+        <v>2.07</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 18:13</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.97</v>
+        <v>2.28</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>23/09/2023 17:59</t>
+          <t>23/09/2023 10:33</t>
         </is>
       </c>
       <c r="N51" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>17/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>23/09/2023 10:33</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
         <v>3.45</v>
       </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>19/09/2023 16:13</t>
-        </is>
-      </c>
-      <c r="P51" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>23/09/2023 17:59</t>
-        </is>
-      </c>
-      <c r="R51" t="n">
-        <v>3.73</v>
-      </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 18:13</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>4.08</v>
+        <v>3.26</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>23/09/2023 17:59</t>
+          <t>23/09/2023 10:33</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/corum-fk-sakaryaspor/2ov835hq/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-goztepe/j7K2PnF2/</t>
         </is>
       </c>
     </row>
@@ -5265,30 +5265,30 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Sanliurfaspor</t>
+          <t>Adanaspor AS</t>
         </is>
       </c>
       <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Erzurumspor</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Kocaelispor</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>2</v>
-      </c>
       <c r="J53" t="n">
-        <v>2.31</v>
+        <v>2.05</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 18:13</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.76</v>
+        <v>2.64</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -5296,40 +5296,40 @@
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.29</v>
+        <v>3.43</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 18:13</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.45</v>
+        <v>3.28</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
+          <t>24/09/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>17/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T53" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
           <t>24/09/2023 17:57</t>
         </is>
       </c>
-      <c r="R53" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>19/09/2023 16:13</t>
-        </is>
-      </c>
-      <c r="T53" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>24/09/2023 16:28</t>
-        </is>
-      </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/sanliurfaspor-kocaelispor/lvbX97FF/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/adanaspor-as-erzurumspor-fk/AmaTAm09/</t>
         </is>
       </c>
     </row>
@@ -5357,30 +5357,30 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Adanaspor AS</t>
+          <t>Sanliurfaspor</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Erzurumspor</t>
+          <t>Kocaelispor</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>2.05</v>
+        <v>2.31</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>17/09/2023 18:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.64</v>
+        <v>2.76</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -5388,40 +5388,40 @@
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.43</v>
+        <v>3.29</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>17/09/2023 18:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.28</v>
+        <v>3.45</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>24/09/2023 17:59</t>
+          <t>24/09/2023 17:57</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>3.61</v>
+        <v>3.15</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>17/09/2023 18:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.78</v>
+        <v>2.55</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>24/09/2023 17:57</t>
+          <t>24/09/2023 16:28</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/adanaspor-as-erzurumspor-fk/AmaTAm09/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/sanliurfaspor-kocaelispor/lvbX97FF/</t>
         </is>
       </c>
     </row>
@@ -9562,6 +9562,98 @@
       <c r="V99" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/1-lig/eyupspor-adanaspor-as/IZsLfVA4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45236.75</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Umraniyespor</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Tuzlaspor</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>30/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>06/11/2023 17:29</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>30/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>06/11/2023 17:29</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>30/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>06/11/2023 17:29</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/umraniyespor-tuzlaspor/f1dQYmlo/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_1-lig_2023-2024.xlsx
+++ b/2023/turkey_1-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V100"/>
+  <dimension ref="A1:V101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7197,71 +7197,71 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Erzurumspor</t>
+          <t>Tuzlaspor</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Keciorengucu</t>
+          <t>Kocaelispor</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" t="n">
-        <v>2.73</v>
+        <v>3.22</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>14/10/2023 17:13</t>
+          <t>16/10/2023 01:12</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.65</v>
+        <v>4.14</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>21/10/2023 12:25</t>
+          <t>21/10/2023 12:29</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.12</v>
+        <v>3.38</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>14/10/2023 17:13</t>
+          <t>16/10/2023 01:12</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.26</v>
+        <v>3.53</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>21/10/2023 12:25</t>
+          <t>21/10/2023 12:29</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>2.73</v>
+        <v>2.23</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>14/10/2023 17:13</t>
+          <t>16/10/2023 01:12</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>2.78</v>
+        <v>1.92</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>21/10/2023 12:22</t>
+          <t>21/10/2023 12:29</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/erzurumspor-fk-keciorengucu/hCWBThC5/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-kocaelispor/v9S7UYda/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Tuzlaspor</t>
+          <t>Erzurumspor</t>
         </is>
       </c>
       <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Keciorengucu</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
         <v>1</v>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Kocaelispor</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>2</v>
-      </c>
       <c r="J75" t="n">
-        <v>3.22</v>
+        <v>2.73</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>16/10/2023 01:12</t>
+          <t>14/10/2023 17:13</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>4.14</v>
+        <v>2.65</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>21/10/2023 12:29</t>
+          <t>21/10/2023 12:25</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.38</v>
+        <v>3.12</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>16/10/2023 01:12</t>
+          <t>14/10/2023 17:13</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.53</v>
+        <v>3.26</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>21/10/2023 12:29</t>
+          <t>21/10/2023 12:25</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>2.23</v>
+        <v>2.73</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>16/10/2023 01:12</t>
+          <t>14/10/2023 17:13</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>1.92</v>
+        <v>2.78</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>21/10/2023 12:29</t>
+          <t>21/10/2023 12:22</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-kocaelispor/v9S7UYda/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/erzurumspor-fk-keciorengucu/hCWBThC5/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Keciorengucu</t>
+          <t>Tuzlaspor</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,63 +8125,63 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Goztepe</t>
+          <t>Erzurumspor</t>
         </is>
       </c>
       <c r="I84" t="n">
         <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>2.56</v>
+        <v>2.42</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>21/10/2023 18:13</t>
+          <t>21/10/2023 12:42</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>3.25</v>
+        <v>2.46</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>28/10/2023 12:21</t>
+          <t>28/10/2023 12:28</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.18</v>
+        <v>3.07</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>21/10/2023 18:13</t>
+          <t>21/10/2023 12:42</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.11</v>
+        <v>3.16</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>28/10/2023 12:21</t>
+          <t>28/10/2023 12:28</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.87</v>
+        <v>3.01</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>21/10/2023 18:13</t>
+          <t>21/10/2023 12:42</t>
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.41</v>
+        <v>3.12</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>28/10/2023 12:21</t>
+          <t>28/10/2023 12:28</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/keciorengucu-goztepe/ziQUqEdn/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-erzurumspor-fk/d6EwrhRb/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Tuzlaspor</t>
+          <t>Keciorengucu</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,63 +8217,63 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Erzurumspor</t>
+          <t>Goztepe</t>
         </is>
       </c>
       <c r="I85" t="n">
         <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>2.42</v>
+        <v>2.56</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>21/10/2023 12:42</t>
+          <t>21/10/2023 18:13</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.46</v>
+        <v>3.25</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>28/10/2023 12:28</t>
+          <t>28/10/2023 12:21</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.07</v>
+        <v>3.18</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>21/10/2023 12:42</t>
+          <t>21/10/2023 18:13</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.16</v>
+        <v>3.11</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>28/10/2023 12:28</t>
+          <t>28/10/2023 12:21</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>3.01</v>
+        <v>2.87</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>21/10/2023 12:42</t>
+          <t>21/10/2023 18:13</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>3.12</v>
+        <v>2.41</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>28/10/2023 12:28</t>
+          <t>28/10/2023 12:21</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-erzurumspor-fk/d6EwrhRb/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/keciorengucu-goztepe/ziQUqEdn/</t>
         </is>
       </c>
     </row>
@@ -8577,7 +8577,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Altay</t>
+          <t>Adanaspor AS</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -8585,22 +8585,22 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Sakaryaspor</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>26/10/2023 15:12</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>4.56</v>
+        <v>3.46</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
@@ -8608,15 +8608,15 @@
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.32</v>
+        <v>3.24</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>26/10/2023 15:12</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.66</v>
+        <v>3.39</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -8624,15 +8624,15 @@
         </is>
       </c>
       <c r="R89" t="n">
-        <v>2.45</v>
+        <v>2.83</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>26/10/2023 15:12</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>1.8</v>
+        <v>2.17</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/altay-sakaryaspor/4WHotWeB/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/adanaspor-as-umraniyespor/6ynHQjdO/</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Adanaspor AS</t>
+          <t>Altay</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -8677,22 +8677,22 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Sakaryaspor</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="n">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>26/10/2023 15:12</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>3.46</v>
+        <v>4.56</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
@@ -8700,15 +8700,15 @@
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.24</v>
+        <v>3.32</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>26/10/2023 15:12</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.39</v>
+        <v>3.66</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -8716,15 +8716,15 @@
         </is>
       </c>
       <c r="R90" t="n">
-        <v>2.83</v>
+        <v>2.45</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>26/10/2023 15:12</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="T90" t="n">
-        <v>2.17</v>
+        <v>1.8</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/adanaspor-as-umraniyespor/6ynHQjdO/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/altay-sakaryaspor/4WHotWeB/</t>
         </is>
       </c>
     </row>
@@ -9654,6 +9654,98 @@
       <c r="V100" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/1-lig/umraniyespor-tuzlaspor/f1dQYmlo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45240.75</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Adanaspor AS</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Genclerbirligi</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>2</v>
+      </c>
+      <c r="J101" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>10/11/2023 17:56</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>10/11/2023 17:56</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>10/11/2023 17:56</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/adanaspor-as-genclerbirligi/YPpXiTfN/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_1-lig_2023-2024.xlsx
+++ b/2023/turkey_1-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V101"/>
+  <dimension ref="A1:V104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8577,7 +8577,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Adanaspor AS</t>
+          <t>Altay</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -8585,22 +8585,22 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Sakaryaspor</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89" t="n">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>26/10/2023 15:12</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>3.46</v>
+        <v>4.56</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
@@ -8608,15 +8608,15 @@
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.24</v>
+        <v>3.32</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>26/10/2023 15:12</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.39</v>
+        <v>3.66</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -8624,15 +8624,15 @@
         </is>
       </c>
       <c r="R89" t="n">
-        <v>2.83</v>
+        <v>2.45</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>26/10/2023 15:12</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>2.17</v>
+        <v>1.8</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/adanaspor-as-umraniyespor/6ynHQjdO/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/altay-sakaryaspor/4WHotWeB/</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Altay</t>
+          <t>Adanaspor AS</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -8677,22 +8677,22 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Sakaryaspor</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>26/10/2023 15:12</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>4.56</v>
+        <v>3.46</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
@@ -8700,15 +8700,15 @@
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.32</v>
+        <v>3.24</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>26/10/2023 15:12</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.66</v>
+        <v>3.39</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -8716,15 +8716,15 @@
         </is>
       </c>
       <c r="R90" t="n">
-        <v>2.45</v>
+        <v>2.83</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>26/10/2023 15:12</t>
         </is>
       </c>
       <c r="T90" t="n">
-        <v>1.8</v>
+        <v>2.17</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/altay-sakaryaspor/4WHotWeB/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/adanaspor-as-umraniyespor/6ynHQjdO/</t>
         </is>
       </c>
     </row>
@@ -9746,6 +9746,282 @@
       <c r="V101" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/1-lig/adanaspor-as-genclerbirligi/YPpXiTfN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45241.47916666666</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Keciorengucu</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>1</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Bodrumspor</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:42</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>11/11/2023 11:22</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>11/11/2023 11:22</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>11/11/2023 11:22</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/keciorengucu-bodrumspor/W0Q7oRXj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45241.47916666666</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Tuzlaspor</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>3</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Giresunspor</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>11/11/2023 11:27</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>11/11/2023 11:27</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T103" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>11/11/2023 11:27</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-giresunspor/OfDg9UPc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45241.58333333334</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Sanliurfaspor</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Umraniyespor</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:59</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:59</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T104" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:59</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/sanliurfaspor-umraniyespor/CGqyimAT/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_1-lig_2023-2024.xlsx
+++ b/2023/turkey_1-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V104"/>
+  <dimension ref="A1:V105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7197,71 +7197,71 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Tuzlaspor</t>
+          <t>Erzurumspor</t>
         </is>
       </c>
       <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Keciorengucu</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
         <v>1</v>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Kocaelispor</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
-        <v>2</v>
-      </c>
       <c r="J74" t="n">
-        <v>3.22</v>
+        <v>2.73</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>16/10/2023 01:12</t>
+          <t>14/10/2023 17:13</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>4.14</v>
+        <v>2.65</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>21/10/2023 12:29</t>
+          <t>21/10/2023 12:25</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.38</v>
+        <v>3.12</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>16/10/2023 01:12</t>
+          <t>14/10/2023 17:13</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.53</v>
+        <v>3.26</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>21/10/2023 12:29</t>
+          <t>21/10/2023 12:25</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>2.23</v>
+        <v>2.73</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>16/10/2023 01:12</t>
+          <t>14/10/2023 17:13</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>1.92</v>
+        <v>2.78</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>21/10/2023 12:29</t>
+          <t>21/10/2023 12:22</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-kocaelispor/v9S7UYda/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/erzurumspor-fk-keciorengucu/hCWBThC5/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Erzurumspor</t>
+          <t>Tuzlaspor</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Keciorengucu</t>
+          <t>Kocaelispor</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>2.73</v>
+        <v>3.22</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>14/10/2023 17:13</t>
+          <t>16/10/2023 01:12</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.65</v>
+        <v>4.14</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>21/10/2023 12:25</t>
+          <t>21/10/2023 12:29</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.12</v>
+        <v>3.38</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>14/10/2023 17:13</t>
+          <t>16/10/2023 01:12</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.26</v>
+        <v>3.53</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>21/10/2023 12:25</t>
+          <t>21/10/2023 12:29</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>2.73</v>
+        <v>2.23</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>14/10/2023 17:13</t>
+          <t>16/10/2023 01:12</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2.78</v>
+        <v>1.92</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>21/10/2023 12:22</t>
+          <t>21/10/2023 12:29</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/erzurumspor-fk-keciorengucu/hCWBThC5/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-kocaelispor/v9S7UYda/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Tuzlaspor</t>
+          <t>Keciorengucu</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,63 +8125,63 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Erzurumspor</t>
+          <t>Goztepe</t>
         </is>
       </c>
       <c r="I84" t="n">
         <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>2.42</v>
+        <v>2.56</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>21/10/2023 12:42</t>
+          <t>21/10/2023 18:13</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.46</v>
+        <v>3.25</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>28/10/2023 12:28</t>
+          <t>28/10/2023 12:21</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.07</v>
+        <v>3.18</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>21/10/2023 12:42</t>
+          <t>21/10/2023 18:13</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.16</v>
+        <v>3.11</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>28/10/2023 12:28</t>
+          <t>28/10/2023 12:21</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>3.01</v>
+        <v>2.87</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>21/10/2023 12:42</t>
+          <t>21/10/2023 18:13</t>
         </is>
       </c>
       <c r="T84" t="n">
-        <v>3.12</v>
+        <v>2.41</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>28/10/2023 12:28</t>
+          <t>28/10/2023 12:21</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-erzurumspor-fk/d6EwrhRb/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/keciorengucu-goztepe/ziQUqEdn/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Keciorengucu</t>
+          <t>Tuzlaspor</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,63 +8217,63 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Goztepe</t>
+          <t>Erzurumspor</t>
         </is>
       </c>
       <c r="I85" t="n">
         <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>2.56</v>
+        <v>2.42</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>21/10/2023 18:13</t>
+          <t>21/10/2023 12:42</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>3.25</v>
+        <v>2.46</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>28/10/2023 12:21</t>
+          <t>28/10/2023 12:28</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.18</v>
+        <v>3.07</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>21/10/2023 18:13</t>
+          <t>21/10/2023 12:42</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.11</v>
+        <v>3.16</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>28/10/2023 12:21</t>
+          <t>28/10/2023 12:28</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.87</v>
+        <v>3.01</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>21/10/2023 18:13</t>
+          <t>21/10/2023 12:42</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.41</v>
+        <v>3.12</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>28/10/2023 12:21</t>
+          <t>28/10/2023 12:28</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/keciorengucu-goztepe/ziQUqEdn/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-erzurumspor-fk/d6EwrhRb/</t>
         </is>
       </c>
     </row>
@@ -8577,7 +8577,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Altay</t>
+          <t>Adanaspor AS</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -8585,22 +8585,22 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Sakaryaspor</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>26/10/2023 15:12</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>4.56</v>
+        <v>3.46</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
@@ -8608,15 +8608,15 @@
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.32</v>
+        <v>3.24</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>26/10/2023 15:12</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.66</v>
+        <v>3.39</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -8624,15 +8624,15 @@
         </is>
       </c>
       <c r="R89" t="n">
-        <v>2.45</v>
+        <v>2.83</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>26/10/2023 15:12</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>1.8</v>
+        <v>2.17</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/altay-sakaryaspor/4WHotWeB/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/adanaspor-as-umraniyespor/6ynHQjdO/</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Adanaspor AS</t>
+          <t>Altay</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -8677,22 +8677,22 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Sakaryaspor</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="n">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>26/10/2023 15:12</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>3.46</v>
+        <v>4.56</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
@@ -8700,15 +8700,15 @@
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.24</v>
+        <v>3.32</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>26/10/2023 15:12</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.39</v>
+        <v>3.66</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -8716,15 +8716,15 @@
         </is>
       </c>
       <c r="R90" t="n">
-        <v>2.83</v>
+        <v>2.45</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>26/10/2023 15:12</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="T90" t="n">
-        <v>2.17</v>
+        <v>1.8</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/adanaspor-as-umraniyespor/6ynHQjdO/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/altay-sakaryaspor/4WHotWeB/</t>
         </is>
       </c>
     </row>
@@ -10022,6 +10022,98 @@
       <c r="V104" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/1-lig/sanliurfaspor-umraniyespor/CGqyimAT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45241.70833333334</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Altay</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>1</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Eyupspor</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>7</v>
+      </c>
+      <c r="J105" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>11/11/2023 16:56</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>11/11/2023 16:56</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T105" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>11/11/2023 16:56</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/altay-eyupspor/KM6278fA/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_1-lig_2023-2024.xlsx
+++ b/2023/turkey_1-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V105"/>
+  <dimension ref="A1:V108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tuzlaspor</t>
+          <t>Genclerbirligi</t>
         </is>
       </c>
       <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Bodrumspor</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Eyupspor</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
-        <v>5</v>
-      </c>
       <c r="J21" t="n">
-        <v>5.19</v>
+        <v>2.87</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>21/08/2023 20:12</t>
+          <t>20/08/2023 18:42</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>7.03</v>
+        <v>3.29</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>26/08/2023 15:59</t>
+          <t>26/08/2023 15:52</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>4</v>
+        <v>3.22</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>21/08/2023 20:12</t>
+          <t>20/08/2023 18:42</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>4.25</v>
+        <v>3.18</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>26/08/2023 15:59</t>
+          <t>26/08/2023 15:52</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>1.57</v>
+        <v>2.53</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>21/08/2023 20:12</t>
+          <t>20/08/2023 18:42</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>1.49</v>
+        <v>2.34</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>26/08/2023 15:59</t>
+          <t>26/08/2023 15:52</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-eyupspor/SUj3mg2o/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/genclerbirligi-bodrumspor/nDnuqvBa/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Genclerbirligi</t>
+          <t>Tuzlaspor</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Bodrumspor</t>
+          <t>Eyupspor</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J22" t="n">
-        <v>2.87</v>
+        <v>5.19</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>20/08/2023 18:42</t>
+          <t>21/08/2023 20:12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3.29</v>
+        <v>7.03</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>26/08/2023 15:52</t>
+          <t>26/08/2023 15:59</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.22</v>
+        <v>4</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>20/08/2023 18:42</t>
+          <t>21/08/2023 20:12</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.18</v>
+        <v>4.25</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>26/08/2023 15:52</t>
+          <t>26/08/2023 15:59</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.53</v>
+        <v>1.57</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>20/08/2023 18:42</t>
+          <t>21/08/2023 20:12</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.34</v>
+        <v>1.49</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>26/08/2023 15:52</t>
+          <t>26/08/2023 15:59</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/genclerbirligi-bodrumspor/nDnuqvBa/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-eyupspor/SUj3mg2o/</t>
         </is>
       </c>
     </row>
@@ -4989,71 +4989,71 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Corum</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Goztepe</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
         <v>1</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Sakaryaspor</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
       <c r="J50" t="n">
-        <v>2.01</v>
+        <v>2.07</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 18:13</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.97</v>
+        <v>2.28</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>23/09/2023 17:59</t>
+          <t>23/09/2023 10:33</t>
         </is>
       </c>
       <c r="N50" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>17/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>23/09/2023 10:33</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
         <v>3.45</v>
       </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>19/09/2023 16:13</t>
-        </is>
-      </c>
-      <c r="P50" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>23/09/2023 17:59</t>
-        </is>
-      </c>
-      <c r="R50" t="n">
-        <v>3.73</v>
-      </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 18:13</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>4.08</v>
+        <v>3.26</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>23/09/2023 17:59</t>
+          <t>23/09/2023 10:33</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/corum-fk-sakaryaspor/2ov835hq/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-goztepe/j7K2PnF2/</t>
         </is>
       </c>
     </row>
@@ -5081,71 +5081,71 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Corum</t>
         </is>
       </c>
       <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Sakaryaspor</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Goztepe</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
       <c r="J51" t="n">
-        <v>2.07</v>
+        <v>2.01</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>17/09/2023 18:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.28</v>
+        <v>1.97</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>23/09/2023 10:33</t>
+          <t>23/09/2023 17:59</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.34</v>
+        <v>3.45</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>17/09/2023 18:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>23/09/2023 10:33</t>
+          <t>23/09/2023 17:59</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.45</v>
+        <v>3.73</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>17/09/2023 18:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>3.26</v>
+        <v>4.08</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>23/09/2023 10:33</t>
+          <t>23/09/2023 17:59</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-goztepe/j7K2PnF2/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/corum-fk-sakaryaspor/2ov835hq/</t>
         </is>
       </c>
     </row>
@@ -7197,71 +7197,71 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Erzurumspor</t>
+          <t>Tuzlaspor</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Keciorengucu</t>
+          <t>Kocaelispor</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" t="n">
-        <v>2.73</v>
+        <v>3.22</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>14/10/2023 17:13</t>
+          <t>16/10/2023 01:12</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.65</v>
+        <v>4.14</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>21/10/2023 12:25</t>
+          <t>21/10/2023 12:29</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.12</v>
+        <v>3.38</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>14/10/2023 17:13</t>
+          <t>16/10/2023 01:12</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.26</v>
+        <v>3.53</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>21/10/2023 12:25</t>
+          <t>21/10/2023 12:29</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>2.73</v>
+        <v>2.23</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>14/10/2023 17:13</t>
+          <t>16/10/2023 01:12</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>2.78</v>
+        <v>1.92</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>21/10/2023 12:22</t>
+          <t>21/10/2023 12:29</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/erzurumspor-fk-keciorengucu/hCWBThC5/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-kocaelispor/v9S7UYda/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Tuzlaspor</t>
+          <t>Erzurumspor</t>
         </is>
       </c>
       <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Keciorengucu</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
         <v>1</v>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Kocaelispor</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>2</v>
-      </c>
       <c r="J75" t="n">
-        <v>3.22</v>
+        <v>2.73</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>16/10/2023 01:12</t>
+          <t>14/10/2023 17:13</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>4.14</v>
+        <v>2.65</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>21/10/2023 12:29</t>
+          <t>21/10/2023 12:25</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.38</v>
+        <v>3.12</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>16/10/2023 01:12</t>
+          <t>14/10/2023 17:13</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.53</v>
+        <v>3.26</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>21/10/2023 12:29</t>
+          <t>21/10/2023 12:25</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>2.23</v>
+        <v>2.73</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>16/10/2023 01:12</t>
+          <t>14/10/2023 17:13</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>1.92</v>
+        <v>2.78</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>21/10/2023 12:29</t>
+          <t>21/10/2023 12:22</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-kocaelispor/v9S7UYda/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/erzurumspor-fk-keciorengucu/hCWBThC5/</t>
         </is>
       </c>
     </row>
@@ -8577,7 +8577,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Adanaspor AS</t>
+          <t>Altay</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -8585,22 +8585,22 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Sakaryaspor</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89" t="n">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>26/10/2023 15:12</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>3.46</v>
+        <v>4.56</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
@@ -8608,15 +8608,15 @@
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.24</v>
+        <v>3.32</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>26/10/2023 15:12</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.39</v>
+        <v>3.66</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -8624,15 +8624,15 @@
         </is>
       </c>
       <c r="R89" t="n">
-        <v>2.83</v>
+        <v>2.45</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>26/10/2023 15:12</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>2.17</v>
+        <v>1.8</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/adanaspor-as-umraniyespor/6ynHQjdO/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/altay-sakaryaspor/4WHotWeB/</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Altay</t>
+          <t>Adanaspor AS</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -8677,22 +8677,22 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Sakaryaspor</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>26/10/2023 15:12</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>4.56</v>
+        <v>3.46</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
@@ -8700,15 +8700,15 @@
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.32</v>
+        <v>3.24</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>26/10/2023 15:12</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.66</v>
+        <v>3.39</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -8716,15 +8716,15 @@
         </is>
       </c>
       <c r="R90" t="n">
-        <v>2.45</v>
+        <v>2.83</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>26/10/2023 15:12</t>
         </is>
       </c>
       <c r="T90" t="n">
-        <v>1.8</v>
+        <v>2.17</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/altay-sakaryaspor/4WHotWeB/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/adanaspor-as-umraniyespor/6ynHQjdO/</t>
         </is>
       </c>
     </row>
@@ -10114,6 +10114,282 @@
       <c r="V105" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/1-lig/altay-eyupspor/KM6278fA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45242.47916666666</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Boluspor</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>2</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Sakaryaspor</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>3</v>
+      </c>
+      <c r="J106" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>12/11/2023 11:01</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>12/11/2023 10:41</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T106" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>12/11/2023 11:01</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/boluspor-sakaryaspor/IcM3n7Ip/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45242.47916666666</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Manisa FK</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Bandirmaspor</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>2</v>
+      </c>
+      <c r="J107" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:42</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>12/11/2023 11:21</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>12/11/2023 11:25</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T107" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>12/11/2023 11:25</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-bandirmaspor/Eq666S9G/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45242.58333333334</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Erzurumspor</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>3</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Goztepe</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>2</v>
+      </c>
+      <c r="J108" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:52</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:54</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:54</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/erzurumspor-fk-goztepe/tW7b8lu4/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_1-lig_2023-2024.xlsx
+++ b/2023/turkey_1-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V108"/>
+  <dimension ref="A1:V109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7197,71 +7197,71 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Tuzlaspor</t>
+          <t>Erzurumspor</t>
         </is>
       </c>
       <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Keciorengucu</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
         <v>1</v>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Kocaelispor</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
-        <v>2</v>
-      </c>
       <c r="J74" t="n">
-        <v>3.22</v>
+        <v>2.73</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>16/10/2023 01:12</t>
+          <t>14/10/2023 17:13</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>4.14</v>
+        <v>2.65</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>21/10/2023 12:29</t>
+          <t>21/10/2023 12:25</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.38</v>
+        <v>3.12</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>16/10/2023 01:12</t>
+          <t>14/10/2023 17:13</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.53</v>
+        <v>3.26</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>21/10/2023 12:29</t>
+          <t>21/10/2023 12:25</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>2.23</v>
+        <v>2.73</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>16/10/2023 01:12</t>
+          <t>14/10/2023 17:13</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>1.92</v>
+        <v>2.78</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>21/10/2023 12:29</t>
+          <t>21/10/2023 12:22</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-kocaelispor/v9S7UYda/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/erzurumspor-fk-keciorengucu/hCWBThC5/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Erzurumspor</t>
+          <t>Tuzlaspor</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Keciorengucu</t>
+          <t>Kocaelispor</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>2.73</v>
+        <v>3.22</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>14/10/2023 17:13</t>
+          <t>16/10/2023 01:12</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.65</v>
+        <v>4.14</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>21/10/2023 12:25</t>
+          <t>21/10/2023 12:29</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.12</v>
+        <v>3.38</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>14/10/2023 17:13</t>
+          <t>16/10/2023 01:12</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.26</v>
+        <v>3.53</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>21/10/2023 12:25</t>
+          <t>21/10/2023 12:29</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>2.73</v>
+        <v>2.23</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>14/10/2023 17:13</t>
+          <t>16/10/2023 01:12</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2.78</v>
+        <v>1.92</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>21/10/2023 12:22</t>
+          <t>21/10/2023 12:29</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/erzurumspor-fk-keciorengucu/hCWBThC5/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-kocaelispor/v9S7UYda/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Keciorengucu</t>
+          <t>Tuzlaspor</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,63 +8125,63 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Goztepe</t>
+          <t>Erzurumspor</t>
         </is>
       </c>
       <c r="I84" t="n">
         <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>2.56</v>
+        <v>2.42</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>21/10/2023 18:13</t>
+          <t>21/10/2023 12:42</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>3.25</v>
+        <v>2.46</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>28/10/2023 12:21</t>
+          <t>28/10/2023 12:28</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.18</v>
+        <v>3.07</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>21/10/2023 18:13</t>
+          <t>21/10/2023 12:42</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.11</v>
+        <v>3.16</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>28/10/2023 12:21</t>
+          <t>28/10/2023 12:28</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.87</v>
+        <v>3.01</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>21/10/2023 18:13</t>
+          <t>21/10/2023 12:42</t>
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.41</v>
+        <v>3.12</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>28/10/2023 12:21</t>
+          <t>28/10/2023 12:28</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/keciorengucu-goztepe/ziQUqEdn/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-erzurumspor-fk/d6EwrhRb/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Tuzlaspor</t>
+          <t>Keciorengucu</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,63 +8217,63 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Erzurumspor</t>
+          <t>Goztepe</t>
         </is>
       </c>
       <c r="I85" t="n">
         <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>2.42</v>
+        <v>2.56</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>21/10/2023 12:42</t>
+          <t>21/10/2023 18:13</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.46</v>
+        <v>3.25</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>28/10/2023 12:28</t>
+          <t>28/10/2023 12:21</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.07</v>
+        <v>3.18</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>21/10/2023 12:42</t>
+          <t>21/10/2023 18:13</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.16</v>
+        <v>3.11</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>28/10/2023 12:28</t>
+          <t>28/10/2023 12:21</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>3.01</v>
+        <v>2.87</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>21/10/2023 12:42</t>
+          <t>21/10/2023 18:13</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>3.12</v>
+        <v>2.41</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>28/10/2023 12:28</t>
+          <t>28/10/2023 12:21</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-erzurumspor-fk/d6EwrhRb/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/keciorengucu-goztepe/ziQUqEdn/</t>
         </is>
       </c>
     </row>
@@ -10141,71 +10141,71 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Bandirmaspor</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
         <v>2</v>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Sakaryaspor</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
-        <v>3</v>
-      </c>
       <c r="J106" t="n">
-        <v>2.79</v>
+        <v>2.18</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>05/11/2023 14:12</t>
+          <t>05/11/2023 11:42</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>2.69</v>
+        <v>2.54</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>12/11/2023 11:01</t>
+          <t>12/11/2023 11:21</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.15</v>
+        <v>3.41</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>05/11/2023 14:12</t>
+          <t>05/11/2023 11:42</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.01</v>
+        <v>3.35</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>12/11/2023 10:41</t>
+          <t>12/11/2023 11:25</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>2.65</v>
+        <v>3.31</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>05/11/2023 14:12</t>
+          <t>05/11/2023 11:42</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>2.95</v>
+        <v>2.84</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>12/11/2023 11:01</t>
+          <t>12/11/2023 11:25</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/boluspor-sakaryaspor/IcM3n7Ip/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-bandirmaspor/Eq666S9G/</t>
         </is>
       </c>
     </row>
@@ -10233,71 +10233,71 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Sakaryaspor</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J107" t="n">
-        <v>2.18</v>
+        <v>2.79</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>05/11/2023 11:42</t>
+          <t>05/11/2023 14:12</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.54</v>
+        <v>2.69</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>12/11/2023 11:21</t>
+          <t>12/11/2023 11:01</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.41</v>
+        <v>3.15</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>05/11/2023 11:42</t>
+          <t>05/11/2023 14:12</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.35</v>
+        <v>3.01</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>12/11/2023 11:25</t>
+          <t>12/11/2023 10:41</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>3.31</v>
+        <v>2.65</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>05/11/2023 11:42</t>
+          <t>05/11/2023 14:12</t>
         </is>
       </c>
       <c r="T107" t="n">
-        <v>2.84</v>
+        <v>2.95</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>12/11/2023 11:25</t>
+          <t>12/11/2023 11:01</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-bandirmaspor/Eq666S9G/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/boluspor-sakaryaspor/IcM3n7Ip/</t>
         </is>
       </c>
     </row>
@@ -10390,6 +10390,98 @@
       <c r="V108" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/1-lig/erzurumspor-fk-goztepe/tW7b8lu4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45242.70833333334</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Kocaelispor</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>2</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Corum</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>2</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:06</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:06</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T109" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:06</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/kocaelispor-corum-fk/p4EkAAAi/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_1-lig_2023-2024.xlsx
+++ b/2023/turkey_1-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V109"/>
+  <dimension ref="A1:V110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Tuzlaspor</t>
+          <t>Giresunspor</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Adanaspor AS</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>2.73</v>
+        <v>3.87</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>10/09/2023 15:12</t>
+          <t>13/09/2023 22:19</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.73</v>
+        <v>4.87</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>17/09/2023 14:57</t>
+          <t>17/09/2023 14:37</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.27</v>
+        <v>3.68</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>10/09/2023 15:12</t>
+          <t>13/09/2023 22:19</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.43</v>
+        <v>4.08</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>17/09/2023 14:53</t>
+          <t>17/09/2023 14:37</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.51</v>
+        <v>1.83</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>10/09/2023 15:12</t>
+          <t>13/09/2023 22:19</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.59</v>
+        <v>1.67</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>17/09/2023 14:57</t>
+          <t>17/09/2023 14:08</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-adanaspor-as/xUysk6wj/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/giresunspor-manisa-fk/rRSWBTp3/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Giresunspor</t>
+          <t>Tuzlaspor</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Adanaspor AS</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>3.87</v>
+        <v>2.73</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>13/09/2023 22:19</t>
+          <t>10/09/2023 15:12</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>4.87</v>
+        <v>2.73</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:37</t>
+          <t>17/09/2023 14:57</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.68</v>
+        <v>3.27</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>13/09/2023 22:19</t>
+          <t>10/09/2023 15:12</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>4.08</v>
+        <v>3.43</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:37</t>
+          <t>17/09/2023 14:53</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>1.83</v>
+        <v>2.51</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>13/09/2023 22:19</t>
+          <t>10/09/2023 15:12</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>1.67</v>
+        <v>2.59</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:08</t>
+          <t>17/09/2023 14:57</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/giresunspor-manisa-fk/rRSWBTp3/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-adanaspor-as/xUysk6wj/</t>
         </is>
       </c>
     </row>
@@ -4989,71 +4989,71 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Corum</t>
         </is>
       </c>
       <c r="G50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Sakaryaspor</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Goztepe</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
       <c r="J50" t="n">
-        <v>2.07</v>
+        <v>2.01</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>17/09/2023 18:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.28</v>
+        <v>1.97</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>23/09/2023 10:33</t>
+          <t>23/09/2023 17:59</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.34</v>
+        <v>3.45</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>17/09/2023 18:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>23/09/2023 10:33</t>
+          <t>23/09/2023 17:59</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.45</v>
+        <v>3.73</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>17/09/2023 18:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>3.26</v>
+        <v>4.08</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>23/09/2023 10:33</t>
+          <t>23/09/2023 17:59</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-goztepe/j7K2PnF2/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/corum-fk-sakaryaspor/2ov835hq/</t>
         </is>
       </c>
     </row>
@@ -5081,71 +5081,71 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Corum</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Goztepe</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
         <v>1</v>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Sakaryaspor</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
       <c r="J51" t="n">
-        <v>2.01</v>
+        <v>2.07</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 18:13</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.97</v>
+        <v>2.28</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>23/09/2023 17:59</t>
+          <t>23/09/2023 10:33</t>
         </is>
       </c>
       <c r="N51" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>17/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>23/09/2023 10:33</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
         <v>3.45</v>
       </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>19/09/2023 16:13</t>
-        </is>
-      </c>
-      <c r="P51" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>23/09/2023 17:59</t>
-        </is>
-      </c>
-      <c r="R51" t="n">
-        <v>3.73</v>
-      </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 18:13</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>4.08</v>
+        <v>3.26</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>23/09/2023 17:59</t>
+          <t>23/09/2023 10:33</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/corum-fk-sakaryaspor/2ov835hq/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-goztepe/j7K2PnF2/</t>
         </is>
       </c>
     </row>
@@ -5265,30 +5265,30 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Adanaspor AS</t>
+          <t>Sanliurfaspor</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Erzurumspor</t>
+          <t>Kocaelispor</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53" t="n">
-        <v>2.05</v>
+        <v>2.31</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>17/09/2023 18:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.64</v>
+        <v>2.76</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -5296,40 +5296,40 @@
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.43</v>
+        <v>3.29</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>17/09/2023 18:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.28</v>
+        <v>3.45</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>24/09/2023 17:59</t>
+          <t>24/09/2023 17:57</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>3.61</v>
+        <v>3.15</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>17/09/2023 18:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>2.78</v>
+        <v>2.55</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>24/09/2023 17:57</t>
+          <t>24/09/2023 16:28</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/adanaspor-as-erzurumspor-fk/AmaTAm09/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/sanliurfaspor-kocaelispor/lvbX97FF/</t>
         </is>
       </c>
     </row>
@@ -5357,30 +5357,30 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Sanliurfaspor</t>
+          <t>Adanaspor AS</t>
         </is>
       </c>
       <c r="G54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Erzurumspor</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Kocaelispor</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
-        <v>2</v>
-      </c>
       <c r="J54" t="n">
-        <v>2.31</v>
+        <v>2.05</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 18:13</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.76</v>
+        <v>2.64</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -5388,40 +5388,40 @@
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.29</v>
+        <v>3.43</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 18:13</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.45</v>
+        <v>3.28</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
+          <t>24/09/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>17/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T54" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
           <t>24/09/2023 17:57</t>
         </is>
       </c>
-      <c r="R54" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>19/09/2023 16:13</t>
-        </is>
-      </c>
-      <c r="T54" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>24/09/2023 16:28</t>
-        </is>
-      </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/sanliurfaspor-kocaelispor/lvbX97FF/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/adanaspor-as-erzurumspor-fk/AmaTAm09/</t>
         </is>
       </c>
     </row>
@@ -9221,7 +9221,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Bodrumspor</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -9229,63 +9229,63 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Altay</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>1.53</v>
+        <v>1.95</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>29/10/2023 17:13</t>
+          <t>29/10/2023 11:42</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.33</v>
+        <v>1.97</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>05/11/2023 11:28</t>
+          <t>04/11/2023 20:42</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>4.25</v>
+        <v>3.43</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>29/10/2023 17:13</t>
+          <t>29/10/2023 11:42</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>5.29</v>
+        <v>3.44</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>05/11/2023 11:28</t>
+          <t>04/11/2023 20:42</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>5.78</v>
+        <v>3.98</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>29/10/2023 17:13</t>
+          <t>29/10/2023 11:42</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>9.06</v>
+        <v>4.03</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>05/11/2023 11:28</t>
+          <t>04/11/2023 20:42</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/bandirmaspor-altay/4WwHeBeb/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/bodrumspor-manisa-fk/WIu9cXQo/</t>
         </is>
       </c>
     </row>
@@ -9313,7 +9313,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Bodrumspor</t>
+          <t>Bandirmaspor</t>
         </is>
       </c>
       <c r="G97" t="n">
@@ -9321,63 +9321,63 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Altay</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>1.95</v>
+        <v>1.53</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>29/10/2023 11:42</t>
+          <t>29/10/2023 17:13</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.97</v>
+        <v>1.33</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>04/11/2023 20:42</t>
+          <t>05/11/2023 11:28</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.43</v>
+        <v>4.25</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>29/10/2023 11:42</t>
+          <t>29/10/2023 17:13</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.44</v>
+        <v>5.29</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>04/11/2023 20:42</t>
+          <t>05/11/2023 11:28</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>3.98</v>
+        <v>5.78</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>29/10/2023 11:42</t>
+          <t>29/10/2023 17:13</t>
         </is>
       </c>
       <c r="T97" t="n">
-        <v>4.03</v>
+        <v>9.06</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>04/11/2023 20:42</t>
+          <t>05/11/2023 11:28</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/bodrumspor-manisa-fk/WIu9cXQo/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/bandirmaspor-altay/4WwHeBeb/</t>
         </is>
       </c>
     </row>
@@ -10141,71 +10141,71 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Sakaryaspor</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J106" t="n">
-        <v>2.18</v>
+        <v>2.79</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>05/11/2023 11:42</t>
+          <t>05/11/2023 14:12</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>2.54</v>
+        <v>2.69</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>12/11/2023 11:21</t>
+          <t>12/11/2023 11:01</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.41</v>
+        <v>3.15</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>05/11/2023 11:42</t>
+          <t>05/11/2023 14:12</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.35</v>
+        <v>3.01</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>12/11/2023 11:25</t>
+          <t>12/11/2023 10:41</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>3.31</v>
+        <v>2.65</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>05/11/2023 11:42</t>
+          <t>05/11/2023 14:12</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>2.84</v>
+        <v>2.95</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>12/11/2023 11:25</t>
+          <t>12/11/2023 11:01</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-bandirmaspor/Eq666S9G/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/boluspor-sakaryaspor/IcM3n7Ip/</t>
         </is>
       </c>
     </row>
@@ -10233,71 +10233,71 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Bandirmaspor</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
         <v>2</v>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Sakaryaspor</t>
-        </is>
-      </c>
-      <c r="I107" t="n">
-        <v>3</v>
-      </c>
       <c r="J107" t="n">
-        <v>2.79</v>
+        <v>2.18</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>05/11/2023 14:12</t>
+          <t>05/11/2023 11:42</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.69</v>
+        <v>2.54</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>12/11/2023 11:01</t>
+          <t>12/11/2023 11:21</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.15</v>
+        <v>3.41</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>05/11/2023 14:12</t>
+          <t>05/11/2023 11:42</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.01</v>
+        <v>3.35</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>12/11/2023 10:41</t>
+          <t>12/11/2023 11:25</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>2.65</v>
+        <v>3.31</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>05/11/2023 14:12</t>
+          <t>05/11/2023 11:42</t>
         </is>
       </c>
       <c r="T107" t="n">
-        <v>2.95</v>
+        <v>2.84</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>12/11/2023 11:01</t>
+          <t>12/11/2023 11:25</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/boluspor-sakaryaspor/IcM3n7Ip/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-bandirmaspor/Eq666S9G/</t>
         </is>
       </c>
     </row>
@@ -10482,6 +10482,98 @@
       <c r="V109" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/1-lig/kocaelispor-corum-fk/p4EkAAAi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45254.75</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Sakaryaspor</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>2</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Erzurumspor</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>2</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>16/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>24/11/2023 17:51</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>16/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>24/11/2023 17:51</t>
+        </is>
+      </c>
+      <c r="R110" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>16/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="T110" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>24/11/2023 17:51</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/sakaryaspor-erzurumspor-fk/6HNvlKgk/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_1-lig_2023-2024.xlsx
+++ b/2023/turkey_1-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V110"/>
+  <dimension ref="A1:V117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Giresunspor</t>
+          <t>Tuzlaspor</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Adanaspor AS</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>3.87</v>
+        <v>2.73</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>13/09/2023 22:19</t>
+          <t>10/09/2023 15:12</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>4.87</v>
+        <v>2.73</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>17/09/2023 14:37</t>
+          <t>17/09/2023 14:57</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.68</v>
+        <v>3.27</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>13/09/2023 22:19</t>
+          <t>10/09/2023 15:12</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>4.08</v>
+        <v>3.43</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>17/09/2023 14:37</t>
+          <t>17/09/2023 14:53</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>1.83</v>
+        <v>2.51</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>13/09/2023 22:19</t>
+          <t>10/09/2023 15:12</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>1.67</v>
+        <v>2.59</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>17/09/2023 14:08</t>
+          <t>17/09/2023 14:57</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/giresunspor-manisa-fk/rRSWBTp3/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-adanaspor-as/xUysk6wj/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Tuzlaspor</t>
+          <t>Giresunspor</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Adanaspor AS</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.73</v>
+        <v>3.87</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>10/09/2023 15:12</t>
+          <t>13/09/2023 22:19</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.73</v>
+        <v>4.87</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:57</t>
+          <t>17/09/2023 14:37</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.27</v>
+        <v>3.68</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>10/09/2023 15:12</t>
+          <t>13/09/2023 22:19</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.43</v>
+        <v>4.08</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:53</t>
+          <t>17/09/2023 14:37</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.51</v>
+        <v>1.83</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>10/09/2023 15:12</t>
+          <t>13/09/2023 22:19</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.59</v>
+        <v>1.67</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:57</t>
+          <t>17/09/2023 14:08</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-adanaspor-as/xUysk6wj/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/giresunspor-manisa-fk/rRSWBTp3/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Goztepe</t>
+          <t>Genclerbirligi</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,14 +4445,14 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Eyupspor</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>2.11</v>
+        <v>3.66</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.53</v>
+        <v>4.3</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>17/09/2023 17:53</t>
+          <t>17/09/2023 17:59</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.37</v>
+        <v>3.28</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.19</v>
+        <v>3.26</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>17/09/2023 17:53</t>
+          <t>17/09/2023 17:59</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.53</v>
+        <v>2.1</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.99</v>
+        <v>1.97</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>17/09/2023 17:53</t>
+          <t>17/09/2023 17:59</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/goztepe-bandirmaspor/4zUSC9Vd/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/genclerbirligi-eyupspor/277ccUV9/</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Genclerbirligi</t>
+          <t>Goztepe</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4537,14 +4537,14 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Eyupspor</t>
+          <t>Bandirmaspor</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>3.66</v>
+        <v>2.11</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>4.3</v>
+        <v>2.53</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>17/09/2023 17:59</t>
+          <t>17/09/2023 17:53</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.28</v>
+        <v>3.37</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.26</v>
+        <v>3.19</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>17/09/2023 17:59</t>
+          <t>17/09/2023 17:53</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.1</v>
+        <v>3.53</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>1.97</v>
+        <v>2.99</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>17/09/2023 17:59</t>
+          <t>17/09/2023 17:53</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/genclerbirligi-eyupspor/277ccUV9/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/goztepe-bandirmaspor/4zUSC9Vd/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Tuzlaspor</t>
+          <t>Keciorengucu</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,63 +8125,63 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Erzurumspor</t>
+          <t>Goztepe</t>
         </is>
       </c>
       <c r="I84" t="n">
         <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>2.42</v>
+        <v>2.56</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>21/10/2023 12:42</t>
+          <t>21/10/2023 18:13</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.46</v>
+        <v>3.25</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>28/10/2023 12:28</t>
+          <t>28/10/2023 12:21</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.07</v>
+        <v>3.18</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>21/10/2023 12:42</t>
+          <t>21/10/2023 18:13</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.16</v>
+        <v>3.11</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>28/10/2023 12:28</t>
+          <t>28/10/2023 12:21</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>3.01</v>
+        <v>2.87</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>21/10/2023 12:42</t>
+          <t>21/10/2023 18:13</t>
         </is>
       </c>
       <c r="T84" t="n">
-        <v>3.12</v>
+        <v>2.41</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>28/10/2023 12:28</t>
+          <t>28/10/2023 12:21</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-erzurumspor-fk/d6EwrhRb/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/keciorengucu-goztepe/ziQUqEdn/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Keciorengucu</t>
+          <t>Tuzlaspor</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,63 +8217,63 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Goztepe</t>
+          <t>Erzurumspor</t>
         </is>
       </c>
       <c r="I85" t="n">
         <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>2.56</v>
+        <v>2.42</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>21/10/2023 18:13</t>
+          <t>21/10/2023 12:42</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>3.25</v>
+        <v>2.46</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>28/10/2023 12:21</t>
+          <t>28/10/2023 12:28</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.18</v>
+        <v>3.07</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>21/10/2023 18:13</t>
+          <t>21/10/2023 12:42</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.11</v>
+        <v>3.16</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>28/10/2023 12:21</t>
+          <t>28/10/2023 12:28</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.87</v>
+        <v>3.01</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>21/10/2023 18:13</t>
+          <t>21/10/2023 12:42</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.41</v>
+        <v>3.12</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>28/10/2023 12:21</t>
+          <t>28/10/2023 12:28</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/keciorengucu-goztepe/ziQUqEdn/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-erzurumspor-fk/d6EwrhRb/</t>
         </is>
       </c>
     </row>
@@ -9221,7 +9221,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Bodrumspor</t>
+          <t>Bandirmaspor</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -9229,63 +9229,63 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Altay</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>1.95</v>
+        <v>1.53</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>29/10/2023 11:42</t>
+          <t>29/10/2023 17:13</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.97</v>
+        <v>1.33</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>04/11/2023 20:42</t>
+          <t>05/11/2023 11:28</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.43</v>
+        <v>4.25</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>29/10/2023 11:42</t>
+          <t>29/10/2023 17:13</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.44</v>
+        <v>5.29</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>04/11/2023 20:42</t>
+          <t>05/11/2023 11:28</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>3.98</v>
+        <v>5.78</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>29/10/2023 11:42</t>
+          <t>29/10/2023 17:13</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>4.03</v>
+        <v>9.06</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>04/11/2023 20:42</t>
+          <t>05/11/2023 11:28</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/bodrumspor-manisa-fk/WIu9cXQo/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/bandirmaspor-altay/4WwHeBeb/</t>
         </is>
       </c>
     </row>
@@ -9313,7 +9313,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Bodrumspor</t>
         </is>
       </c>
       <c r="G97" t="n">
@@ -9321,63 +9321,63 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Altay</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>1.53</v>
+        <v>1.95</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>29/10/2023 17:13</t>
+          <t>29/10/2023 11:42</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.33</v>
+        <v>1.97</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>05/11/2023 11:28</t>
+          <t>04/11/2023 20:42</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>4.25</v>
+        <v>3.43</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>29/10/2023 17:13</t>
+          <t>29/10/2023 11:42</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>5.29</v>
+        <v>3.44</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>05/11/2023 11:28</t>
+          <t>04/11/2023 20:42</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>5.78</v>
+        <v>3.98</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>29/10/2023 17:13</t>
+          <t>29/10/2023 11:42</t>
         </is>
       </c>
       <c r="T97" t="n">
-        <v>9.06</v>
+        <v>4.03</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>05/11/2023 11:28</t>
+          <t>04/11/2023 20:42</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/bandirmaspor-altay/4WwHeBeb/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/bodrumspor-manisa-fk/WIu9cXQo/</t>
         </is>
       </c>
     </row>
@@ -10574,6 +10574,650 @@
       <c r="V110" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/1-lig/sakaryaspor-erzurumspor-fk/6HNvlKgk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45255.47916666666</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Bandirmaspor</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Sanliurfaspor</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>17/11/2023 11:42</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>25/11/2023 11:13</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>17/11/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>25/11/2023 11:20</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>17/11/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T111" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>25/11/2023 11:20</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/bandirmaspor-sanliurfaspor/d6jXgAs8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45255.47916666666</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Bodrumspor</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Adanaspor AS</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>17/11/2023 11:42</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>25/11/2023 11:25</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>17/11/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>25/11/2023 11:29</t>
+        </is>
+      </c>
+      <c r="R112" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>17/11/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T112" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>25/11/2023 11:29</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/bodrumspor-adanaspor-as/EsRnnbO1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45255.58333333334</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Umraniyespor</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>1</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Boluspor</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>2</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>17/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:34</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>17/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:34</t>
+        </is>
+      </c>
+      <c r="R113" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>17/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T113" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:34</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/umraniyespor-boluspor/p8Mrmv9e/</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45255.70833333334</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Giresunspor</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>1</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Kocaelispor</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>4</v>
+      </c>
+      <c r="J114" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>17/11/2023 17:43</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>25/11/2023 16:51</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>17/11/2023 17:43</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>25/11/2023 16:51</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>17/11/2023 17:43</t>
+        </is>
+      </c>
+      <c r="T114" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>25/11/2023 16:51</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/giresunspor-kocaelispor/rNhqi8RQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45256.47916666666</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Corum</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>3</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Altay</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>18/11/2023 11:42</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>26/11/2023 11:20</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>18/11/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>26/11/2023 11:28</t>
+        </is>
+      </c>
+      <c r="R115" t="n">
+        <v>8.66</v>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>18/11/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T115" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>26/11/2023 11:26</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/corum-fk-altay/hYPjoIw8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45256.58333333334</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Eyupspor</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>2</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Manisa FK</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>18/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:58</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>18/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:58</t>
+        </is>
+      </c>
+      <c r="R116" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>18/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T116" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:58</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/eyupspor-manisa-fk/A9fygUdE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45256.70833333334</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Goztepe</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>2</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Tuzlaspor</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>18/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:58</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>18/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P117" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:58</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>18/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T117" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:58</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/goztepe-tuzlaspor/4WguhlCK/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_1-lig_2023-2024.xlsx
+++ b/2023/turkey_1-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V117"/>
+  <dimension ref="A1:V118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tuzlaspor</t>
+          <t>Genclerbirligi</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Corum</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>2.16</v>
+        <v>2.34</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.7</v>
+        <v>2.93</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>13/08/2023 15:54</t>
+          <t>13/08/2023 15:52</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.19</v>
+        <v>3.26</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.24</v>
+        <v>3.38</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>13/08/2023 15:54</t>
+          <t>13/08/2023 15:52</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>3.4</v>
+        <v>2.97</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.74</v>
+        <v>2.46</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>13/08/2023 15:54</t>
+          <t>13/08/2023 15:52</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-corum-fk/GfFXhfNQ/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/genclerbirligi-umraniyespor/pAqYXho1/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Genclerbirligi</t>
+          <t>Tuzlaspor</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Corum</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>2.34</v>
+        <v>2.16</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.93</v>
+        <v>2.7</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>13/08/2023 15:52</t>
+          <t>13/08/2023 15:54</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.26</v>
+        <v>3.19</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.38</v>
+        <v>3.24</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>13/08/2023 15:52</t>
+          <t>13/08/2023 15:54</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.97</v>
+        <v>3.4</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2.46</v>
+        <v>2.74</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>13/08/2023 15:52</t>
+          <t>13/08/2023 15:54</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/genclerbirligi-umraniyespor/pAqYXho1/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-corum-fk/GfFXhfNQ/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Genclerbirligi</t>
+          <t>Tuzlaspor</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Bodrumspor</t>
+          <t>Eyupspor</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
-        <v>2.87</v>
+        <v>5.19</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>20/08/2023 18:42</t>
+          <t>21/08/2023 20:12</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>3.29</v>
+        <v>7.03</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>26/08/2023 15:52</t>
+          <t>26/08/2023 15:59</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.22</v>
+        <v>4</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>20/08/2023 18:42</t>
+          <t>21/08/2023 20:12</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.18</v>
+        <v>4.25</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>26/08/2023 15:52</t>
+          <t>26/08/2023 15:59</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.53</v>
+        <v>1.57</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>20/08/2023 18:42</t>
+          <t>21/08/2023 20:12</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.34</v>
+        <v>1.49</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>26/08/2023 15:52</t>
+          <t>26/08/2023 15:59</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/genclerbirligi-bodrumspor/nDnuqvBa/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-eyupspor/SUj3mg2o/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tuzlaspor</t>
+          <t>Genclerbirligi</t>
         </is>
       </c>
       <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Bodrumspor</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Eyupspor</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>5</v>
-      </c>
       <c r="J22" t="n">
-        <v>5.19</v>
+        <v>2.87</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>21/08/2023 20:12</t>
+          <t>20/08/2023 18:42</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>7.03</v>
+        <v>3.29</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>26/08/2023 15:59</t>
+          <t>26/08/2023 15:52</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>4</v>
+        <v>3.22</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>21/08/2023 20:12</t>
+          <t>20/08/2023 18:42</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>4.25</v>
+        <v>3.18</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>26/08/2023 15:59</t>
+          <t>26/08/2023 15:52</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>1.57</v>
+        <v>2.53</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>21/08/2023 20:12</t>
+          <t>20/08/2023 18:42</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>1.49</v>
+        <v>2.34</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>26/08/2023 15:59</t>
+          <t>26/08/2023 15:52</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-eyupspor/SUj3mg2o/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/genclerbirligi-bodrumspor/nDnuqvBa/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Genclerbirligi</t>
+          <t>Goztepe</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,14 +4445,14 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Eyupspor</t>
+          <t>Bandirmaspor</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>3.66</v>
+        <v>2.11</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>4.3</v>
+        <v>2.53</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>17/09/2023 17:59</t>
+          <t>17/09/2023 17:53</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.28</v>
+        <v>3.37</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.26</v>
+        <v>3.19</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>17/09/2023 17:59</t>
+          <t>17/09/2023 17:53</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.1</v>
+        <v>3.53</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>1.97</v>
+        <v>2.99</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>17/09/2023 17:59</t>
+          <t>17/09/2023 17:53</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/genclerbirligi-eyupspor/277ccUV9/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/goztepe-bandirmaspor/4zUSC9Vd/</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Goztepe</t>
+          <t>Genclerbirligi</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4537,14 +4537,14 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Eyupspor</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J45" t="n">
-        <v>2.11</v>
+        <v>3.66</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.53</v>
+        <v>4.3</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>17/09/2023 17:53</t>
+          <t>17/09/2023 17:59</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.37</v>
+        <v>3.28</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.19</v>
+        <v>3.26</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>17/09/2023 17:53</t>
+          <t>17/09/2023 17:59</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>3.53</v>
+        <v>2.1</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.99</v>
+        <v>1.97</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>17/09/2023 17:53</t>
+          <t>17/09/2023 17:59</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/goztepe-bandirmaspor/4zUSC9Vd/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/genclerbirligi-eyupspor/277ccUV9/</t>
         </is>
       </c>
     </row>
@@ -11218,6 +11218,98 @@
       <c r="V117" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/1-lig/goztepe-tuzlaspor/4WguhlCK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45257.75</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Genclerbirligi</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>1</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Keciorengucu</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>20/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>27/11/2023 17:57</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>20/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P118" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>27/11/2023 17:57</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>20/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T118" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>27/11/2023 17:57</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/genclerbirligi-keciorengucu/OhYZl0vq/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_1-lig_2023-2024.xlsx
+++ b/2023/turkey_1-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V118"/>
+  <dimension ref="A1:V120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Genclerbirligi</t>
+          <t>Tuzlaspor</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Corum</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>2.34</v>
+        <v>2.16</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.93</v>
+        <v>2.7</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>13/08/2023 15:52</t>
+          <t>13/08/2023 15:54</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.26</v>
+        <v>3.19</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.38</v>
+        <v>3.24</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>13/08/2023 15:52</t>
+          <t>13/08/2023 15:54</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.97</v>
+        <v>3.4</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.46</v>
+        <v>2.74</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>13/08/2023 15:52</t>
+          <t>13/08/2023 15:54</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/genclerbirligi-umraniyespor/pAqYXho1/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-corum-fk/GfFXhfNQ/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tuzlaspor</t>
+          <t>Genclerbirligi</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Corum</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>2.16</v>
+        <v>2.34</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.7</v>
+        <v>2.93</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>13/08/2023 15:54</t>
+          <t>13/08/2023 15:52</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.19</v>
+        <v>3.26</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.24</v>
+        <v>3.38</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>13/08/2023 15:54</t>
+          <t>13/08/2023 15:52</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>3.4</v>
+        <v>2.97</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2.74</v>
+        <v>2.46</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>13/08/2023 15:54</t>
+          <t>13/08/2023 15:52</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-corum-fk/GfFXhfNQ/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/genclerbirligi-umraniyespor/pAqYXho1/</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Bandirmaspor</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,14 +1777,14 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Keciorengucu</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.97</v>
+        <v>1.86</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>20/08/2023 15:54</t>
+          <t>20/08/2023 15:53</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.63</v>
+        <v>3.66</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.58</v>
+        <v>3.82</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>20/08/2023 15:59</t>
+          <t>20/08/2023 15:53</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.66</v>
+        <v>4.06</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>4.27</v>
+        <v>4.79</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>20/08/2023 15:54</t>
+          <t>20/08/2023 15:53</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-keciorengucu/lSTypKeg/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/bandirmaspor-boluspor/zLm1jMIP/</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,14 +1869,14 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Keciorengucu</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.86</v>
+        <v>1.97</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,48 +1884,48 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>20/08/2023 15:53</t>
+          <t>20/08/2023 15:54</t>
         </is>
       </c>
       <c r="N16" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>13/08/2023 16:13</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>20/08/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
         <v>3.66</v>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>13/08/2023 16:13</t>
         </is>
       </c>
-      <c r="P16" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>20/08/2023 15:53</t>
-        </is>
-      </c>
-      <c r="R16" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>13/08/2023 16:13</t>
-        </is>
-      </c>
       <c r="T16" t="n">
-        <v>4.79</v>
+        <v>4.27</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>20/08/2023 15:53</t>
+          <t>20/08/2023 15:54</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/bandirmaspor-boluspor/zLm1jMIP/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-keciorengucu/lSTypKeg/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Tuzlaspor</t>
+          <t>Keciorengucu</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.53</v>
+        <v>2.78</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>26/08/2023 18:13</t>
+          <t>27/08/2023 18:42</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.47</v>
+        <v>2.43</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>02/09/2023 18:08</t>
+          <t>02/09/2023 18:13</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>4.28</v>
+        <v>3.3</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>26/08/2023 18:13</t>
+          <t>27/08/2023 18:42</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>4.5</v>
+        <v>3.33</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>02/09/2023 18:08</t>
+          <t>02/09/2023 18:07</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>5.83</v>
+        <v>2.56</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>26/08/2023 18:13</t>
+          <t>27/08/2023 18:42</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>6.82</v>
+        <v>3.01</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>02/09/2023 18:08</t>
+          <t>02/09/2023 18:13</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-tuzlaspor/jX3gbAG3/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/boluspor-keciorengucu/WSWSskWM/</t>
         </is>
       </c>
     </row>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Keciorengucu</t>
+          <t>Tuzlaspor</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.78</v>
+        <v>1.53</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>27/08/2023 18:42</t>
+          <t>26/08/2023 18:13</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.43</v>
+        <v>1.47</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>02/09/2023 18:13</t>
+          <t>02/09/2023 18:08</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.3</v>
+        <v>4.28</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>27/08/2023 18:42</t>
+          <t>26/08/2023 18:13</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>02/09/2023 18:07</t>
+          <t>02/09/2023 18:08</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>2.56</v>
+        <v>5.83</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>27/08/2023 18:42</t>
+          <t>26/08/2023 18:13</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>3.01</v>
+        <v>6.82</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>02/09/2023 18:13</t>
+          <t>02/09/2023 18:08</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/boluspor-keciorengucu/WSWSskWM/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-tuzlaspor/jX3gbAG3/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Erzurumspor</t>
+          <t>Bodrumspor</t>
         </is>
       </c>
       <c r="G60" t="n">
+        <v>2</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Corum</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
         <v>1</v>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Boluspor</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
       <c r="J60" t="n">
-        <v>2.46</v>
+        <v>1.84</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>24/09/2023 17:13</t>
+          <t>28/09/2023 03:13</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.62</v>
+        <v>1.83</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>01/10/2023 12:03</t>
+          <t>01/10/2023 12:28</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.24</v>
+        <v>3.63</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>24/09/2023 17:13</t>
+          <t>28/09/2023 03:13</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>01/10/2023 12:23</t>
+          <t>01/10/2023 12:28</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>2.95</v>
+        <v>4.22</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>24/09/2023 17:13</t>
+          <t>28/09/2023 03:13</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.82</v>
+        <v>4.72</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>01/10/2023 12:23</t>
+          <t>01/10/2023 12:28</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/erzurumspor-fk-boluspor/256gF2ie/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/bodrumspor-corum-fk/hWGJL4ER/</t>
         </is>
       </c>
     </row>
@@ -6001,71 +6001,71 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Bodrumspor</t>
+          <t>Erzurumspor</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Corum</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>1.84</v>
+        <v>2.46</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>28/09/2023 03:13</t>
+          <t>24/09/2023 17:13</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>1.83</v>
+        <v>2.62</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>01/10/2023 12:28</t>
+          <t>01/10/2023 12:03</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.63</v>
+        <v>3.24</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>28/09/2023 03:13</t>
+          <t>24/09/2023 17:13</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>01/10/2023 12:28</t>
+          <t>01/10/2023 12:23</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>4.22</v>
+        <v>2.95</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>28/09/2023 03:13</t>
+          <t>24/09/2023 17:13</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>4.72</v>
+        <v>2.82</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>01/10/2023 12:28</t>
+          <t>01/10/2023 12:23</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/bodrumspor-corum-fk/hWGJL4ER/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/erzurumspor-fk-boluspor/256gF2ie/</t>
         </is>
       </c>
     </row>
@@ -7657,71 +7657,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Giresunspor</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" t="n">
-        <v>2.93</v>
+        <v>2.76</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>16/10/2023 20:42</t>
+          <t>16/10/2023 01:12</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>3.53</v>
+        <v>3.09</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:51</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.18</v>
+        <v>3.29</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>16/10/2023 20:42</t>
+          <t>16/10/2023 01:12</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.4</v>
+        <v>3.23</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:51</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>16/10/2023 20:42</t>
+          <t>16/10/2023 01:12</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.14</v>
+        <v>2.43</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:51</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/giresunspor-boluspor/QPUJRWtI/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/umraniyespor-manisa-fk/lKZfXzDt/</t>
         </is>
       </c>
     </row>
@@ -7749,71 +7749,71 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Giresunspor</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>2.76</v>
+        <v>2.93</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>16/10/2023 01:12</t>
+          <t>16/10/2023 20:42</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>3.09</v>
+        <v>3.53</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>22/10/2023 14:51</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.29</v>
+        <v>3.18</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>16/10/2023 01:12</t>
+          <t>16/10/2023 20:42</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.23</v>
+        <v>3.4</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>22/10/2023 14:51</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>16/10/2023 01:12</t>
+          <t>16/10/2023 20:42</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>2.43</v>
+        <v>2.14</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>22/10/2023 14:51</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/umraniyespor-manisa-fk/lKZfXzDt/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/giresunspor-boluspor/QPUJRWtI/</t>
         </is>
       </c>
     </row>
@@ -8577,7 +8577,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Altay</t>
+          <t>Adanaspor AS</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -8585,22 +8585,22 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Sakaryaspor</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>26/10/2023 15:12</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>4.56</v>
+        <v>3.46</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
@@ -8608,15 +8608,15 @@
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.32</v>
+        <v>3.24</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>26/10/2023 15:12</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.66</v>
+        <v>3.39</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -8624,15 +8624,15 @@
         </is>
       </c>
       <c r="R89" t="n">
-        <v>2.45</v>
+        <v>2.83</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>26/10/2023 15:12</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>1.8</v>
+        <v>2.17</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/altay-sakaryaspor/4WHotWeB/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/adanaspor-as-umraniyespor/6ynHQjdO/</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Adanaspor AS</t>
+          <t>Altay</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -8677,22 +8677,22 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Sakaryaspor</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="n">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>26/10/2023 15:12</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>3.46</v>
+        <v>4.56</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
@@ -8700,15 +8700,15 @@
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.24</v>
+        <v>3.32</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>26/10/2023 15:12</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.39</v>
+        <v>3.66</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -8716,15 +8716,15 @@
         </is>
       </c>
       <c r="R90" t="n">
-        <v>2.83</v>
+        <v>2.45</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>26/10/2023 15:12</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="T90" t="n">
-        <v>2.17</v>
+        <v>1.8</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/adanaspor-as-umraniyespor/6ynHQjdO/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/altay-sakaryaspor/4WHotWeB/</t>
         </is>
       </c>
     </row>
@@ -10141,71 +10141,71 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Bandirmaspor</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
         <v>2</v>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Sakaryaspor</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
-        <v>3</v>
-      </c>
       <c r="J106" t="n">
-        <v>2.79</v>
+        <v>2.18</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>05/11/2023 14:12</t>
+          <t>05/11/2023 11:42</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>2.69</v>
+        <v>2.54</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>12/11/2023 11:01</t>
+          <t>12/11/2023 11:21</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.15</v>
+        <v>3.41</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>05/11/2023 14:12</t>
+          <t>05/11/2023 11:42</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.01</v>
+        <v>3.35</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>12/11/2023 10:41</t>
+          <t>12/11/2023 11:25</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>2.65</v>
+        <v>3.31</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>05/11/2023 14:12</t>
+          <t>05/11/2023 11:42</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>2.95</v>
+        <v>2.84</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>12/11/2023 11:01</t>
+          <t>12/11/2023 11:25</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/boluspor-sakaryaspor/IcM3n7Ip/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-bandirmaspor/Eq666S9G/</t>
         </is>
       </c>
     </row>
@@ -10233,71 +10233,71 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Sakaryaspor</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J107" t="n">
-        <v>2.18</v>
+        <v>2.79</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>05/11/2023 11:42</t>
+          <t>05/11/2023 14:12</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.54</v>
+        <v>2.69</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>12/11/2023 11:21</t>
+          <t>12/11/2023 11:01</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.41</v>
+        <v>3.15</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>05/11/2023 11:42</t>
+          <t>05/11/2023 14:12</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.35</v>
+        <v>3.01</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>12/11/2023 11:25</t>
+          <t>12/11/2023 10:41</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>3.31</v>
+        <v>2.65</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>05/11/2023 11:42</t>
+          <t>05/11/2023 14:12</t>
         </is>
       </c>
       <c r="T107" t="n">
-        <v>2.84</v>
+        <v>2.95</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>12/11/2023 11:25</t>
+          <t>12/11/2023 11:01</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-bandirmaspor/Eq666S9G/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/boluspor-sakaryaspor/IcM3n7Ip/</t>
         </is>
       </c>
     </row>
@@ -11310,6 +11310,190 @@
       <c r="V118" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/1-lig/genclerbirligi-keciorengucu/OhYZl0vq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45261.75</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Adanaspor AS</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Corum</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>3</v>
+      </c>
+      <c r="J119" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>26/11/2023 11:42</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>01/12/2023 17:58</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>26/11/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P119" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>01/12/2023 17:58</t>
+        </is>
+      </c>
+      <c r="R119" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>26/11/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T119" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>01/12/2023 17:58</t>
+        </is>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/adanaspor-as-corum-fk/nic4nSZs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45261.75</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Kocaelispor</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Umraniyespor</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>3</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>01/12/2023 17:34</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P120" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>01/12/2023 17:34</t>
+        </is>
+      </c>
+      <c r="R120" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T120" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>01/12/2023 17:49</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/kocaelispor-umraniyespor/GWlLrpZ6/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_1-lig_2023-2024.xlsx
+++ b/2023/turkey_1-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V120"/>
+  <dimension ref="A1:V123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7657,71 +7657,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Giresunspor</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>2.76</v>
+        <v>2.93</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>16/10/2023 01:12</t>
+          <t>16/10/2023 20:42</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>3.09</v>
+        <v>3.53</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>22/10/2023 14:51</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.29</v>
+        <v>3.18</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>16/10/2023 01:12</t>
+          <t>16/10/2023 20:42</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.23</v>
+        <v>3.4</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>22/10/2023 14:51</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>16/10/2023 01:12</t>
+          <t>16/10/2023 20:42</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.43</v>
+        <v>2.14</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>22/10/2023 14:51</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/umraniyespor-manisa-fk/lKZfXzDt/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/giresunspor-boluspor/QPUJRWtI/</t>
         </is>
       </c>
     </row>
@@ -7749,71 +7749,71 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Giresunspor</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>2.93</v>
+        <v>2.76</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>16/10/2023 20:42</t>
+          <t>16/10/2023 01:12</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>3.53</v>
+        <v>3.09</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:51</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.18</v>
+        <v>3.29</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>16/10/2023 20:42</t>
+          <t>16/10/2023 01:12</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.4</v>
+        <v>3.23</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:51</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>16/10/2023 20:42</t>
+          <t>16/10/2023 01:12</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>2.14</v>
+        <v>2.43</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:51</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/giresunspor-boluspor/QPUJRWtI/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/umraniyespor-manisa-fk/lKZfXzDt/</t>
         </is>
       </c>
     </row>
@@ -10141,71 +10141,71 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Sakaryaspor</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J106" t="n">
-        <v>2.18</v>
+        <v>2.79</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>05/11/2023 11:42</t>
+          <t>05/11/2023 14:12</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>2.54</v>
+        <v>2.69</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>12/11/2023 11:21</t>
+          <t>12/11/2023 11:01</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.41</v>
+        <v>3.15</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>05/11/2023 11:42</t>
+          <t>05/11/2023 14:12</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.35</v>
+        <v>3.01</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>12/11/2023 11:25</t>
+          <t>12/11/2023 10:41</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>3.31</v>
+        <v>2.65</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>05/11/2023 11:42</t>
+          <t>05/11/2023 14:12</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>2.84</v>
+        <v>2.95</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>12/11/2023 11:25</t>
+          <t>12/11/2023 11:01</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-bandirmaspor/Eq666S9G/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/boluspor-sakaryaspor/IcM3n7Ip/</t>
         </is>
       </c>
     </row>
@@ -10233,71 +10233,71 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Bandirmaspor</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
         <v>2</v>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Sakaryaspor</t>
-        </is>
-      </c>
-      <c r="I107" t="n">
-        <v>3</v>
-      </c>
       <c r="J107" t="n">
-        <v>2.79</v>
+        <v>2.18</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>05/11/2023 14:12</t>
+          <t>05/11/2023 11:42</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.69</v>
+        <v>2.54</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>12/11/2023 11:01</t>
+          <t>12/11/2023 11:21</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.15</v>
+        <v>3.41</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>05/11/2023 14:12</t>
+          <t>05/11/2023 11:42</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.01</v>
+        <v>3.35</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>12/11/2023 10:41</t>
+          <t>12/11/2023 11:25</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>2.65</v>
+        <v>3.31</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>05/11/2023 14:12</t>
+          <t>05/11/2023 11:42</t>
         </is>
       </c>
       <c r="T107" t="n">
-        <v>2.95</v>
+        <v>2.84</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>12/11/2023 11:01</t>
+          <t>12/11/2023 11:25</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/boluspor-sakaryaspor/IcM3n7Ip/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-bandirmaspor/Eq666S9G/</t>
         </is>
       </c>
     </row>
@@ -11494,6 +11494,282 @@
       <c r="V120" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/1-lig/kocaelispor-umraniyespor/GWlLrpZ6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45262.47916666666</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Keciorengucu</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>1</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Sakaryaspor</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>3</v>
+      </c>
+      <c r="J121" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>27/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>02/12/2023 11:21</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>27/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P121" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>02/12/2023 11:21</t>
+        </is>
+      </c>
+      <c r="R121" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>27/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T121" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>02/12/2023 11:21</t>
+        </is>
+      </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/keciorengucu-sakaryaspor/Y7aGqQJ0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45262.47916666666</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Tuzlaspor</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>1</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Bandirmaspor</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>02/12/2023 11:25</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P122" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>02/12/2023 11:25</t>
+        </is>
+      </c>
+      <c r="R122" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T122" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>02/12/2023 11:25</t>
+        </is>
+      </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-bandirmaspor/fNmPs4lD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45262.58333333334</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Boluspor</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Eyupspor</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>3</v>
+      </c>
+      <c r="J123" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:13</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>02/12/2023 13:55</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:13</t>
+        </is>
+      </c>
+      <c r="P123" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>02/12/2023 13:55</t>
+        </is>
+      </c>
+      <c r="R123" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:13</t>
+        </is>
+      </c>
+      <c r="T123" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>02/12/2023 13:55</t>
+        </is>
+      </c>
+      <c r="V123" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/boluspor-eyupspor/K4eCp64f/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_1-lig_2023-2024.xlsx
+++ b/2023/turkey_1-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V123"/>
+  <dimension ref="A1:V124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11773,6 +11773,98 @@
         </is>
       </c>
     </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45262.70833333334</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Sanliurfaspor</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Bodrumspor</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>2</v>
+      </c>
+      <c r="J124" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>5</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>02/12/2023 16:09</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P124" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>02/12/2023 16:09</t>
+        </is>
+      </c>
+      <c r="R124" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T124" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>02/12/2023 16:09</t>
+        </is>
+      </c>
+      <c r="V124" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/sanliurfaspor-bodrumspor/Qsd8onkl/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/turkey_1-lig_2023-2024.xlsx
+++ b/2023/turkey_1-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V124"/>
+  <dimension ref="A1:V138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tuzlaspor</t>
+          <t>Genclerbirligi</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Corum</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>2.16</v>
+        <v>2.34</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.7</v>
+        <v>2.93</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>13/08/2023 15:54</t>
+          <t>13/08/2023 15:52</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.19</v>
+        <v>3.26</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.24</v>
+        <v>3.38</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>13/08/2023 15:54</t>
+          <t>13/08/2023 15:52</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>3.4</v>
+        <v>2.97</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.74</v>
+        <v>2.46</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>13/08/2023 15:54</t>
+          <t>13/08/2023 15:52</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-corum-fk/GfFXhfNQ/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/genclerbirligi-umraniyespor/pAqYXho1/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Genclerbirligi</t>
+          <t>Tuzlaspor</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Corum</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>2.34</v>
+        <v>2.16</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.93</v>
+        <v>2.7</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>13/08/2023 15:52</t>
+          <t>13/08/2023 15:54</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.26</v>
+        <v>3.19</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.38</v>
+        <v>3.24</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>13/08/2023 15:52</t>
+          <t>13/08/2023 15:54</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.97</v>
+        <v>3.4</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2.46</v>
+        <v>2.74</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>13/08/2023 15:52</t>
+          <t>13/08/2023 15:54</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/genclerbirligi-umraniyespor/pAqYXho1/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-corum-fk/GfFXhfNQ/</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,14 +1777,14 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Keciorengucu</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.86</v>
+        <v>1.97</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,48 +1792,48 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>20/08/2023 15:53</t>
+          <t>20/08/2023 15:54</t>
         </is>
       </c>
       <c r="N15" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>13/08/2023 16:13</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>20/08/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
         <v>3.66</v>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>13/08/2023 16:13</t>
         </is>
       </c>
-      <c r="P15" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>20/08/2023 15:53</t>
-        </is>
-      </c>
-      <c r="R15" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>13/08/2023 16:13</t>
-        </is>
-      </c>
       <c r="T15" t="n">
-        <v>4.79</v>
+        <v>4.27</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>20/08/2023 15:53</t>
+          <t>20/08/2023 15:54</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/bandirmaspor-boluspor/zLm1jMIP/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-keciorengucu/lSTypKeg/</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Bandirmaspor</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,14 +1869,14 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Keciorengucu</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.97</v>
+        <v>1.86</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>20/08/2023 15:54</t>
+          <t>20/08/2023 15:53</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.63</v>
+        <v>3.66</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.58</v>
+        <v>3.82</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>20/08/2023 15:59</t>
+          <t>20/08/2023 15:53</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.66</v>
+        <v>4.06</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>4.27</v>
+        <v>4.79</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>20/08/2023 15:54</t>
+          <t>20/08/2023 15:53</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-keciorengucu/lSTypKeg/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/bandirmaspor-boluspor/zLm1jMIP/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Kocaelispor</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Corum</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.24</v>
+        <v>1.79</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.45</v>
+        <v>1.78</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>16/09/2023 17:52</t>
+          <t>16/09/2023 17:42</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.47</v>
+        <v>3.56</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.43</v>
+        <v>3.7</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>16/09/2023 17:52</t>
+          <t>16/09/2023 17:42</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.97</v>
+        <v>4.57</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>2.9</v>
+        <v>4.65</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>16/09/2023 17:52</t>
+          <t>16/09/2023 17:42</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/umraniyespor-corum-fk/OMe6e80M/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/kocaelispor-boluspor/f5nxjnOq/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Kocaelispor</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Corum</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J41" t="n">
-        <v>1.79</v>
+        <v>2.24</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.78</v>
+        <v>2.45</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>16/09/2023 17:42</t>
+          <t>16/09/2023 17:52</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.56</v>
+        <v>3.47</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.7</v>
+        <v>3.43</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>16/09/2023 17:42</t>
+          <t>16/09/2023 17:52</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>4.57</v>
+        <v>2.97</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>4.65</v>
+        <v>2.9</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>16/09/2023 17:42</t>
+          <t>16/09/2023 17:52</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/kocaelispor-boluspor/f5nxjnOq/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/umraniyespor-corum-fk/OMe6e80M/</t>
         </is>
       </c>
     </row>
@@ -4989,71 +4989,71 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Corum</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Goztepe</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
         <v>1</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Sakaryaspor</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
       <c r="J50" t="n">
-        <v>2.01</v>
+        <v>2.07</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 18:13</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.97</v>
+        <v>2.28</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>23/09/2023 17:59</t>
+          <t>23/09/2023 10:33</t>
         </is>
       </c>
       <c r="N50" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>17/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>23/09/2023 10:33</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
         <v>3.45</v>
       </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>19/09/2023 16:13</t>
-        </is>
-      </c>
-      <c r="P50" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>23/09/2023 17:59</t>
-        </is>
-      </c>
-      <c r="R50" t="n">
-        <v>3.73</v>
-      </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 18:13</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>4.08</v>
+        <v>3.26</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>23/09/2023 17:59</t>
+          <t>23/09/2023 10:33</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/corum-fk-sakaryaspor/2ov835hq/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-goztepe/j7K2PnF2/</t>
         </is>
       </c>
     </row>
@@ -5081,71 +5081,71 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Corum</t>
         </is>
       </c>
       <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Sakaryaspor</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Goztepe</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
       <c r="J51" t="n">
-        <v>2.07</v>
+        <v>2.01</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>17/09/2023 18:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.28</v>
+        <v>1.97</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>23/09/2023 10:33</t>
+          <t>23/09/2023 17:59</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.34</v>
+        <v>3.45</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>17/09/2023 18:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>23/09/2023 10:33</t>
+          <t>23/09/2023 17:59</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.45</v>
+        <v>3.73</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>17/09/2023 18:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>3.26</v>
+        <v>4.08</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>23/09/2023 10:33</t>
+          <t>23/09/2023 17:59</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-goztepe/j7K2PnF2/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/corum-fk-sakaryaspor/2ov835hq/</t>
         </is>
       </c>
     </row>
@@ -5265,30 +5265,30 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Sanliurfaspor</t>
+          <t>Adanaspor AS</t>
         </is>
       </c>
       <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Erzurumspor</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Kocaelispor</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>2</v>
-      </c>
       <c r="J53" t="n">
-        <v>2.31</v>
+        <v>2.05</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 18:13</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.76</v>
+        <v>2.64</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -5296,40 +5296,40 @@
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.29</v>
+        <v>3.43</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 18:13</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.45</v>
+        <v>3.28</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
+          <t>24/09/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>17/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T53" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
           <t>24/09/2023 17:57</t>
         </is>
       </c>
-      <c r="R53" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>19/09/2023 16:13</t>
-        </is>
-      </c>
-      <c r="T53" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>24/09/2023 16:28</t>
-        </is>
-      </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/sanliurfaspor-kocaelispor/lvbX97FF/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/adanaspor-as-erzurumspor-fk/AmaTAm09/</t>
         </is>
       </c>
     </row>
@@ -5357,30 +5357,30 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Adanaspor AS</t>
+          <t>Sanliurfaspor</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Erzurumspor</t>
+          <t>Kocaelispor</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>2.05</v>
+        <v>2.31</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>17/09/2023 18:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.64</v>
+        <v>2.76</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -5388,40 +5388,40 @@
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.43</v>
+        <v>3.29</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>17/09/2023 18:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.28</v>
+        <v>3.45</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>24/09/2023 17:59</t>
+          <t>24/09/2023 17:57</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>3.61</v>
+        <v>3.15</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>17/09/2023 18:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.78</v>
+        <v>2.55</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>24/09/2023 17:57</t>
+          <t>24/09/2023 16:28</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/adanaspor-as-erzurumspor-fk/AmaTAm09/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/sanliurfaspor-kocaelispor/lvbX97FF/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Bodrumspor</t>
+          <t>Erzurumspor</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Corum</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>1.84</v>
+        <v>2.46</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>28/09/2023 03:13</t>
+          <t>24/09/2023 17:13</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.83</v>
+        <v>2.62</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>01/10/2023 12:28</t>
+          <t>01/10/2023 12:03</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.63</v>
+        <v>3.24</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>28/09/2023 03:13</t>
+          <t>24/09/2023 17:13</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>01/10/2023 12:28</t>
+          <t>01/10/2023 12:23</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>4.22</v>
+        <v>2.95</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>28/09/2023 03:13</t>
+          <t>24/09/2023 17:13</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>4.72</v>
+        <v>2.82</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>01/10/2023 12:28</t>
+          <t>01/10/2023 12:23</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/bodrumspor-corum-fk/hWGJL4ER/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/erzurumspor-fk-boluspor/256gF2ie/</t>
         </is>
       </c>
     </row>
@@ -6001,71 +6001,71 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Erzurumspor</t>
+          <t>Bodrumspor</t>
         </is>
       </c>
       <c r="G61" t="n">
+        <v>2</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Corum</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
         <v>1</v>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Boluspor</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
       <c r="J61" t="n">
-        <v>2.46</v>
+        <v>1.84</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>24/09/2023 17:13</t>
+          <t>28/09/2023 03:13</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.62</v>
+        <v>1.83</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>01/10/2023 12:03</t>
+          <t>01/10/2023 12:28</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.24</v>
+        <v>3.63</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>24/09/2023 17:13</t>
+          <t>28/09/2023 03:13</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>01/10/2023 12:23</t>
+          <t>01/10/2023 12:28</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>2.95</v>
+        <v>4.22</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>24/09/2023 17:13</t>
+          <t>28/09/2023 03:13</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>2.82</v>
+        <v>4.72</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>01/10/2023 12:23</t>
+          <t>01/10/2023 12:28</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/erzurumspor-fk-boluspor/256gF2ie/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/bodrumspor-corum-fk/hWGJL4ER/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Keciorengucu</t>
+          <t>Tuzlaspor</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,63 +8125,63 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Goztepe</t>
+          <t>Erzurumspor</t>
         </is>
       </c>
       <c r="I84" t="n">
         <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>2.56</v>
+        <v>2.42</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>21/10/2023 18:13</t>
+          <t>21/10/2023 12:42</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>3.25</v>
+        <v>2.46</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>28/10/2023 12:21</t>
+          <t>28/10/2023 12:28</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.18</v>
+        <v>3.07</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>21/10/2023 18:13</t>
+          <t>21/10/2023 12:42</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.11</v>
+        <v>3.16</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>28/10/2023 12:21</t>
+          <t>28/10/2023 12:28</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.87</v>
+        <v>3.01</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>21/10/2023 18:13</t>
+          <t>21/10/2023 12:42</t>
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.41</v>
+        <v>3.12</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>28/10/2023 12:21</t>
+          <t>28/10/2023 12:28</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/keciorengucu-goztepe/ziQUqEdn/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-erzurumspor-fk/d6EwrhRb/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Tuzlaspor</t>
+          <t>Keciorengucu</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,63 +8217,63 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Erzurumspor</t>
+          <t>Goztepe</t>
         </is>
       </c>
       <c r="I85" t="n">
         <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>2.42</v>
+        <v>2.56</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>21/10/2023 12:42</t>
+          <t>21/10/2023 18:13</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.46</v>
+        <v>3.25</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>28/10/2023 12:28</t>
+          <t>28/10/2023 12:21</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.07</v>
+        <v>3.18</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>21/10/2023 12:42</t>
+          <t>21/10/2023 18:13</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.16</v>
+        <v>3.11</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>28/10/2023 12:28</t>
+          <t>28/10/2023 12:21</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>3.01</v>
+        <v>2.87</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>21/10/2023 12:42</t>
+          <t>21/10/2023 18:13</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>3.12</v>
+        <v>2.41</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>28/10/2023 12:28</t>
+          <t>28/10/2023 12:21</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-erzurumspor-fk/d6EwrhRb/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/keciorengucu-goztepe/ziQUqEdn/</t>
         </is>
       </c>
     </row>
@@ -8577,7 +8577,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Adanaspor AS</t>
+          <t>Altay</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -8585,22 +8585,22 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Sakaryaspor</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89" t="n">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>26/10/2023 15:12</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>3.46</v>
+        <v>4.56</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
@@ -8608,15 +8608,15 @@
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.24</v>
+        <v>3.32</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>26/10/2023 15:12</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.39</v>
+        <v>3.66</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -8624,15 +8624,15 @@
         </is>
       </c>
       <c r="R89" t="n">
-        <v>2.83</v>
+        <v>2.45</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>26/10/2023 15:12</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>2.17</v>
+        <v>1.8</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/adanaspor-as-umraniyespor/6ynHQjdO/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/altay-sakaryaspor/4WHotWeB/</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Altay</t>
+          <t>Adanaspor AS</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -8677,22 +8677,22 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Sakaryaspor</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>26/10/2023 15:12</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>4.56</v>
+        <v>3.46</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
@@ -8700,15 +8700,15 @@
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.32</v>
+        <v>3.24</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>26/10/2023 15:12</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.66</v>
+        <v>3.39</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -8716,15 +8716,15 @@
         </is>
       </c>
       <c r="R90" t="n">
-        <v>2.45</v>
+        <v>2.83</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>26/10/2023 15:12</t>
         </is>
       </c>
       <c r="T90" t="n">
-        <v>1.8</v>
+        <v>2.17</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/altay-sakaryaspor/4WHotWeB/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/adanaspor-as-umraniyespor/6ynHQjdO/</t>
         </is>
       </c>
     </row>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Bodrumspor</t>
         </is>
       </c>
       <c r="G111" t="n">
@@ -10609,14 +10609,14 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Sanliurfaspor</t>
+          <t>Adanaspor AS</t>
         </is>
       </c>
       <c r="I111" t="n">
         <v>1</v>
       </c>
       <c r="J111" t="n">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -10624,15 +10624,15 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>1.3</v>
+        <v>1.43</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>25/11/2023 11:13</t>
+          <t>25/11/2023 11:25</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>4.05</v>
+        <v>4.42</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -10640,15 +10640,15 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>5.49</v>
+        <v>4.53</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>25/11/2023 11:20</t>
+          <t>25/11/2023 11:29</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>5.6</v>
+        <v>6.43</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
@@ -10656,16 +10656,16 @@
         </is>
       </c>
       <c r="T111" t="n">
-        <v>9.880000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>25/11/2023 11:20</t>
+          <t>25/11/2023 11:29</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/bandirmaspor-sanliurfaspor/d6jXgAs8/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/bodrumspor-adanaspor-as/EsRnnbO1/</t>
         </is>
       </c>
     </row>
@@ -10693,7 +10693,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Bodrumspor</t>
+          <t>Bandirmaspor</t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -10701,14 +10701,14 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Adanaspor AS</t>
+          <t>Sanliurfaspor</t>
         </is>
       </c>
       <c r="I112" t="n">
         <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,15 +10716,15 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>25/11/2023 11:25</t>
+          <t>25/11/2023 11:13</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>4.42</v>
+        <v>4.05</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -10732,15 +10732,15 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>4.53</v>
+        <v>5.49</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>25/11/2023 11:29</t>
+          <t>25/11/2023 11:20</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>6.43</v>
+        <v>5.6</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
@@ -10748,16 +10748,16 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>7.5</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>25/11/2023 11:29</t>
+          <t>25/11/2023 11:20</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/bodrumspor-adanaspor-as/EsRnnbO1/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/bandirmaspor-sanliurfaspor/d6jXgAs8/</t>
         </is>
       </c>
     </row>
@@ -11521,7 +11521,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Keciorengucu</t>
+          <t>Tuzlaspor</t>
         </is>
       </c>
       <c r="G121" t="n">
@@ -11529,63 +11529,63 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Sakaryaspor</t>
+          <t>Bandirmaspor</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J121" t="n">
-        <v>3.77</v>
+        <v>3.95</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>27/11/2023 18:12</t>
+          <t>26/11/2023 17:12</t>
         </is>
       </c>
       <c r="L121" t="n">
-        <v>2.74</v>
+        <v>4.81</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>02/12/2023 11:21</t>
+          <t>02/12/2023 11:25</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>3.54</v>
+        <v>3.62</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>27/11/2023 18:12</t>
+          <t>26/11/2023 17:12</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>3.31</v>
+        <v>3.75</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>02/12/2023 11:21</t>
+          <t>02/12/2023 11:25</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>27/11/2023 18:12</t>
+          <t>26/11/2023 17:12</t>
         </is>
       </c>
       <c r="T121" t="n">
-        <v>2.65</v>
+        <v>1.75</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>02/12/2023 11:21</t>
+          <t>02/12/2023 11:25</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/keciorengucu-sakaryaspor/Y7aGqQJ0/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-bandirmaspor/fNmPs4lD/</t>
         </is>
       </c>
     </row>
@@ -11613,7 +11613,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Tuzlaspor</t>
+          <t>Keciorengucu</t>
         </is>
       </c>
       <c r="G122" t="n">
@@ -11621,63 +11621,63 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Sakaryaspor</t>
         </is>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J122" t="n">
-        <v>3.95</v>
+        <v>3.77</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>26/11/2023 17:12</t>
+          <t>27/11/2023 18:12</t>
         </is>
       </c>
       <c r="L122" t="n">
-        <v>4.81</v>
+        <v>2.74</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>02/12/2023 11:25</t>
+          <t>02/12/2023 11:21</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>3.62</v>
+        <v>3.54</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>26/11/2023 17:12</t>
+          <t>27/11/2023 18:12</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>3.75</v>
+        <v>3.31</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>02/12/2023 11:25</t>
+          <t>02/12/2023 11:21</t>
         </is>
       </c>
       <c r="R122" t="n">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="S122" t="inlineStr">
         <is>
-          <t>26/11/2023 17:12</t>
+          <t>27/11/2023 18:12</t>
         </is>
       </c>
       <c r="T122" t="n">
-        <v>1.75</v>
+        <v>2.65</v>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>02/12/2023 11:25</t>
+          <t>02/12/2023 11:21</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-bandirmaspor/fNmPs4lD/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/keciorengucu-sakaryaspor/Y7aGqQJ0/</t>
         </is>
       </c>
     </row>
@@ -11862,6 +11862,1294 @@
       <c r="V124" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/1-lig/sanliurfaspor-bodrumspor/Qsd8onkl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45263.47916666666</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Manisa FK</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>3</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Altay</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:13</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:22</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:13</t>
+        </is>
+      </c>
+      <c r="P125" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:23</t>
+        </is>
+      </c>
+      <c r="R125" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:13</t>
+        </is>
+      </c>
+      <c r="T125" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:23</t>
+        </is>
+      </c>
+      <c r="V125" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-altay/4hVF4ReQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45263.58333333334</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Erzurumspor</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>1</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Genclerbirligi</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>27/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:59</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>27/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P126" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:57</t>
+        </is>
+      </c>
+      <c r="R126" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>27/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T126" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:59</t>
+        </is>
+      </c>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/erzurumspor-fk-genclerbirligi/rws76mRD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45263.70833333334</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Goztepe</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>3</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Giresunspor</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:55</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P127" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:55</t>
+        </is>
+      </c>
+      <c r="R127" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T127" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:55</t>
+        </is>
+      </c>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/goztepe-giresunspor/MTuB57tK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45269.47916666666</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Bandirmaspor</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Kocaelispor</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>3</v>
+      </c>
+      <c r="J128" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>09/12/2023 11:25</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P128" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>09/12/2023 11:25</t>
+        </is>
+      </c>
+      <c r="R128" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T128" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>09/12/2023 11:25</t>
+        </is>
+      </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/bandirmaspor-kocaelispor/lbS1eNIC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45269.47916666666</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Bodrumspor</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>1</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Tuzlaspor</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>09/12/2023 11:26</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P129" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>09/12/2023 11:29</t>
+        </is>
+      </c>
+      <c r="R129" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T129" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>09/12/2023 11:29</t>
+        </is>
+      </c>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/bodrumspor-tuzlaspor/GpUgcql0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45269.58333333334</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Umraniyespor</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>2</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Keciorengucu</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>09/12/2023 13:57</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P130" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>09/12/2023 13:58</t>
+        </is>
+      </c>
+      <c r="R130" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T130" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>09/12/2023 13:58</t>
+        </is>
+      </c>
+      <c r="V130" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/umraniyespor-keciorengucu/b9ZlbPYg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45269.70833333334</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Sakaryaspor</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>3</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Giresunspor</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>09/12/2023 16:49</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P131" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>09/12/2023 16:56</t>
+        </is>
+      </c>
+      <c r="R131" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T131" t="n">
+        <v>10.16</v>
+      </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>09/12/2023 16:56</t>
+        </is>
+      </c>
+      <c r="V131" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/sakaryaspor-giresunspor/KIzoa5Jm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45270.47916666666</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Corum</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>4</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Erzurumspor</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>10/12/2023 08:28</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:07</t>
+        </is>
+      </c>
+      <c r="R132" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T132" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:07</t>
+        </is>
+      </c>
+      <c r="V132" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/corum-fk-erzurumspor-fk/fyTcd336/</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45270.47916666666</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Manisa FK</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>1</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Adanaspor AS</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:19</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P133" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:25</t>
+        </is>
+      </c>
+      <c r="R133" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T133" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:25</t>
+        </is>
+      </c>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-adanaspor-as/rc9hIpQP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45270.58333333334</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Genclerbirligi</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Goztepe</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>3</v>
+      </c>
+      <c r="J134" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>03/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:58</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>03/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P134" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:58</t>
+        </is>
+      </c>
+      <c r="R134" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>03/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T134" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:51</t>
+        </is>
+      </c>
+      <c r="V134" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/genclerbirligi-goztepe/Qeys0o4s/</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45270.70833333334</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Eyupspor</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>4</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Sanliurfaspor</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>03/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:02</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>03/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P135" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:33</t>
+        </is>
+      </c>
+      <c r="R135" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>03/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T135" t="n">
+        <v>17.71</v>
+      </c>
+      <c r="U135" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:33</t>
+        </is>
+      </c>
+      <c r="V135" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/eyupspor-sanliurfaspor/21W5fsYI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45271.75</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Altay</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Boluspor</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>04/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>11/12/2023 17:56</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>04/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P136" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>11/12/2023 17:56</t>
+        </is>
+      </c>
+      <c r="R136" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>04/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T136" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>11/12/2023 17:56</t>
+        </is>
+      </c>
+      <c r="V136" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/altay-boluspor/46AlJQAJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45279.5</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Tuzlaspor</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>1</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Sakaryaspor</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>3</v>
+      </c>
+      <c r="J137" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:43</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>19/12/2023 11:59</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:43</t>
+        </is>
+      </c>
+      <c r="P137" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>19/12/2023 11:59</t>
+        </is>
+      </c>
+      <c r="R137" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:43</t>
+        </is>
+      </c>
+      <c r="T137" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>19/12/2023 11:59</t>
+        </is>
+      </c>
+      <c r="V137" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-sakaryaspor/MBnu9tmC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45279.625</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Giresunspor</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Genclerbirligi</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>19/12/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P138" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>19/12/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R138" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T138" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>19/12/2023 14:57</t>
+        </is>
+      </c>
+      <c r="V138" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/giresunspor-genclerbirligi/WtUVV3fP/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_1-lig_2023-2024.xlsx
+++ b/2023/turkey_1-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V138"/>
+  <dimension ref="A1:V139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13153,6 +13153,98 @@
         </is>
       </c>
     </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45279.75</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Kocaelispor</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>1</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Bodrumspor</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>19/12/2023 17:57</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P139" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>19/12/2023 17:57</t>
+        </is>
+      </c>
+      <c r="R139" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T139" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>19/12/2023 17:57</t>
+        </is>
+      </c>
+      <c r="V139" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/kocaelispor-bodrumspor/rLmyAMX5/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/turkey_1-lig_2023-2024.xlsx
+++ b/2023/turkey_1-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V139"/>
+  <dimension ref="A1:V142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tuzlaspor</t>
+          <t>Genclerbirligi</t>
         </is>
       </c>
       <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Bodrumspor</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Eyupspor</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
-        <v>5</v>
-      </c>
       <c r="J21" t="n">
-        <v>5.19</v>
+        <v>2.87</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>21/08/2023 20:12</t>
+          <t>20/08/2023 18:42</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>7.03</v>
+        <v>3.29</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>26/08/2023 15:59</t>
+          <t>26/08/2023 15:52</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>4</v>
+        <v>3.22</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>21/08/2023 20:12</t>
+          <t>20/08/2023 18:42</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>4.25</v>
+        <v>3.18</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>26/08/2023 15:59</t>
+          <t>26/08/2023 15:52</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>1.57</v>
+        <v>2.53</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>21/08/2023 20:12</t>
+          <t>20/08/2023 18:42</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>1.49</v>
+        <v>2.34</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>26/08/2023 15:59</t>
+          <t>26/08/2023 15:52</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-eyupspor/SUj3mg2o/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/genclerbirligi-bodrumspor/nDnuqvBa/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Genclerbirligi</t>
+          <t>Tuzlaspor</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Bodrumspor</t>
+          <t>Eyupspor</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J22" t="n">
-        <v>2.87</v>
+        <v>5.19</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>20/08/2023 18:42</t>
+          <t>21/08/2023 20:12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3.29</v>
+        <v>7.03</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>26/08/2023 15:52</t>
+          <t>26/08/2023 15:59</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.22</v>
+        <v>4</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>20/08/2023 18:42</t>
+          <t>21/08/2023 20:12</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.18</v>
+        <v>4.25</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>26/08/2023 15:52</t>
+          <t>26/08/2023 15:59</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.53</v>
+        <v>1.57</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>20/08/2023 18:42</t>
+          <t>21/08/2023 20:12</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.34</v>
+        <v>1.49</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>26/08/2023 15:52</t>
+          <t>26/08/2023 15:59</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/genclerbirligi-bodrumspor/nDnuqvBa/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-eyupspor/SUj3mg2o/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Keciorengucu</t>
+          <t>Tuzlaspor</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2.78</v>
+        <v>1.53</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>27/08/2023 18:42</t>
+          <t>26/08/2023 18:13</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.43</v>
+        <v>1.47</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>02/09/2023 18:13</t>
+          <t>02/09/2023 18:08</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.3</v>
+        <v>4.28</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>27/08/2023 18:42</t>
+          <t>26/08/2023 18:13</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>02/09/2023 18:07</t>
+          <t>02/09/2023 18:08</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.56</v>
+        <v>5.83</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>27/08/2023 18:42</t>
+          <t>26/08/2023 18:13</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.01</v>
+        <v>6.82</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>02/09/2023 18:13</t>
+          <t>02/09/2023 18:08</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/boluspor-keciorengucu/WSWSskWM/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-tuzlaspor/jX3gbAG3/</t>
         </is>
       </c>
     </row>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Tuzlaspor</t>
+          <t>Keciorengucu</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1.53</v>
+        <v>2.78</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>26/08/2023 18:13</t>
+          <t>27/08/2023 18:42</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.47</v>
+        <v>2.43</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>02/09/2023 18:08</t>
+          <t>02/09/2023 18:13</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>4.28</v>
+        <v>3.3</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>26/08/2023 18:13</t>
+          <t>27/08/2023 18:42</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>4.5</v>
+        <v>3.33</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>02/09/2023 18:08</t>
+          <t>02/09/2023 18:07</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>5.83</v>
+        <v>2.56</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>26/08/2023 18:13</t>
+          <t>27/08/2023 18:42</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>6.82</v>
+        <v>3.01</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>02/09/2023 18:08</t>
+          <t>02/09/2023 18:13</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-tuzlaspor/jX3gbAG3/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/boluspor-keciorengucu/WSWSskWM/</t>
         </is>
       </c>
     </row>
@@ -6921,71 +6921,71 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Adanaspor AS</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Giresunspor</t>
+          <t>Goztepe</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>2</v>
       </c>
       <c r="J71" t="n">
-        <v>1.99</v>
+        <v>2.83</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>04/10/2023 04:43</t>
+          <t>02/10/2023 18:12</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.18</v>
+        <v>3</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>08/10/2023 14:55</t>
+          <t>08/10/2023 14:26</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.34</v>
+        <v>3.15</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>04/10/2023 04:43</t>
+          <t>02/10/2023 18:12</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.39</v>
+        <v>3.04</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>08/10/2023 14:55</t>
+          <t>08/10/2023 14:26</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>3.92</v>
+        <v>2.61</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>04/10/2023 04:43</t>
+          <t>02/10/2023 18:12</t>
         </is>
       </c>
       <c r="T71" t="n">
-        <v>3.43</v>
+        <v>2.63</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>08/10/2023 14:55</t>
+          <t>08/10/2023 14:26</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/adanaspor-as-giresunspor/jRrpxQb8/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/boluspor-goztepe/AFeIJHrs/</t>
         </is>
       </c>
     </row>
@@ -7013,71 +7013,71 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Adanaspor AS</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Goztepe</t>
+          <t>Giresunspor</t>
         </is>
       </c>
       <c r="I72" t="n">
         <v>2</v>
       </c>
       <c r="J72" t="n">
-        <v>2.83</v>
+        <v>1.99</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>02/10/2023 18:12</t>
+          <t>04/10/2023 04:43</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>3</v>
+        <v>2.18</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>08/10/2023 14:26</t>
+          <t>08/10/2023 14:55</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.15</v>
+        <v>3.34</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>02/10/2023 18:12</t>
+          <t>04/10/2023 04:43</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.04</v>
+        <v>3.39</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>08/10/2023 14:26</t>
+          <t>08/10/2023 14:55</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>2.61</v>
+        <v>3.92</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>02/10/2023 18:12</t>
+          <t>04/10/2023 04:43</t>
         </is>
       </c>
       <c r="T72" t="n">
-        <v>2.63</v>
+        <v>3.43</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>08/10/2023 14:26</t>
+          <t>08/10/2023 14:55</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/boluspor-goztepe/AFeIJHrs/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/adanaspor-as-giresunspor/jRrpxQb8/</t>
         </is>
       </c>
     </row>
@@ -9221,7 +9221,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Bodrumspor</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -9229,63 +9229,63 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Altay</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>1.53</v>
+        <v>1.95</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>29/10/2023 17:13</t>
+          <t>29/10/2023 11:42</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.33</v>
+        <v>1.97</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>05/11/2023 11:28</t>
+          <t>04/11/2023 20:42</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>4.25</v>
+        <v>3.43</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>29/10/2023 17:13</t>
+          <t>29/10/2023 11:42</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>5.29</v>
+        <v>3.44</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>05/11/2023 11:28</t>
+          <t>04/11/2023 20:42</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>5.78</v>
+        <v>3.98</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>29/10/2023 17:13</t>
+          <t>29/10/2023 11:42</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>9.06</v>
+        <v>4.03</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>05/11/2023 11:28</t>
+          <t>04/11/2023 20:42</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/bandirmaspor-altay/4WwHeBeb/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/bodrumspor-manisa-fk/WIu9cXQo/</t>
         </is>
       </c>
     </row>
@@ -9313,7 +9313,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Bodrumspor</t>
+          <t>Bandirmaspor</t>
         </is>
       </c>
       <c r="G97" t="n">
@@ -9321,63 +9321,63 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Altay</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>1.95</v>
+        <v>1.53</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>29/10/2023 11:42</t>
+          <t>29/10/2023 17:13</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.97</v>
+        <v>1.33</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>04/11/2023 20:42</t>
+          <t>05/11/2023 11:28</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.43</v>
+        <v>4.25</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>29/10/2023 11:42</t>
+          <t>29/10/2023 17:13</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.44</v>
+        <v>5.29</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>04/11/2023 20:42</t>
+          <t>05/11/2023 11:28</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>3.98</v>
+        <v>5.78</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>29/10/2023 11:42</t>
+          <t>29/10/2023 17:13</t>
         </is>
       </c>
       <c r="T97" t="n">
-        <v>4.03</v>
+        <v>9.06</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>04/11/2023 20:42</t>
+          <t>05/11/2023 11:28</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/bodrumspor-manisa-fk/WIu9cXQo/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/bandirmaspor-altay/4WwHeBeb/</t>
         </is>
       </c>
     </row>
@@ -10141,71 +10141,71 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Bandirmaspor</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
         <v>2</v>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Sakaryaspor</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
-        <v>3</v>
-      </c>
       <c r="J106" t="n">
-        <v>2.79</v>
+        <v>2.18</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>05/11/2023 14:12</t>
+          <t>05/11/2023 11:42</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>2.69</v>
+        <v>2.54</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>12/11/2023 11:01</t>
+          <t>12/11/2023 11:21</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.15</v>
+        <v>3.41</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>05/11/2023 14:12</t>
+          <t>05/11/2023 11:42</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.01</v>
+        <v>3.35</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>12/11/2023 10:41</t>
+          <t>12/11/2023 11:25</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>2.65</v>
+        <v>3.31</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>05/11/2023 14:12</t>
+          <t>05/11/2023 11:42</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>2.95</v>
+        <v>2.84</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>12/11/2023 11:01</t>
+          <t>12/11/2023 11:25</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/boluspor-sakaryaspor/IcM3n7Ip/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-bandirmaspor/Eq666S9G/</t>
         </is>
       </c>
     </row>
@@ -10233,71 +10233,71 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Sakaryaspor</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J107" t="n">
-        <v>2.18</v>
+        <v>2.79</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>05/11/2023 11:42</t>
+          <t>05/11/2023 14:12</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.54</v>
+        <v>2.69</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>12/11/2023 11:21</t>
+          <t>12/11/2023 11:01</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.41</v>
+        <v>3.15</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>05/11/2023 11:42</t>
+          <t>05/11/2023 14:12</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.35</v>
+        <v>3.01</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>12/11/2023 11:25</t>
+          <t>12/11/2023 10:41</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>3.31</v>
+        <v>2.65</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>05/11/2023 11:42</t>
+          <t>05/11/2023 14:12</t>
         </is>
       </c>
       <c r="T107" t="n">
-        <v>2.84</v>
+        <v>2.95</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>12/11/2023 11:25</t>
+          <t>12/11/2023 11:01</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-bandirmaspor/Eq666S9G/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/boluspor-sakaryaspor/IcM3n7Ip/</t>
         </is>
       </c>
     </row>
@@ -11521,7 +11521,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Tuzlaspor</t>
+          <t>Keciorengucu</t>
         </is>
       </c>
       <c r="G121" t="n">
@@ -11529,63 +11529,63 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Sakaryaspor</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J121" t="n">
-        <v>3.95</v>
+        <v>3.77</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>26/11/2023 17:12</t>
+          <t>27/11/2023 18:12</t>
         </is>
       </c>
       <c r="L121" t="n">
-        <v>4.81</v>
+        <v>2.74</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>02/12/2023 11:25</t>
+          <t>02/12/2023 11:21</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>3.62</v>
+        <v>3.54</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>26/11/2023 17:12</t>
+          <t>27/11/2023 18:12</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>3.75</v>
+        <v>3.31</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>02/12/2023 11:25</t>
+          <t>02/12/2023 11:21</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>26/11/2023 17:12</t>
+          <t>27/11/2023 18:12</t>
         </is>
       </c>
       <c r="T121" t="n">
-        <v>1.75</v>
+        <v>2.65</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>02/12/2023 11:25</t>
+          <t>02/12/2023 11:21</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-bandirmaspor/fNmPs4lD/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/keciorengucu-sakaryaspor/Y7aGqQJ0/</t>
         </is>
       </c>
     </row>
@@ -11613,7 +11613,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Keciorengucu</t>
+          <t>Tuzlaspor</t>
         </is>
       </c>
       <c r="G122" t="n">
@@ -11621,63 +11621,63 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Sakaryaspor</t>
+          <t>Bandirmaspor</t>
         </is>
       </c>
       <c r="I122" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J122" t="n">
-        <v>3.77</v>
+        <v>3.95</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>27/11/2023 18:12</t>
+          <t>26/11/2023 17:12</t>
         </is>
       </c>
       <c r="L122" t="n">
-        <v>2.74</v>
+        <v>4.81</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>02/12/2023 11:21</t>
+          <t>02/12/2023 11:25</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>3.54</v>
+        <v>3.62</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>27/11/2023 18:12</t>
+          <t>26/11/2023 17:12</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>3.31</v>
+        <v>3.75</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>02/12/2023 11:21</t>
+          <t>02/12/2023 11:25</t>
         </is>
       </c>
       <c r="R122" t="n">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="S122" t="inlineStr">
         <is>
-          <t>27/11/2023 18:12</t>
+          <t>26/11/2023 17:12</t>
         </is>
       </c>
       <c r="T122" t="n">
-        <v>2.65</v>
+        <v>1.75</v>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>02/12/2023 11:21</t>
+          <t>02/12/2023 11:25</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/keciorengucu-sakaryaspor/Y7aGqQJ0/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-bandirmaspor/fNmPs4lD/</t>
         </is>
       </c>
     </row>
@@ -13242,6 +13242,282 @@
       <c r="V139" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/1-lig/kocaelispor-bodrumspor/rLmyAMX5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45280.5</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Erzurumspor</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>1</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Umraniyespor</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:43</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>20/12/2023 11:54</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:43</t>
+        </is>
+      </c>
+      <c r="P140" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>20/12/2023 11:54</t>
+        </is>
+      </c>
+      <c r="R140" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:43</t>
+        </is>
+      </c>
+      <c r="T140" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="U140" t="inlineStr">
+        <is>
+          <t>20/12/2023 11:54</t>
+        </is>
+      </c>
+      <c r="V140" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/erzurumspor-fk-umraniyespor/vmsp802I/</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45280.5</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Keciorengucu</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>1</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Bandirmaspor</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>3</v>
+      </c>
+      <c r="J141" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:43</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>20/12/2023 11:56</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:43</t>
+        </is>
+      </c>
+      <c r="P141" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>20/12/2023 11:56</t>
+        </is>
+      </c>
+      <c r="R141" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:43</t>
+        </is>
+      </c>
+      <c r="T141" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>20/12/2023 11:55</t>
+        </is>
+      </c>
+      <c r="V141" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/keciorengucu-bandirmaspor/lblXA2Ia/</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45280.625</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Adanaspor AS</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Altay</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>11/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>20/12/2023 14:56</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>11/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P142" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>20/12/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R142" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>11/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T142" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>20/12/2023 14:56</t>
+        </is>
+      </c>
+      <c r="V142" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/adanaspor-as-altay/EudKD4Yt/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_1-lig_2023-2024.xlsx
+++ b/2023/turkey_1-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V142"/>
+  <dimension ref="A1:V143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Tuzlaspor</t>
+          <t>Keciorengucu</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,63 +8125,63 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Erzurumspor</t>
+          <t>Goztepe</t>
         </is>
       </c>
       <c r="I84" t="n">
         <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>2.42</v>
+        <v>2.56</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>21/10/2023 12:42</t>
+          <t>21/10/2023 18:13</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.46</v>
+        <v>3.25</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>28/10/2023 12:28</t>
+          <t>28/10/2023 12:21</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.07</v>
+        <v>3.18</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>21/10/2023 12:42</t>
+          <t>21/10/2023 18:13</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.16</v>
+        <v>3.11</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>28/10/2023 12:28</t>
+          <t>28/10/2023 12:21</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>3.01</v>
+        <v>2.87</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>21/10/2023 12:42</t>
+          <t>21/10/2023 18:13</t>
         </is>
       </c>
       <c r="T84" t="n">
-        <v>3.12</v>
+        <v>2.41</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>28/10/2023 12:28</t>
+          <t>28/10/2023 12:21</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-erzurumspor-fk/d6EwrhRb/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/keciorengucu-goztepe/ziQUqEdn/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Keciorengucu</t>
+          <t>Tuzlaspor</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,63 +8217,63 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Goztepe</t>
+          <t>Erzurumspor</t>
         </is>
       </c>
       <c r="I85" t="n">
         <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>2.56</v>
+        <v>2.42</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>21/10/2023 18:13</t>
+          <t>21/10/2023 12:42</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>3.25</v>
+        <v>2.46</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>28/10/2023 12:21</t>
+          <t>28/10/2023 12:28</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.18</v>
+        <v>3.07</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>21/10/2023 18:13</t>
+          <t>21/10/2023 12:42</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.11</v>
+        <v>3.16</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>28/10/2023 12:21</t>
+          <t>28/10/2023 12:28</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.87</v>
+        <v>3.01</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>21/10/2023 18:13</t>
+          <t>21/10/2023 12:42</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.41</v>
+        <v>3.12</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>28/10/2023 12:21</t>
+          <t>28/10/2023 12:28</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/keciorengucu-goztepe/ziQUqEdn/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-erzurumspor-fk/d6EwrhRb/</t>
         </is>
       </c>
     </row>
@@ -9221,7 +9221,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Bodrumspor</t>
+          <t>Bandirmaspor</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -9229,63 +9229,63 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Altay</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>1.95</v>
+        <v>1.53</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>29/10/2023 11:42</t>
+          <t>29/10/2023 17:13</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.97</v>
+        <v>1.33</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>04/11/2023 20:42</t>
+          <t>05/11/2023 11:28</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.43</v>
+        <v>4.25</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>29/10/2023 11:42</t>
+          <t>29/10/2023 17:13</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.44</v>
+        <v>5.29</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>04/11/2023 20:42</t>
+          <t>05/11/2023 11:28</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>3.98</v>
+        <v>5.78</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>29/10/2023 11:42</t>
+          <t>29/10/2023 17:13</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>4.03</v>
+        <v>9.06</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>04/11/2023 20:42</t>
+          <t>05/11/2023 11:28</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/bodrumspor-manisa-fk/WIu9cXQo/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/bandirmaspor-altay/4WwHeBeb/</t>
         </is>
       </c>
     </row>
@@ -9313,7 +9313,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Bodrumspor</t>
         </is>
       </c>
       <c r="G97" t="n">
@@ -9321,63 +9321,63 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Altay</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>1.53</v>
+        <v>1.95</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>29/10/2023 17:13</t>
+          <t>29/10/2023 11:42</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.33</v>
+        <v>1.97</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>05/11/2023 11:28</t>
+          <t>04/11/2023 20:42</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>4.25</v>
+        <v>3.43</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>29/10/2023 17:13</t>
+          <t>29/10/2023 11:42</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>5.29</v>
+        <v>3.44</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>05/11/2023 11:28</t>
+          <t>04/11/2023 20:42</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>5.78</v>
+        <v>3.98</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>29/10/2023 17:13</t>
+          <t>29/10/2023 11:42</t>
         </is>
       </c>
       <c r="T97" t="n">
-        <v>9.06</v>
+        <v>4.03</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>05/11/2023 11:28</t>
+          <t>04/11/2023 20:42</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/bandirmaspor-altay/4WwHeBeb/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/bodrumspor-manisa-fk/WIu9cXQo/</t>
         </is>
       </c>
     </row>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Bodrumspor</t>
+          <t>Bandirmaspor</t>
         </is>
       </c>
       <c r="G111" t="n">
@@ -10609,14 +10609,14 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Adanaspor AS</t>
+          <t>Sanliurfaspor</t>
         </is>
       </c>
       <c r="I111" t="n">
         <v>1</v>
       </c>
       <c r="J111" t="n">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -10624,15 +10624,15 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>25/11/2023 11:25</t>
+          <t>25/11/2023 11:13</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>4.42</v>
+        <v>4.05</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -10640,15 +10640,15 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>4.53</v>
+        <v>5.49</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>25/11/2023 11:29</t>
+          <t>25/11/2023 11:20</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>6.43</v>
+        <v>5.6</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
@@ -10656,16 +10656,16 @@
         </is>
       </c>
       <c r="T111" t="n">
-        <v>7.5</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>25/11/2023 11:29</t>
+          <t>25/11/2023 11:20</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/bodrumspor-adanaspor-as/EsRnnbO1/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/bandirmaspor-sanliurfaspor/d6jXgAs8/</t>
         </is>
       </c>
     </row>
@@ -10693,7 +10693,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Bodrumspor</t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -10701,14 +10701,14 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Sanliurfaspor</t>
+          <t>Adanaspor AS</t>
         </is>
       </c>
       <c r="I112" t="n">
         <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,15 +10716,15 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.3</v>
+        <v>1.43</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>25/11/2023 11:13</t>
+          <t>25/11/2023 11:25</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>4.05</v>
+        <v>4.42</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -10732,15 +10732,15 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>5.49</v>
+        <v>4.53</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>25/11/2023 11:20</t>
+          <t>25/11/2023 11:29</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>5.6</v>
+        <v>6.43</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
@@ -10748,16 +10748,16 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>9.880000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>25/11/2023 11:20</t>
+          <t>25/11/2023 11:29</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/bandirmaspor-sanliurfaspor/d6jXgAs8/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/bodrumspor-adanaspor-as/EsRnnbO1/</t>
         </is>
       </c>
     </row>
@@ -12533,22 +12533,22 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Corum</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Erzurumspor</t>
+          <t>Adanaspor AS</t>
         </is>
       </c>
       <c r="I132" t="n">
         <v>1</v>
       </c>
       <c r="J132" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -12556,15 +12556,15 @@
         </is>
       </c>
       <c r="L132" t="n">
-        <v>1.91</v>
+        <v>1.43</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>10/12/2023 08:28</t>
+          <t>10/12/2023 11:19</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>3.66</v>
+        <v>3.88</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
@@ -12572,15 +12572,15 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>3.41</v>
+        <v>4.63</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>10/12/2023 11:07</t>
+          <t>10/12/2023 11:25</t>
         </is>
       </c>
       <c r="R132" t="n">
-        <v>4.54</v>
+        <v>4.79</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
@@ -12588,16 +12588,16 @@
         </is>
       </c>
       <c r="T132" t="n">
-        <v>4.35</v>
+        <v>7.46</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>10/12/2023 11:07</t>
+          <t>10/12/2023 11:25</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/corum-fk-erzurumspor-fk/fyTcd336/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-adanaspor-as/rc9hIpQP/</t>
         </is>
       </c>
     </row>
@@ -12625,22 +12625,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Corum</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Adanaspor AS</t>
+          <t>Erzurumspor</t>
         </is>
       </c>
       <c r="I133" t="n">
         <v>1</v>
       </c>
       <c r="J133" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,15 +12648,15 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>1.43</v>
+        <v>1.91</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>10/12/2023 11:19</t>
+          <t>10/12/2023 08:28</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>3.88</v>
+        <v>3.66</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -12664,15 +12664,15 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>4.63</v>
+        <v>3.41</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>10/12/2023 11:25</t>
+          <t>10/12/2023 11:07</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>4.79</v>
+        <v>4.54</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
@@ -12680,16 +12680,16 @@
         </is>
       </c>
       <c r="T133" t="n">
-        <v>7.46</v>
+        <v>4.35</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>10/12/2023 11:25</t>
+          <t>10/12/2023 11:07</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-adanaspor-as/rc9hIpQP/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/corum-fk-erzurumspor-fk/fyTcd336/</t>
         </is>
       </c>
     </row>
@@ -13518,6 +13518,98 @@
       <c r="V142" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/1-lig/adanaspor-as-altay/EudKD4Yt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45280.75</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Goztepe</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>5</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Eyupspor</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>20/12/2023 17:57</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P143" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>20/12/2023 17:57</t>
+        </is>
+      </c>
+      <c r="R143" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T143" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>20/12/2023 17:57</t>
+        </is>
+      </c>
+      <c r="V143" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/goztepe-eyupspor/Iwtl7KHO/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_1-lig_2023-2024.xlsx
+++ b/2023/turkey_1-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V143"/>
+  <dimension ref="A1:V145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Bandirmaspor</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,14 +1777,14 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Keciorengucu</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.97</v>
+        <v>1.86</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>20/08/2023 15:54</t>
+          <t>20/08/2023 15:53</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.63</v>
+        <v>3.66</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.58</v>
+        <v>3.82</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>20/08/2023 15:59</t>
+          <t>20/08/2023 15:53</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.66</v>
+        <v>4.06</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>4.27</v>
+        <v>4.79</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>20/08/2023 15:54</t>
+          <t>20/08/2023 15:53</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-keciorengucu/lSTypKeg/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/bandirmaspor-boluspor/zLm1jMIP/</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,14 +1869,14 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Keciorengucu</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.86</v>
+        <v>1.97</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,48 +1884,48 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>20/08/2023 15:53</t>
+          <t>20/08/2023 15:54</t>
         </is>
       </c>
       <c r="N16" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>13/08/2023 16:13</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>20/08/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
         <v>3.66</v>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>13/08/2023 16:13</t>
         </is>
       </c>
-      <c r="P16" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>20/08/2023 15:53</t>
-        </is>
-      </c>
-      <c r="R16" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>13/08/2023 16:13</t>
-        </is>
-      </c>
       <c r="T16" t="n">
-        <v>4.79</v>
+        <v>4.27</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>20/08/2023 15:53</t>
+          <t>20/08/2023 15:54</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/bandirmaspor-boluspor/zLm1jMIP/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-keciorengucu/lSTypKeg/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Genclerbirligi</t>
+          <t>Tuzlaspor</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Bodrumspor</t>
+          <t>Eyupspor</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
-        <v>2.87</v>
+        <v>5.19</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>20/08/2023 18:42</t>
+          <t>21/08/2023 20:12</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>3.29</v>
+        <v>7.03</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>26/08/2023 15:52</t>
+          <t>26/08/2023 15:59</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.22</v>
+        <v>4</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>20/08/2023 18:42</t>
+          <t>21/08/2023 20:12</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.18</v>
+        <v>4.25</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>26/08/2023 15:52</t>
+          <t>26/08/2023 15:59</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.53</v>
+        <v>1.57</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>20/08/2023 18:42</t>
+          <t>21/08/2023 20:12</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.34</v>
+        <v>1.49</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>26/08/2023 15:52</t>
+          <t>26/08/2023 15:59</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/genclerbirligi-bodrumspor/nDnuqvBa/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-eyupspor/SUj3mg2o/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tuzlaspor</t>
+          <t>Genclerbirligi</t>
         </is>
       </c>
       <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Bodrumspor</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Eyupspor</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>5</v>
-      </c>
       <c r="J22" t="n">
-        <v>5.19</v>
+        <v>2.87</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>21/08/2023 20:12</t>
+          <t>20/08/2023 18:42</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>7.03</v>
+        <v>3.29</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>26/08/2023 15:59</t>
+          <t>26/08/2023 15:52</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>4</v>
+        <v>3.22</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>21/08/2023 20:12</t>
+          <t>20/08/2023 18:42</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>4.25</v>
+        <v>3.18</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>26/08/2023 15:59</t>
+          <t>26/08/2023 15:52</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>1.57</v>
+        <v>2.53</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>21/08/2023 20:12</t>
+          <t>20/08/2023 18:42</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>1.49</v>
+        <v>2.34</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>26/08/2023 15:59</t>
+          <t>26/08/2023 15:52</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-eyupspor/SUj3mg2o/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/genclerbirligi-bodrumspor/nDnuqvBa/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Tuzlaspor</t>
+          <t>Keciorengucu</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.53</v>
+        <v>2.78</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>26/08/2023 18:13</t>
+          <t>27/08/2023 18:42</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.47</v>
+        <v>2.43</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>02/09/2023 18:08</t>
+          <t>02/09/2023 18:13</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>4.28</v>
+        <v>3.3</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>26/08/2023 18:13</t>
+          <t>27/08/2023 18:42</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>4.5</v>
+        <v>3.33</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>02/09/2023 18:08</t>
+          <t>02/09/2023 18:07</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>5.83</v>
+        <v>2.56</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>26/08/2023 18:13</t>
+          <t>27/08/2023 18:42</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>6.82</v>
+        <v>3.01</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>02/09/2023 18:08</t>
+          <t>02/09/2023 18:13</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-tuzlaspor/jX3gbAG3/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/boluspor-keciorengucu/WSWSskWM/</t>
         </is>
       </c>
     </row>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Keciorengucu</t>
+          <t>Tuzlaspor</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.78</v>
+        <v>1.53</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>27/08/2023 18:42</t>
+          <t>26/08/2023 18:13</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.43</v>
+        <v>1.47</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>02/09/2023 18:13</t>
+          <t>02/09/2023 18:08</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.3</v>
+        <v>4.28</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>27/08/2023 18:42</t>
+          <t>26/08/2023 18:13</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>02/09/2023 18:07</t>
+          <t>02/09/2023 18:08</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>2.56</v>
+        <v>5.83</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>27/08/2023 18:42</t>
+          <t>26/08/2023 18:13</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>3.01</v>
+        <v>6.82</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>02/09/2023 18:13</t>
+          <t>02/09/2023 18:08</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/boluspor-keciorengucu/WSWSskWM/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-tuzlaspor/jX3gbAG3/</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Sanliurfaspor</t>
+          <t>Altay</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -3709,63 +3709,63 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Erzurumspor</t>
+          <t>Goztepe</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.66</v>
+        <v>2.83</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>31/08/2023 06:42</t>
+          <t>27/08/2023 21:12</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.98</v>
+        <v>3.83</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>03/09/2023 20:33</t>
+          <t>03/09/2023 20:44</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.82</v>
+        <v>3.27</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>31/08/2023 06:42</t>
+          <t>27/08/2023 21:12</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.53</v>
+        <v>3.45</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>03/09/2023 20:33</t>
+          <t>03/09/2023 20:44</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>5.1</v>
+        <v>2.53</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>31/08/2023 06:42</t>
+          <t>27/08/2023 21:12</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.87</v>
+        <v>2.02</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>03/09/2023 20:33</t>
+          <t>03/09/2023 20:44</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/sanliurfaspor-erzurumspor-fk/l4sOrVGG/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/altay-goztepe/dA4kaj1c/</t>
         </is>
       </c>
     </row>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Altay</t>
+          <t>Sanliurfaspor</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -3801,63 +3801,63 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Goztepe</t>
+          <t>Erzurumspor</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.83</v>
+        <v>1.66</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>27/08/2023 21:12</t>
+          <t>31/08/2023 06:42</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>3.83</v>
+        <v>1.98</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>03/09/2023 20:44</t>
+          <t>03/09/2023 20:33</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.27</v>
+        <v>3.82</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>27/08/2023 21:12</t>
+          <t>31/08/2023 06:42</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.45</v>
+        <v>3.53</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>03/09/2023 20:44</t>
+          <t>03/09/2023 20:33</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>2.53</v>
+        <v>5.1</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>27/08/2023 21:12</t>
+          <t>31/08/2023 06:42</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>2.02</v>
+        <v>3.87</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>03/09/2023 20:44</t>
+          <t>03/09/2023 20:33</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/altay-goztepe/dA4kaj1c/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/sanliurfaspor-erzurumspor-fk/l4sOrVGG/</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Eyupspor</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -4721,63 +4721,63 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Tuzlaspor</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>1.62</v>
+        <v>1.9</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 15:13</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>22/09/2023 18:54</t>
+          <t>22/09/2023 18:53</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.89</v>
+        <v>3.6</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 15:13</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>4.6</v>
+        <v>3.47</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>22/09/2023 18:54</t>
+          <t>22/09/2023 18:53</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>5.42</v>
+        <v>3.97</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 15:13</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>8.289999999999999</v>
+        <v>4.08</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>22/09/2023 18:54</t>
+          <t>22/09/2023 18:53</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/eyupspor-umraniyespor/ABsG1qNe/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/boluspor-tuzlaspor/r1cy9RUL/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Eyupspor</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,63 +4813,63 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Tuzlaspor</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1.9</v>
+        <v>1.62</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>17/09/2023 15:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>22/09/2023 18:53</t>
+          <t>22/09/2023 18:54</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.6</v>
+        <v>3.89</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>17/09/2023 15:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.47</v>
+        <v>4.6</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>22/09/2023 18:53</t>
+          <t>22/09/2023 18:54</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>3.97</v>
+        <v>5.42</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>17/09/2023 15:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>4.08</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>22/09/2023 18:53</t>
+          <t>22/09/2023 18:54</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/boluspor-tuzlaspor/r1cy9RUL/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/eyupspor-umraniyespor/ABsG1qNe/</t>
         </is>
       </c>
     </row>
@@ -4989,71 +4989,71 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Corum</t>
         </is>
       </c>
       <c r="G50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Sakaryaspor</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Goztepe</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
       <c r="J50" t="n">
-        <v>2.07</v>
+        <v>2.01</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>17/09/2023 18:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.28</v>
+        <v>1.97</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>23/09/2023 10:33</t>
+          <t>23/09/2023 17:59</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.34</v>
+        <v>3.45</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>17/09/2023 18:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>23/09/2023 10:33</t>
+          <t>23/09/2023 17:59</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.45</v>
+        <v>3.73</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>17/09/2023 18:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>3.26</v>
+        <v>4.08</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>23/09/2023 10:33</t>
+          <t>23/09/2023 17:59</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-goztepe/j7K2PnF2/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/corum-fk-sakaryaspor/2ov835hq/</t>
         </is>
       </c>
     </row>
@@ -5081,71 +5081,71 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Corum</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Goztepe</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
         <v>1</v>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Sakaryaspor</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
       <c r="J51" t="n">
-        <v>2.01</v>
+        <v>2.07</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 18:13</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.97</v>
+        <v>2.28</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>23/09/2023 17:59</t>
+          <t>23/09/2023 10:33</t>
         </is>
       </c>
       <c r="N51" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>17/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>23/09/2023 10:33</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
         <v>3.45</v>
       </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>19/09/2023 16:13</t>
-        </is>
-      </c>
-      <c r="P51" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>23/09/2023 17:59</t>
-        </is>
-      </c>
-      <c r="R51" t="n">
-        <v>3.73</v>
-      </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 18:13</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>4.08</v>
+        <v>3.26</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>23/09/2023 17:59</t>
+          <t>23/09/2023 10:33</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/corum-fk-sakaryaspor/2ov835hq/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-goztepe/j7K2PnF2/</t>
         </is>
       </c>
     </row>
@@ -6921,71 +6921,71 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Adanaspor AS</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Goztepe</t>
+          <t>Giresunspor</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>2</v>
       </c>
       <c r="J71" t="n">
-        <v>2.83</v>
+        <v>1.99</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>02/10/2023 18:12</t>
+          <t>04/10/2023 04:43</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>3</v>
+        <v>2.18</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>08/10/2023 14:26</t>
+          <t>08/10/2023 14:55</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.15</v>
+        <v>3.34</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>02/10/2023 18:12</t>
+          <t>04/10/2023 04:43</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.04</v>
+        <v>3.39</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>08/10/2023 14:26</t>
+          <t>08/10/2023 14:55</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>2.61</v>
+        <v>3.92</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>02/10/2023 18:12</t>
+          <t>04/10/2023 04:43</t>
         </is>
       </c>
       <c r="T71" t="n">
-        <v>2.63</v>
+        <v>3.43</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>08/10/2023 14:26</t>
+          <t>08/10/2023 14:55</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/boluspor-goztepe/AFeIJHrs/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/adanaspor-as-giresunspor/jRrpxQb8/</t>
         </is>
       </c>
     </row>
@@ -7013,71 +7013,71 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Adanaspor AS</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Giresunspor</t>
+          <t>Goztepe</t>
         </is>
       </c>
       <c r="I72" t="n">
         <v>2</v>
       </c>
       <c r="J72" t="n">
-        <v>1.99</v>
+        <v>2.83</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>04/10/2023 04:43</t>
+          <t>02/10/2023 18:12</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.18</v>
+        <v>3</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>08/10/2023 14:55</t>
+          <t>08/10/2023 14:26</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.34</v>
+        <v>3.15</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>04/10/2023 04:43</t>
+          <t>02/10/2023 18:12</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.39</v>
+        <v>3.04</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>08/10/2023 14:55</t>
+          <t>08/10/2023 14:26</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>3.92</v>
+        <v>2.61</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>04/10/2023 04:43</t>
+          <t>02/10/2023 18:12</t>
         </is>
       </c>
       <c r="T72" t="n">
-        <v>3.43</v>
+        <v>2.63</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>08/10/2023 14:55</t>
+          <t>08/10/2023 14:26</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/adanaspor-as-giresunspor/jRrpxQb8/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/boluspor-goztepe/AFeIJHrs/</t>
         </is>
       </c>
     </row>
@@ -9221,7 +9221,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Bodrumspor</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -9229,63 +9229,63 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Altay</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>1.53</v>
+        <v>1.95</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>29/10/2023 17:13</t>
+          <t>29/10/2023 11:42</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.33</v>
+        <v>1.97</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>05/11/2023 11:28</t>
+          <t>04/11/2023 20:42</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>4.25</v>
+        <v>3.43</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>29/10/2023 17:13</t>
+          <t>29/10/2023 11:42</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>5.29</v>
+        <v>3.44</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>05/11/2023 11:28</t>
+          <t>04/11/2023 20:42</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>5.78</v>
+        <v>3.98</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>29/10/2023 17:13</t>
+          <t>29/10/2023 11:42</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>9.06</v>
+        <v>4.03</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>05/11/2023 11:28</t>
+          <t>04/11/2023 20:42</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/bandirmaspor-altay/4WwHeBeb/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/bodrumspor-manisa-fk/WIu9cXQo/</t>
         </is>
       </c>
     </row>
@@ -9313,7 +9313,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Bodrumspor</t>
+          <t>Bandirmaspor</t>
         </is>
       </c>
       <c r="G97" t="n">
@@ -9321,63 +9321,63 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Altay</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>1.95</v>
+        <v>1.53</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>29/10/2023 11:42</t>
+          <t>29/10/2023 17:13</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.97</v>
+        <v>1.33</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>04/11/2023 20:42</t>
+          <t>05/11/2023 11:28</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.43</v>
+        <v>4.25</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>29/10/2023 11:42</t>
+          <t>29/10/2023 17:13</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.44</v>
+        <v>5.29</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>04/11/2023 20:42</t>
+          <t>05/11/2023 11:28</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>3.98</v>
+        <v>5.78</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>29/10/2023 11:42</t>
+          <t>29/10/2023 17:13</t>
         </is>
       </c>
       <c r="T97" t="n">
-        <v>4.03</v>
+        <v>9.06</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>04/11/2023 20:42</t>
+          <t>05/11/2023 11:28</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/bodrumspor-manisa-fk/WIu9cXQo/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/bandirmaspor-altay/4WwHeBeb/</t>
         </is>
       </c>
     </row>
@@ -10141,71 +10141,71 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Sakaryaspor</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J106" t="n">
-        <v>2.18</v>
+        <v>2.79</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>05/11/2023 11:42</t>
+          <t>05/11/2023 14:12</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>2.54</v>
+        <v>2.69</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>12/11/2023 11:21</t>
+          <t>12/11/2023 11:01</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.41</v>
+        <v>3.15</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>05/11/2023 11:42</t>
+          <t>05/11/2023 14:12</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.35</v>
+        <v>3.01</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>12/11/2023 11:25</t>
+          <t>12/11/2023 10:41</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>3.31</v>
+        <v>2.65</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>05/11/2023 11:42</t>
+          <t>05/11/2023 14:12</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>2.84</v>
+        <v>2.95</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>12/11/2023 11:25</t>
+          <t>12/11/2023 11:01</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-bandirmaspor/Eq666S9G/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/boluspor-sakaryaspor/IcM3n7Ip/</t>
         </is>
       </c>
     </row>
@@ -10233,71 +10233,71 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Bandirmaspor</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
         <v>2</v>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Sakaryaspor</t>
-        </is>
-      </c>
-      <c r="I107" t="n">
-        <v>3</v>
-      </c>
       <c r="J107" t="n">
-        <v>2.79</v>
+        <v>2.18</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>05/11/2023 14:12</t>
+          <t>05/11/2023 11:42</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.69</v>
+        <v>2.54</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>12/11/2023 11:01</t>
+          <t>12/11/2023 11:21</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.15</v>
+        <v>3.41</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>05/11/2023 14:12</t>
+          <t>05/11/2023 11:42</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.01</v>
+        <v>3.35</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>12/11/2023 10:41</t>
+          <t>12/11/2023 11:25</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>2.65</v>
+        <v>3.31</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>05/11/2023 14:12</t>
+          <t>05/11/2023 11:42</t>
         </is>
       </c>
       <c r="T107" t="n">
-        <v>2.95</v>
+        <v>2.84</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>12/11/2023 11:01</t>
+          <t>12/11/2023 11:25</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/boluspor-sakaryaspor/IcM3n7Ip/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-bandirmaspor/Eq666S9G/</t>
         </is>
       </c>
     </row>
@@ -12533,22 +12533,22 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Corum</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Adanaspor AS</t>
+          <t>Erzurumspor</t>
         </is>
       </c>
       <c r="I132" t="n">
         <v>1</v>
       </c>
       <c r="J132" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -12556,15 +12556,15 @@
         </is>
       </c>
       <c r="L132" t="n">
-        <v>1.43</v>
+        <v>1.91</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>10/12/2023 11:19</t>
+          <t>10/12/2023 08:28</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>3.88</v>
+        <v>3.66</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
@@ -12572,15 +12572,15 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>4.63</v>
+        <v>3.41</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>10/12/2023 11:25</t>
+          <t>10/12/2023 11:07</t>
         </is>
       </c>
       <c r="R132" t="n">
-        <v>4.79</v>
+        <v>4.54</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
@@ -12588,16 +12588,16 @@
         </is>
       </c>
       <c r="T132" t="n">
-        <v>7.46</v>
+        <v>4.35</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>10/12/2023 11:25</t>
+          <t>10/12/2023 11:07</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-adanaspor-as/rc9hIpQP/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/corum-fk-erzurumspor-fk/fyTcd336/</t>
         </is>
       </c>
     </row>
@@ -12625,22 +12625,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Corum</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Erzurumspor</t>
+          <t>Adanaspor AS</t>
         </is>
       </c>
       <c r="I133" t="n">
         <v>1</v>
       </c>
       <c r="J133" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,15 +12648,15 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>1.91</v>
+        <v>1.43</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>10/12/2023 08:28</t>
+          <t>10/12/2023 11:19</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>3.66</v>
+        <v>3.88</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -12664,15 +12664,15 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>3.41</v>
+        <v>4.63</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>10/12/2023 11:07</t>
+          <t>10/12/2023 11:25</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>4.54</v>
+        <v>4.79</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
@@ -12680,16 +12680,16 @@
         </is>
       </c>
       <c r="T133" t="n">
-        <v>4.35</v>
+        <v>7.46</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>10/12/2023 11:07</t>
+          <t>10/12/2023 11:25</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/corum-fk-erzurumspor-fk/fyTcd336/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-adanaspor-as/rc9hIpQP/</t>
         </is>
       </c>
     </row>
@@ -13610,6 +13610,190 @@
       <c r="V143" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/1-lig/goztepe-eyupspor/Iwtl7KHO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45281.5</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Boluspor</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>1</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Manisa FK</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>11/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>21/12/2023 11:59</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>11/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P144" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>21/12/2023 11:51</t>
+        </is>
+      </c>
+      <c r="R144" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>11/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T144" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>21/12/2023 11:59</t>
+        </is>
+      </c>
+      <c r="V144" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/boluspor-manisa-fk/zepTBr3g/</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45281.625</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Sanliurfaspor</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>1</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Corum</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>11/12/2023 04:42</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>21/12/2023 14:55</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>11/12/2023 04:42</t>
+        </is>
+      </c>
+      <c r="P145" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>21/12/2023 14:55</t>
+        </is>
+      </c>
+      <c r="R145" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>11/12/2023 04:42</t>
+        </is>
+      </c>
+      <c r="T145" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>21/12/2023 14:55</t>
+        </is>
+      </c>
+      <c r="V145" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/sanliurfaspor-corum-fk/hWfOCOmm/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_1-lig_2023-2024.xlsx
+++ b/2023/turkey_1-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V145"/>
+  <dimension ref="A1:V154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,14 +1777,14 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Keciorengucu</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.86</v>
+        <v>1.97</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,48 +1792,48 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>20/08/2023 15:53</t>
+          <t>20/08/2023 15:54</t>
         </is>
       </c>
       <c r="N15" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>13/08/2023 16:13</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>20/08/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
         <v>3.66</v>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>13/08/2023 16:13</t>
         </is>
       </c>
-      <c r="P15" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>20/08/2023 15:53</t>
-        </is>
-      </c>
-      <c r="R15" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>13/08/2023 16:13</t>
-        </is>
-      </c>
       <c r="T15" t="n">
-        <v>4.79</v>
+        <v>4.27</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>20/08/2023 15:53</t>
+          <t>20/08/2023 15:54</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/bandirmaspor-boluspor/zLm1jMIP/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-keciorengucu/lSTypKeg/</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Bandirmaspor</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,14 +1869,14 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Keciorengucu</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.97</v>
+        <v>1.86</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>20/08/2023 15:54</t>
+          <t>20/08/2023 15:53</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.63</v>
+        <v>3.66</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.58</v>
+        <v>3.82</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>20/08/2023 15:59</t>
+          <t>20/08/2023 15:53</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.66</v>
+        <v>4.06</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>4.27</v>
+        <v>4.79</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>20/08/2023 15:54</t>
+          <t>20/08/2023 15:53</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-keciorengucu/lSTypKeg/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/bandirmaspor-boluspor/zLm1jMIP/</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Altay</t>
+          <t>Sanliurfaspor</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -3709,63 +3709,63 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Goztepe</t>
+          <t>Erzurumspor</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>2.83</v>
+        <v>1.66</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>27/08/2023 21:12</t>
+          <t>31/08/2023 06:42</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>3.83</v>
+        <v>1.98</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>03/09/2023 20:44</t>
+          <t>03/09/2023 20:33</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.27</v>
+        <v>3.82</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>27/08/2023 21:12</t>
+          <t>31/08/2023 06:42</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.45</v>
+        <v>3.53</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>03/09/2023 20:44</t>
+          <t>03/09/2023 20:33</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>2.53</v>
+        <v>5.1</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>27/08/2023 21:12</t>
+          <t>31/08/2023 06:42</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>2.02</v>
+        <v>3.87</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>03/09/2023 20:44</t>
+          <t>03/09/2023 20:33</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/altay-goztepe/dA4kaj1c/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/sanliurfaspor-erzurumspor-fk/l4sOrVGG/</t>
         </is>
       </c>
     </row>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Sanliurfaspor</t>
+          <t>Altay</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -3801,63 +3801,63 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Erzurumspor</t>
+          <t>Goztepe</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1.66</v>
+        <v>2.83</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>31/08/2023 06:42</t>
+          <t>27/08/2023 21:12</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.98</v>
+        <v>3.83</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>03/09/2023 20:33</t>
+          <t>03/09/2023 20:44</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.82</v>
+        <v>3.27</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>31/08/2023 06:42</t>
+          <t>27/08/2023 21:12</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.53</v>
+        <v>3.45</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>03/09/2023 20:33</t>
+          <t>03/09/2023 20:44</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>5.1</v>
+        <v>2.53</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>31/08/2023 06:42</t>
+          <t>27/08/2023 21:12</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>3.87</v>
+        <v>2.02</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>03/09/2023 20:33</t>
+          <t>03/09/2023 20:44</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/sanliurfaspor-erzurumspor-fk/l4sOrVGG/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/altay-goztepe/dA4kaj1c/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Tuzlaspor</t>
+          <t>Giresunspor</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Adanaspor AS</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>2.73</v>
+        <v>3.87</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>10/09/2023 15:12</t>
+          <t>13/09/2023 22:19</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.73</v>
+        <v>4.87</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>17/09/2023 14:57</t>
+          <t>17/09/2023 14:37</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.27</v>
+        <v>3.68</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>10/09/2023 15:12</t>
+          <t>13/09/2023 22:19</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.43</v>
+        <v>4.08</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>17/09/2023 14:53</t>
+          <t>17/09/2023 14:37</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.51</v>
+        <v>1.83</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>10/09/2023 15:12</t>
+          <t>13/09/2023 22:19</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.59</v>
+        <v>1.67</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>17/09/2023 14:57</t>
+          <t>17/09/2023 14:08</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-adanaspor-as/xUysk6wj/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/giresunspor-manisa-fk/rRSWBTp3/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Giresunspor</t>
+          <t>Tuzlaspor</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Adanaspor AS</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>3.87</v>
+        <v>2.73</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>13/09/2023 22:19</t>
+          <t>10/09/2023 15:12</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>4.87</v>
+        <v>2.73</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:37</t>
+          <t>17/09/2023 14:57</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.68</v>
+        <v>3.27</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>13/09/2023 22:19</t>
+          <t>10/09/2023 15:12</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>4.08</v>
+        <v>3.43</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:37</t>
+          <t>17/09/2023 14:53</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>1.83</v>
+        <v>2.51</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>13/09/2023 22:19</t>
+          <t>10/09/2023 15:12</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>1.67</v>
+        <v>2.59</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:08</t>
+          <t>17/09/2023 14:57</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/giresunspor-manisa-fk/rRSWBTp3/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-adanaspor-as/xUysk6wj/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Goztepe</t>
+          <t>Genclerbirligi</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,14 +4445,14 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Eyupspor</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>2.11</v>
+        <v>3.66</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.53</v>
+        <v>4.3</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>17/09/2023 17:53</t>
+          <t>17/09/2023 17:59</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.37</v>
+        <v>3.28</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.19</v>
+        <v>3.26</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>17/09/2023 17:53</t>
+          <t>17/09/2023 17:59</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.53</v>
+        <v>2.1</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.99</v>
+        <v>1.97</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>17/09/2023 17:53</t>
+          <t>17/09/2023 17:59</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/goztepe-bandirmaspor/4zUSC9Vd/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/genclerbirligi-eyupspor/277ccUV9/</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Genclerbirligi</t>
+          <t>Goztepe</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4537,14 +4537,14 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Eyupspor</t>
+          <t>Bandirmaspor</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>3.66</v>
+        <v>2.11</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>4.3</v>
+        <v>2.53</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>17/09/2023 17:59</t>
+          <t>17/09/2023 17:53</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.28</v>
+        <v>3.37</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.26</v>
+        <v>3.19</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>17/09/2023 17:59</t>
+          <t>17/09/2023 17:53</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.1</v>
+        <v>3.53</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>1.97</v>
+        <v>2.99</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>17/09/2023 17:59</t>
+          <t>17/09/2023 17:53</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/genclerbirligi-eyupspor/277ccUV9/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/goztepe-bandirmaspor/4zUSC9Vd/</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Eyupspor</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -4721,63 +4721,63 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Tuzlaspor</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>1.9</v>
+        <v>1.62</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>17/09/2023 15:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>22/09/2023 18:53</t>
+          <t>22/09/2023 18:54</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.6</v>
+        <v>3.89</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>17/09/2023 15:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.47</v>
+        <v>4.6</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>22/09/2023 18:53</t>
+          <t>22/09/2023 18:54</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>3.97</v>
+        <v>5.42</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>17/09/2023 15:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>4.08</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>22/09/2023 18:53</t>
+          <t>22/09/2023 18:54</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/boluspor-tuzlaspor/r1cy9RUL/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/eyupspor-umraniyespor/ABsG1qNe/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Eyupspor</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,63 +4813,63 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Tuzlaspor</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>1.62</v>
+        <v>1.9</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 15:13</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>22/09/2023 18:54</t>
+          <t>22/09/2023 18:53</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.89</v>
+        <v>3.6</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 15:13</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>4.6</v>
+        <v>3.47</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>22/09/2023 18:54</t>
+          <t>22/09/2023 18:53</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>5.42</v>
+        <v>3.97</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 15:13</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>8.289999999999999</v>
+        <v>4.08</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>22/09/2023 18:54</t>
+          <t>22/09/2023 18:53</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/eyupspor-umraniyespor/ABsG1qNe/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/boluspor-tuzlaspor/r1cy9RUL/</t>
         </is>
       </c>
     </row>
@@ -5265,30 +5265,30 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Adanaspor AS</t>
+          <t>Sanliurfaspor</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Erzurumspor</t>
+          <t>Kocaelispor</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53" t="n">
-        <v>2.05</v>
+        <v>2.31</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>17/09/2023 18:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.64</v>
+        <v>2.76</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -5296,40 +5296,40 @@
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.43</v>
+        <v>3.29</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>17/09/2023 18:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.28</v>
+        <v>3.45</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>24/09/2023 17:59</t>
+          <t>24/09/2023 17:57</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>3.61</v>
+        <v>3.15</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>17/09/2023 18:13</t>
+          <t>19/09/2023 16:13</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>2.78</v>
+        <v>2.55</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>24/09/2023 17:57</t>
+          <t>24/09/2023 16:28</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/adanaspor-as-erzurumspor-fk/AmaTAm09/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/sanliurfaspor-kocaelispor/lvbX97FF/</t>
         </is>
       </c>
     </row>
@@ -5357,30 +5357,30 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Sanliurfaspor</t>
+          <t>Adanaspor AS</t>
         </is>
       </c>
       <c r="G54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Erzurumspor</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Kocaelispor</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
-        <v>2</v>
-      </c>
       <c r="J54" t="n">
-        <v>2.31</v>
+        <v>2.05</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 18:13</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.76</v>
+        <v>2.64</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -5388,40 +5388,40 @@
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.29</v>
+        <v>3.43</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>19/09/2023 16:13</t>
+          <t>17/09/2023 18:13</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.45</v>
+        <v>3.28</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
+          <t>24/09/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>17/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T54" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
           <t>24/09/2023 17:57</t>
         </is>
       </c>
-      <c r="R54" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>19/09/2023 16:13</t>
-        </is>
-      </c>
-      <c r="T54" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>24/09/2023 16:28</t>
-        </is>
-      </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/sanliurfaspor-kocaelispor/lvbX97FF/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/adanaspor-as-erzurumspor-fk/AmaTAm09/</t>
         </is>
       </c>
     </row>
@@ -7657,71 +7657,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Giresunspor</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" t="n">
-        <v>2.93</v>
+        <v>2.76</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>16/10/2023 20:42</t>
+          <t>16/10/2023 01:12</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>3.53</v>
+        <v>3.09</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:51</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.18</v>
+        <v>3.29</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>16/10/2023 20:42</t>
+          <t>16/10/2023 01:12</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.4</v>
+        <v>3.23</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:51</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>16/10/2023 20:42</t>
+          <t>16/10/2023 01:12</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.14</v>
+        <v>2.43</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>22/10/2023 14:59</t>
+          <t>22/10/2023 14:51</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/giresunspor-boluspor/QPUJRWtI/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/umraniyespor-manisa-fk/lKZfXzDt/</t>
         </is>
       </c>
     </row>
@@ -7749,71 +7749,71 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Giresunspor</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>2.76</v>
+        <v>2.93</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>16/10/2023 01:12</t>
+          <t>16/10/2023 20:42</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>3.09</v>
+        <v>3.53</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>22/10/2023 14:51</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.29</v>
+        <v>3.18</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>16/10/2023 01:12</t>
+          <t>16/10/2023 20:42</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.23</v>
+        <v>3.4</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>22/10/2023 14:51</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>16/10/2023 01:12</t>
+          <t>16/10/2023 20:42</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>2.43</v>
+        <v>2.14</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>22/10/2023 14:51</t>
+          <t>22/10/2023 14:59</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/umraniyespor-manisa-fk/lKZfXzDt/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/giresunspor-boluspor/QPUJRWtI/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Keciorengucu</t>
+          <t>Tuzlaspor</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,63 +8125,63 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Goztepe</t>
+          <t>Erzurumspor</t>
         </is>
       </c>
       <c r="I84" t="n">
         <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>2.56</v>
+        <v>2.42</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>21/10/2023 18:13</t>
+          <t>21/10/2023 12:42</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>3.25</v>
+        <v>2.46</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>28/10/2023 12:21</t>
+          <t>28/10/2023 12:28</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.18</v>
+        <v>3.07</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>21/10/2023 18:13</t>
+          <t>21/10/2023 12:42</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.11</v>
+        <v>3.16</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>28/10/2023 12:21</t>
+          <t>28/10/2023 12:28</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.87</v>
+        <v>3.01</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>21/10/2023 18:13</t>
+          <t>21/10/2023 12:42</t>
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.41</v>
+        <v>3.12</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>28/10/2023 12:21</t>
+          <t>28/10/2023 12:28</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/keciorengucu-goztepe/ziQUqEdn/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-erzurumspor-fk/d6EwrhRb/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Tuzlaspor</t>
+          <t>Keciorengucu</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,63 +8217,63 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Erzurumspor</t>
+          <t>Goztepe</t>
         </is>
       </c>
       <c r="I85" t="n">
         <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>2.42</v>
+        <v>2.56</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>21/10/2023 12:42</t>
+          <t>21/10/2023 18:13</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.46</v>
+        <v>3.25</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>28/10/2023 12:28</t>
+          <t>28/10/2023 12:21</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.07</v>
+        <v>3.18</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>21/10/2023 12:42</t>
+          <t>21/10/2023 18:13</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.16</v>
+        <v>3.11</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>28/10/2023 12:28</t>
+          <t>28/10/2023 12:21</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>3.01</v>
+        <v>2.87</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>21/10/2023 12:42</t>
+          <t>21/10/2023 18:13</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>3.12</v>
+        <v>2.41</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>28/10/2023 12:28</t>
+          <t>28/10/2023 12:21</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/tuzlaspor-erzurumspor-fk/d6EwrhRb/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/keciorengucu-goztepe/ziQUqEdn/</t>
         </is>
       </c>
     </row>
@@ -8577,7 +8577,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Altay</t>
+          <t>Adanaspor AS</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -8585,22 +8585,22 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Sakaryaspor</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>26/10/2023 15:12</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>4.56</v>
+        <v>3.46</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
@@ -8608,15 +8608,15 @@
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.32</v>
+        <v>3.24</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>26/10/2023 15:12</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.66</v>
+        <v>3.39</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -8624,15 +8624,15 @@
         </is>
       </c>
       <c r="R89" t="n">
-        <v>2.45</v>
+        <v>2.83</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>26/10/2023 15:12</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>1.8</v>
+        <v>2.17</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/altay-sakaryaspor/4WHotWeB/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/adanaspor-as-umraniyespor/6ynHQjdO/</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Adanaspor AS</t>
+          <t>Altay</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -8677,22 +8677,22 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Sakaryaspor</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="n">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>26/10/2023 15:12</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>3.46</v>
+        <v>4.56</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
@@ -8700,15 +8700,15 @@
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.24</v>
+        <v>3.32</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>26/10/2023 15:12</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.39</v>
+        <v>3.66</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -8716,15 +8716,15 @@
         </is>
       </c>
       <c r="R90" t="n">
-        <v>2.83</v>
+        <v>2.45</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>26/10/2023 15:12</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="T90" t="n">
-        <v>2.17</v>
+        <v>1.8</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/adanaspor-as-umraniyespor/6ynHQjdO/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/altay-sakaryaspor/4WHotWeB/</t>
         </is>
       </c>
     </row>
@@ -9221,7 +9221,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Bodrumspor</t>
+          <t>Bandirmaspor</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -9229,63 +9229,63 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Altay</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>1.95</v>
+        <v>1.53</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>29/10/2023 11:42</t>
+          <t>29/10/2023 17:13</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.97</v>
+        <v>1.33</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>04/11/2023 20:42</t>
+          <t>05/11/2023 11:28</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.43</v>
+        <v>4.25</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>29/10/2023 11:42</t>
+          <t>29/10/2023 17:13</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.44</v>
+        <v>5.29</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>04/11/2023 20:42</t>
+          <t>05/11/2023 11:28</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>3.98</v>
+        <v>5.78</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>29/10/2023 11:42</t>
+          <t>29/10/2023 17:13</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>4.03</v>
+        <v>9.06</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>04/11/2023 20:42</t>
+          <t>05/11/2023 11:28</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/bodrumspor-manisa-fk/WIu9cXQo/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/bandirmaspor-altay/4WwHeBeb/</t>
         </is>
       </c>
     </row>
@@ -9313,7 +9313,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Bodrumspor</t>
         </is>
       </c>
       <c r="G97" t="n">
@@ -9321,63 +9321,63 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Altay</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>1.53</v>
+        <v>1.95</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>29/10/2023 17:13</t>
+          <t>29/10/2023 11:42</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.33</v>
+        <v>1.97</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>05/11/2023 11:28</t>
+          <t>04/11/2023 20:42</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>4.25</v>
+        <v>3.43</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>29/10/2023 17:13</t>
+          <t>29/10/2023 11:42</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>5.29</v>
+        <v>3.44</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>05/11/2023 11:28</t>
+          <t>04/11/2023 20:42</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>5.78</v>
+        <v>3.98</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>29/10/2023 17:13</t>
+          <t>29/10/2023 11:42</t>
         </is>
       </c>
       <c r="T97" t="n">
-        <v>9.06</v>
+        <v>4.03</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>05/11/2023 11:28</t>
+          <t>04/11/2023 20:42</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/1-lig/bandirmaspor-altay/4WwHeBeb/</t>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/bodrumspor-manisa-fk/WIu9cXQo/</t>
         </is>
       </c>
     </row>
@@ -13794,6 +13794,834 @@
       <c r="V145" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/1-lig/sanliurfaspor-corum-fk/hWfOCOmm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45283.47916666666</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Genclerbirligi</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Tuzlaspor</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>2</v>
+      </c>
+      <c r="J146" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>20/12/2023 09:42</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>23/12/2023 11:26</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>20/12/2023 09:42</t>
+        </is>
+      </c>
+      <c r="P146" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>23/12/2023 11:29</t>
+        </is>
+      </c>
+      <c r="R146" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>20/12/2023 09:42</t>
+        </is>
+      </c>
+      <c r="T146" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>23/12/2023 11:29</t>
+        </is>
+      </c>
+      <c r="V146" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/genclerbirligi-tuzlaspor/6ZKcRN2t/</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45283.70833333334</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Sakaryaspor</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>3</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Kocaelispor</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>19/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>23/12/2023 16:56</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>19/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P147" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>23/12/2023 16:55</t>
+        </is>
+      </c>
+      <c r="R147" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>19/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T147" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>23/12/2023 16:56</t>
+        </is>
+      </c>
+      <c r="V147" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/sakaryaspor-kocaelispor/lbA2QsIn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45284.47916666666</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Bandirmaspor</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>2</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Adanaspor AS</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>3</v>
+      </c>
+      <c r="J148" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>20/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>24/12/2023 11:28</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>20/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P148" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>24/12/2023 11:29</t>
+        </is>
+      </c>
+      <c r="R148" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>20/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T148" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="U148" t="inlineStr">
+        <is>
+          <t>24/12/2023 11:29</t>
+        </is>
+      </c>
+      <c r="V148" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/bandirmaspor-adanaspor-as/Iw2JMaHB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45284.47916666666</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Bodrumspor</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>3</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Goztepe</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>20/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>24/12/2023 11:29</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>20/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P149" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>24/12/2023 11:29</t>
+        </is>
+      </c>
+      <c r="R149" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>20/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T149" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>24/12/2023 11:29</t>
+        </is>
+      </c>
+      <c r="V149" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/bodrumspor-goztepe/dODAOLna/</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45284.58333333334</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Umraniyespor</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>2</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Giresunspor</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>20/12/2023 12:12</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>24/12/2023 13:33</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>20/12/2023 12:12</t>
+        </is>
+      </c>
+      <c r="P150" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>24/12/2023 13:40</t>
+        </is>
+      </c>
+      <c r="R150" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>20/12/2023 12:12</t>
+        </is>
+      </c>
+      <c r="T150" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>24/12/2023 13:40</t>
+        </is>
+      </c>
+      <c r="V150" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/umraniyespor-giresunspor/Sl96P1Xh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45284.70833333334</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Altay</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>2</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Keciorengucu</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>20/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>24/12/2023 16:57</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>20/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P151" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>24/12/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R151" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>20/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T151" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>24/12/2023 16:57</t>
+        </is>
+      </c>
+      <c r="V151" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/altay-keciorengucu/OxUj4i1p/</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>45285.5</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Manisa FK</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>1</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Sanliurfaspor</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>21/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>25/12/2023 11:58</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>21/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P152" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>25/12/2023 11:58</t>
+        </is>
+      </c>
+      <c r="R152" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>21/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T152" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="U152" t="inlineStr">
+        <is>
+          <t>25/12/2023 11:58</t>
+        </is>
+      </c>
+      <c r="V152" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/manisa-fk-sanliurfaspor/2TSf3BGj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45285.625</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Corum</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>2</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Boluspor</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>21/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>2</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>25/12/2023 14:55</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>21/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P153" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>25/12/2023 14:55</t>
+        </is>
+      </c>
+      <c r="R153" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>21/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T153" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="U153" t="inlineStr">
+        <is>
+          <t>25/12/2023 14:55</t>
+        </is>
+      </c>
+      <c r="V153" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/corum-fk-boluspor/zFCENu25/</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>1-lig</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45285.75</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Eyupspor</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>3</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Erzurumspor</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>20/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>25/12/2023 17:52</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>20/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P154" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>25/12/2023 17:57</t>
+        </is>
+      </c>
+      <c r="R154" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>20/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T154" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="U154" t="inlineStr">
+        <is>
+          <t>25/12/2023 17:57</t>
+        </is>
+      </c>
+      <c r="V154" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/1-lig/eyupspor-erzurumspor-fk/Wt6NLJWH/</t>
         </is>
       </c>
     </row>
